--- a/tools/excel/iso27001/iso27001-2022.xlsx
+++ b/tools/excel/iso27001/iso27001-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\iso27001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ciso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAAE43B-AF7A-4B34-AA8C-07F7D5B12D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B744C2F9-1ECB-49DB-AD2B-2BF49D544364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="1614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="1880">
   <si>
     <t>type</t>
   </si>
@@ -4889,6 +4889,804 @@
   </si>
   <si>
     <t>Este es el esquema de la norma ISO27001-2022. Puede comprar el estándar completo en https://www.iso.org/standard/27001</t>
+  </si>
+  <si>
+    <t>name[de]</t>
+  </si>
+  <si>
+    <t>description[de]</t>
+  </si>
+  <si>
+    <t>copyright[de]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informationssicherheit, Cybersicherheit und Datenschutz – Informationssicherheitsmanagementsysteme – Anforderungen </t>
+  </si>
+  <si>
+    <t>Internationaler Standard ISO/IEC 27001:2022</t>
+  </si>
+  <si>
+    <t>Dies ist die Gliederung der ISO 27001:2022-Norm. Die vollständige Norm kann unter https://www.iso.org/standard/27001 erworben werden.</t>
+  </si>
+  <si>
+    <t>Name[de]</t>
+  </si>
+  <si>
+    <t>Description[de]</t>
+  </si>
+  <si>
+    <t>Kontext der Organisation</t>
+  </si>
+  <si>
+    <t>Verstehen der Organisation und ihres Kontextes</t>
+  </si>
+  <si>
+    <t>Verstehen der Erfordernisse und Erwartungen interessierter Parteien</t>
+  </si>
+  <si>
+    <t>Festlegen des Anwendungsbereichs des Informationssicherheitsmanagementsystems</t>
+  </si>
+  <si>
+    <t>Informationssicherheitsmanagementsystem</t>
+  </si>
+  <si>
+    <t>Führung</t>
+  </si>
+  <si>
+    <t>Führung und Verpflichtung</t>
+  </si>
+  <si>
+    <t>Kapitel</t>
+  </si>
+  <si>
+    <t>Rollen, Verantwortlichkeiten und Befugnisse in der Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maßnahmen zum Umgang mit Risiken und Chancen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allgemeines </t>
+  </si>
+  <si>
+    <t>Informationssicherheitsrisikobeurteilung</t>
+  </si>
+  <si>
+    <t>Informationssicherheitsrisikobehandlung</t>
+  </si>
+  <si>
+    <t>Informationssicherheitsziele und Planung zu deren Erreichung</t>
+  </si>
+  <si>
+    <t>Planung von Änderungen</t>
+  </si>
+  <si>
+    <t>Unterstützung</t>
+  </si>
+  <si>
+    <t>Ressourcen</t>
+  </si>
+  <si>
+    <t>Kompetenz</t>
+  </si>
+  <si>
+    <t>Bewusstsein</t>
+  </si>
+  <si>
+    <t>Dokumentierte Information</t>
+  </si>
+  <si>
+    <t>Allgemeines</t>
+  </si>
+  <si>
+    <t>Erstellen und Aktualisieren</t>
+  </si>
+  <si>
+    <t>Steuerung dokumentierter Information</t>
+  </si>
+  <si>
+    <t>Betrieb</t>
+  </si>
+  <si>
+    <t>Betriebliche Planung und Steuerung</t>
+  </si>
+  <si>
+    <t>Bewertung der Leistung</t>
+  </si>
+  <si>
+    <t>Überwachung, Messung, Analyse und Bewertung</t>
+  </si>
+  <si>
+    <t>Internes Audit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Internes Auditprogramm</t>
+  </si>
+  <si>
+    <t>Managementbewertung</t>
+  </si>
+  <si>
+    <t>Eingaben für die Managementbewertung</t>
+  </si>
+  <si>
+    <t>Ergebnisse der Managementbewertung</t>
+  </si>
+  <si>
+    <t>Verbesserung</t>
+  </si>
+  <si>
+    <t>Fortlaufende Verbesserung</t>
+  </si>
+  <si>
+    <t>Nichtkonformität und Korrekturmaßnahmen</t>
+  </si>
+  <si>
+    <t>Organisatorische Maßnahmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Informationssicherheitspolitik und -richtlinien</t>
+  </si>
+  <si>
+    <t>Informationssicherheitsrollen und -verantwortlichkeiten</t>
+  </si>
+  <si>
+    <t>Aufgabentrennung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verantwortlichkeiten der Leitung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontakt mit Behörden </t>
+  </si>
+  <si>
+    <t>Kontakt mit speziellen Interessensgruppen</t>
+  </si>
+  <si>
+    <t>Informationen über die Bedrohungslage</t>
+  </si>
+  <si>
+    <t>Informationssicherheit im Projektmanagement</t>
+  </si>
+  <si>
+    <t>Inventar der Informationen und anderen damit verbundenen Werte</t>
+  </si>
+  <si>
+    <t>Zulässiger Gebrauch von Informationen und anderen damit verbundenen Werten</t>
+  </si>
+  <si>
+    <t>Rückgabe von Werten</t>
+  </si>
+  <si>
+    <t>Klassifizierung von Informationen</t>
+  </si>
+  <si>
+    <t>Kennzeichnung von Informationen</t>
+  </si>
+  <si>
+    <t>Informationsübermittlung</t>
+  </si>
+  <si>
+    <t>Zugangssteuerung</t>
+  </si>
+  <si>
+    <t>Identitätsmanagement</t>
+  </si>
+  <si>
+    <t>Authentisierungsinformationen</t>
+  </si>
+  <si>
+    <t>Zugangsrechte</t>
+  </si>
+  <si>
+    <t>Informationssicherheit in Lieferantenbeziehungen</t>
+  </si>
+  <si>
+    <t>Behandlung von Informationssicherheit in Lieferantenvereinbarungen</t>
+  </si>
+  <si>
+    <t>Umgang mit der Informationssicherheit in der Lieferkette der IKT</t>
+  </si>
+  <si>
+    <t>Überwachung, Überprüfung und Änderungsmanagement von Lieferantendienstleistungen</t>
+  </si>
+  <si>
+    <t>Informationssicherheit für die Nutzung von Cloud-Diensten</t>
+  </si>
+  <si>
+    <t>Planung und Vorbereitung der Handhabung von Informationssicherheitsvorfällen</t>
+  </si>
+  <si>
+    <t>Beurteilung und Entscheidung über Informationssicherheitsereignisse</t>
+  </si>
+  <si>
+    <t>Reaktion auf Informationssicherheitsvorfälle</t>
+  </si>
+  <si>
+    <t>Erkenntnisse aus Informationssicherheitsvorfällen</t>
+  </si>
+  <si>
+    <t>Sammeln von Beweismaterial</t>
+  </si>
+  <si>
+    <t>Informationssicherheit bei Störungen</t>
+  </si>
+  <si>
+    <t>IKT-Bereitschaft für Business Continuity</t>
+  </si>
+  <si>
+    <t>Juristische, gesetzliche, regulatorische und vertragliche Anforderungen</t>
+  </si>
+  <si>
+    <t>Geistige Eigentumsrechte</t>
+  </si>
+  <si>
+    <t>Schutz von Aufzeichnungen</t>
+  </si>
+  <si>
+    <t>Datenschutz und Schutz von personenbezogenen Daten</t>
+  </si>
+  <si>
+    <t>Unabhängige Überprüfung der Informationssicherheit</t>
+  </si>
+  <si>
+    <t>Einhaltung von Richtlinien, Vorschriften und Normen</t>
+  </si>
+  <si>
+    <t>Dokumentierte Betriebsabläufe</t>
+  </si>
+  <si>
+    <t>Personenbezogene Maßnahmen</t>
+  </si>
+  <si>
+    <t>Sicherheitsüberprüfung</t>
+  </si>
+  <si>
+    <t>Beschäftigungs- und Vertragsbedingungen</t>
+  </si>
+  <si>
+    <t>Informationssicherheitsbewusstsein, Ausbildung und Schulung</t>
+  </si>
+  <si>
+    <t>Maßregelungsprozess</t>
+  </si>
+  <si>
+    <t>Verantwortlichkeiten bei Beendigung oder Änderung der Beschäftigung</t>
+  </si>
+  <si>
+    <t>Vertraulichkeits- oder Geheimhaltungsvereinbarungen</t>
+  </si>
+  <si>
+    <t>Remote-Arbeit</t>
+  </si>
+  <si>
+    <t>Meldung von Informationssicherheitsereignissen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Physische Maßnahmen</t>
+  </si>
+  <si>
+    <t>Physische Sicherheitsperimeter</t>
+  </si>
+  <si>
+    <t>Physischer Zutritt</t>
+  </si>
+  <si>
+    <t>Sichern von Büros, Räumen und Einrichtungen</t>
+  </si>
+  <si>
+    <t>Physische Sicherheitsüberwachung</t>
+  </si>
+  <si>
+    <t>Schutz vor physischen und umweltbedingten Bedrohungen</t>
+  </si>
+  <si>
+    <t>Arbeiten in Sicherheitsbereichen</t>
+  </si>
+  <si>
+    <t>Aufgeräumte Arbeitsumgebung und Bildschirmsperren</t>
+  </si>
+  <si>
+    <t>Platzierung und Schutz von Geräten und Betriebsmitteln</t>
+  </si>
+  <si>
+    <t>Sicherheit von Werten außerhalb der Räumlichkeiten</t>
+  </si>
+  <si>
+    <t>Speichermedien</t>
+  </si>
+  <si>
+    <t>Versorgungseinrichtungen</t>
+  </si>
+  <si>
+    <t>Sicherheit der Verkabelung</t>
+  </si>
+  <si>
+    <t>Instandhaltung von Geräten und Betriebsmitteln</t>
+  </si>
+  <si>
+    <t>Sichere Entsorgung oder Wiederverwendung von Geräten</t>
+  </si>
+  <si>
+    <t>Technologische Maßnahmen</t>
+  </si>
+  <si>
+    <t>Endpunktgeräte des Benutzers</t>
+  </si>
+  <si>
+    <t>Privilegierte Zugangsrechte</t>
+  </si>
+  <si>
+    <t>Informationszugangsbeschränkung</t>
+  </si>
+  <si>
+    <t>Zugriff auf den Quellcode</t>
+  </si>
+  <si>
+    <t>Sichere Authentisierung</t>
+  </si>
+  <si>
+    <t>Kapazitätssteuerung</t>
+  </si>
+  <si>
+    <t>Schutz gegen Schadsoftware</t>
+  </si>
+  <si>
+    <t>Handhabung von technischen Schwachstellen</t>
+  </si>
+  <si>
+    <t>Konfigurationsmanagement</t>
+  </si>
+  <si>
+    <t>Löschung von Informationen</t>
+  </si>
+  <si>
+    <t>Datenmaskierung</t>
+  </si>
+  <si>
+    <t>Verhinderung von Datenlecks</t>
+  </si>
+  <si>
+    <t>Sicherung von Informationen</t>
+  </si>
+  <si>
+    <t>Redundanz von informationsverarbeitenden Einrichtungen</t>
+  </si>
+  <si>
+    <t>Protokollierung</t>
+  </si>
+  <si>
+    <t>Überwachung von Aktivitäten</t>
+  </si>
+  <si>
+    <t>Uhrensynchronisation</t>
+  </si>
+  <si>
+    <t>Gebrauch von Hilfsprogrammen mit privilegierten Rechten</t>
+  </si>
+  <si>
+    <t>Installation von Software auf Systemen im Betrieb</t>
+  </si>
+  <si>
+    <t>Netzwerksicherheit</t>
+  </si>
+  <si>
+    <t>Sicherheit von Netzwerkdiensten</t>
+  </si>
+  <si>
+    <t>Trennung von Netzwerken</t>
+  </si>
+  <si>
+    <t>Webfilterung</t>
+  </si>
+  <si>
+    <t>Verwendung von Kryptographie</t>
+  </si>
+  <si>
+    <t>Lebenszyklus einer sicheren Entwicklung</t>
+  </si>
+  <si>
+    <t>Anforderungen an die Anwendungssicherheit</t>
+  </si>
+  <si>
+    <t>Sichere Systemarchitektur und Entwicklungsgrundsätze</t>
+  </si>
+  <si>
+    <t>Sichere Codierung</t>
+  </si>
+  <si>
+    <t>Sicherheitsprüfung bei Entwicklung und Abnahme</t>
+  </si>
+  <si>
+    <t>Ausgegliederte Entwicklung</t>
+  </si>
+  <si>
+    <t>Trennung von Entwicklungs-, Test- und Produktionsumgebungen</t>
+  </si>
+  <si>
+    <t>Änderungssteuerung</t>
+  </si>
+  <si>
+    <t>Testdaten</t>
+  </si>
+  <si>
+    <t>Schutz der Informationssysteme während Tests im Audit</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Richtlinien für die Informationssicherheit erstellt, genehmigt und organisatorisch verankert werden. Die Richtlinien müssen mit den strategischen Zielen übereinstimmen, Verantwortlichkeiten festlegen und die Einhaltung gesetzlicher, regulatorischer und vertraglicher Anforderungen unterstützen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme legt klare Rollen, Verantwortlichkeiten und Befugnisse im Bereich der Informationssicherheit fest. Sie stellt sicher, dass Zuständigkeiten dokumentiert, kommuniziert und regelmäßig überprüft werden, um eine wirksame Umsetzung der Sicherheitsmaßnahmen zu gewährleisten.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass kritische oder miteinander kollidierende Aufgaben voneinander getrennt werden, um Risiken wie Fehler, Betrug oder unbefugte Aktivitäten zu reduzieren. Dies wird durch rollenspezifische Zugriffsbeschränkungen, klare Verantwortlichkeiten und geeignete Kontrollen erreicht.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass die Leitung Verantwortung für die Informationssicherheit übernimmt. Dazu gehören die Unterstützung der Sicherheitsziele, die Bereitstellung notwendiger Ressourcen, das Fördern einer Sicherheitskultur sowie die Überwachung von Umsetzung und Wirksamkeit.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass die Organisation angemessene Kommunikationswege mit relevanten Behörden besitzt. Dies umfasst klare Zuständigkeiten, gepflegte Kontaktlisten und definierte Abläufe, insbesondere für meldepflichtige Sicherheitsvorfälle.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme fördert den Austausch mit relevanten Sicherheits- und Branchenforen, um aktuelle Trends, Bedrohungen und bewährte Verfahren frühzeitig zu erkennen und im Informationssicherheitsmanagement zu berücksichtigen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Informationen über aktuelle und potenzielle Bedrohungen systematisch gesammelt, analysiert und bewertet werden. Die gewonnenen Erkenntnisse sollen helfen, Risiken besser zu verstehen und wirksame Schutzmaßnahmen abzuleiten.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Informationssicherheit systematisch in alle Phasen des Projektmanagements integriert wird. Dazu gehören Risikoanalysen, Sicherheitsanforderungen, Compliance-Prüfungen und Sicherheitsfreigaben im Rahmen des Projektlebenszyklus.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass die Organisation ein aktuelles, vollständiges und gepflegtes Inventar von Informationen und zugehörigen Werten führt. Es dient der Verantwortlichkeitszuordnung und unterstützt risikobasierte Schutzmaßnahmen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme definiert klare Regeln für die zulässige Nutzung von Informationen, Datenträgern, Geräten und anderen Werten. Sie stellt sicher, dass Benutzer die Anforderungen kennen und einhalten, einschließlich Schulungen und Richtlinien.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass sämtliche organisatorischen Werte – einschließlich Geräten, Datenträgern, Zugangsberechtigungen oder Dokumenten – bei Austritt oder Rollenwechsel vollständig und sicher zurückgegeben werden.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Informationen gemäß ihrem Schutzbedarf klassifiziert werden. Die Klassifizierung berücksichtigt Vertraulichkeit, Integrität, Verfügbarkeit sowie gesetzliche und vertragliche Anforderungen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass klassifizierte Informationen eindeutig und korrekt gekennzeichnet werden, sodass notwendige Schutzmaßnahmen zuverlässig angewendet werden können.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme definiert Verfahren und Anforderungen für die sichere Übertragung von Informationen zwischen Systemen, Personen und Organisationen. Dazu gehören Verschlüsselung, Zugriffsbeschränkungen und dokumentierte Kommunikationswege.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass der Zugang zu Informationen und Werten ausschließlich autorisierten Personen ermöglicht wird. Dies umfasst rollenbasierte Zugriffskonzepte, starke Authentisierungsmechanismen und regelmäßige Überprüfungen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass digitale und physische Identitäten über ihren gesamten Lebenszyklus hinweg sicher verwaltet werden – einschließlich Identitätsprüfung, Bereitstellung, Änderung und Entzug von Zugriffsrechten.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme schützt Authentisierungsinformationen wie Passwörter, Tokens oder Schlüssel vor Missbrauch, einschließlich sicherer Speicherung, Verschlüsselung und Nutzungsvorgaben.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Zugriffsrechte angemessen vergeben, regelmäßig überprüft, angepasst und widerrufen werden, wenn sie nicht mehr erforderlich sind.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Informationssicherheit in Auswahl, Bewertung, Überwachung und Steuerung von Lieferantenbeziehungen verankert ist.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Informationssicherheitsanforderungen ausdrücklich in Verträgen geregelt werden, einschließlich Datenschutz, Zugriffskontrolle, Compliance-Vorgaben und Durchsetzungsmechanismen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Risiken in der IKT-Lieferkette bewertet und angemessen gesteuert werden, um die Sicherheit, Integrität und Verfügbarkeit von Systemen, Komponenten und Dienstleistungen zu gewährleisten. Dazu gehören Risikobewertungen, Sicherheitsüberprüfungen, Anforderungen an Zulieferer und Notfallmaßnahmen entlang der Lieferkette.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Lieferantendienstleistungen kontinuierlich überwacht, bewertet und bei Bedarf angepasst werden, um Informationssicherheit, Servicequalität und Compliance dauerhaft sicherzustellen. Dazu gehören Leistungsüberprüfungen, Vertragsaktualisierungen und Risikobewertungen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Risiken im Zusammenhang mit der Nutzung von Cloud-Diensten identifiziert, bewertet und angemessen kontrolliert werden. Dazu gehören Verschlüsselung, Zugriffskontrollen, Compliance-Prüfungen, Überwachung des Cloud-Anbieters sowie Anforderungen an Datenstandorte und Incident-Response.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Strukturen, Rollen, Prozesse und Kommunikationswege für den Umgang mit Informationssicherheitsvorfällen vorbereitet, dokumentiert und regelmäßig getestet werden. Dazu gehören Incident-Response-Pläne, Schulungen, Übungen und Eskalationsmechanismen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Informationssicherheitsereignisse systematisch erfasst, analysiert und bewertet werden. Dazu gehört die Entscheidung, ob ein Ereignis einen Sicherheitsvorfall darstellt, sowie die Durchführung von Ursachenanalysen, Risikobewertungen und Ableitung angemessener Maßnahmen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass auf Informationssicherheitsvorfälle strukturiert, zeitnah und wirksam reagiert wird, um Auswirkungen zu minimieren und den Normalbetrieb schnellstmöglich wiederherzustellen. Dazu gehören Meldemechanismen, Eskalationswege, Eindämmungsmaßnahmen und Wiederherstellungsprozesse.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Erkenntnisse aus Sicherheitsvorfällen gesammelt, ausgewertet, dokumentiert und in Verbesserungsmaßnahmen umgesetzt werden. Dazu gehören Lessons-Learned-Sitzungen, Aktualisierung von Richtlinien und Anpassung von technischen und organisatorischen Maßnahmen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Beweismaterial bei Sicherheitsvorfällen ordnungsgemäß gesammelt, dokumentiert, gesichert und geschützt wird, um die Integrität, Nachvollziehbarkeit und gerichtliche Verwertbarkeit sicherzustellen. Dazu gehören Chain-of-Custody-Prozesse, sichere Lagerung und Zugriffskontrollen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass die Informationssicherheit auch während betrieblicher Störungen, Notfälle oder Krisen aufrechterhalten wird. Dazu gehören Notfallmaßnahmen, alternative Betriebsverfahren, redundante Systeme und Priorisierung kritischer Prozesse.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass IKT-Systeme und -Dienste so vorbereitet sind, dass sie Ziele der Geschäftskontinuität unterstützen. Dazu gehören Redundanzen, Wiederanlaufverfahren, regelmäßige Tests von Wiederherstellungsplänen und Ausweichstandorte.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass alle relevanten gesetzlichen, regulatorischen und vertraglichen Anforderungen identifiziert, dokumentiert, regelmäßig überprüft und eingehalten werden. Dazu gehören Datenschutzvorgaben, Normen, branchenspezifische Anforderungen und vertragliche Verpflichtungen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme schützt geistiges Eigentum durch geeignete technische und organisatorische Maßnahmen. Dazu gehören Zugriffsbeschränkungen, Verschlüsselung, vertragliche Vereinbarungen und Schutz vor unbefugter Nutzung oder Verbreitung.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Aufzeichnungen während ihrer gesamten Aufbewahrungsdauer geschützt werden – vor Verlust, Veränderung, unbefugtem Zugriff oder Zerstörung. Dazu gehören Aufbewahrungsrichtlinien, sichere Lagerung und kontrollierter Zugriff.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass personenbezogene Daten gemäß gesetzlichen und vertraglichen Datenschutzanforderungen verarbeitet und geschützt werden. Dazu gehören Verschlüsselung, Zugriffskontrolle, Minimierung und Dokumentation der Datenverarbeitung.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Informationssicherheit regelmäßig unabhängig bewertet wird, um Wirksamkeit, Angemessenheit und Konformität des ISMS zu überprüfen. Dazu gehören interne oder externe Audits, Sicherheitsbewertungen und Nachverfolgung von Maßnahmen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass alle Vorgaben, Richtlinien, Regeln und Standards zur Informationssicherheit eingehalten werden. Dazu gehören Schulungen, Überwachungsprozesse, Kontrollen und Eskalationsmechanismen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Betriebsprozesse dokumentiert, gepflegt, versioniert und für berechtigte Personen verfügbar sind, um konsistente, sichere und nachvollziehbare Abläufe sicherzustellen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass geeignete Hintergrundprüfungen durchgeführt werden, um die Vertrauenswürdigkeit und Eignung von Bewerbern zu bestätigen. Dazu gehören Identitätsprüfung, Qualifikationsnachweise und weitere gesetzlich zulässige Überprüfungen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass arbeitsvertragliche Vereinbarungen klare Anforderungen an Informationssicherheit, Vertraulichkeit und Compliance enthalten. Mitarbeitende müssen ihre sicherheitsrelevanten Verantwortlichkeiten verstehen und anerkennen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass alle relevanten Personen regelmäßig Schulungen, Awareness-Maßnahmen und Unterweisungen zur Informationssicherheit erhalten, um Risiken zu verstehen und sichere Verhaltensweisen anzuwenden.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Verstöße gegen Sicherheitsrichtlinien formal, fair und nachvollziehbar behandelt werden. Der Prozess legt Maßnahmen, Eskalationswege und Konsequenzen fest.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass bei Beendigung des Arbeitsverhältnisses oder Rollenwechsels alle sicherheitsrelevanten Verantwortlichkeiten berücksichtigt werden – einschließlich Entzug von Zugriffsrechten, Rückgabe von Werten und fortbestehender Vertraulichkeitspflichten.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Mitarbeitende und externe Parteien entsprechende Vertraulichkeitsvereinbarungen unterzeichnen, die definieren, wie sensible Informationen zu schützen sind – auch nach Ende der Zusammenarbeit.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Risiken der Remote-Arbeit angemessen adressiert werden, einschließlich sicherer Zugriffe, Geräteschutz, Vorgaben zum Umgang mit Informationen und geeigneten technischen Schutzmaßnahmen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Mitarbeitende Informationssicherheitsereignisse unverzüglich melden können. Dazu gehören klare Meldewege, Sensibilisierung und definierte Prozesse zur Erfassung, Bewertung und Weiterleitung von Ereignissen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass physische Sicherheitszonen eingerichtet werden, um kritische Bereiche vor unbefugtem Zutritt zu schützen. Dazu gehören bauliche Schutzmaßnahmen, Zutrittskontrollen, Überwachungssysteme und organisatorische Vorgaben.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass der Zutritt zu sicherheitsrelevanten Bereichen kontrolliert, gesteuert und überwacht wird. Dazu gehören Zugangsausweise, Besuchermanagement, Protokollierung und Überwachung des Zutritts.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Büros, Räume und Einrichtungen vor unbefugtem Zugang, Manipulation oder Diebstahl geschützt werden. Dazu gehören Schließsysteme, Zugangsbeschränkungen, sichere Aufbewahrung und physische Kontrollen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass sicherheitsrelevante Bereiche durch geeignete Überwachungseinrichtungen wie Videoüberwachung, Sensorik, Alarmsysteme und Benachrichtigungen überwacht werden, um unbefugte Aktivitäten frühzeitig zu erkennen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Systeme und Einrichtungen gegen physische und umweltbedingte Risiken wie Feuer, Wasser, Hitze, Kälte, Vibrationen oder Naturereignisse geschützt werden. Dazu gehören Brandschutz, Klimakontrolle, Überspannungsschutz und bauliche Maßnahmen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme legt Anforderungen und Verhaltensregeln für Tätigkeiten in Sicherheitsbereichen fest. Dazu gehören kontrollierte Zugänge, Überwachung, Begleitung von Besuchern und organisatorische Vorgaben für Abläufe und Verhalten.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass sensible Informationen nicht offen einsehbar sind. Dazu gehören Clean-Desk-Regeln, sichere Aufbewahrung von Dokumenten, Abschließen von Arbeitsplätzen und automatische Bildschirmsperren.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Geräte so positioniert, installiert und geschützt werden, dass Risiken wie unbefugter Zugriff, Manipulation oder Beschädigung minimiert werden. Dazu gehören sichere Standorte, Schränke, Gehäuse und Zutrittskontrollen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Geräte, Datenträger und andere Werte auch außerhalb organisatorischer Standorte wirksam geschützt werden. Dazu gehören Verschlüsselung, sichere Transportwege, physischer Schutz und Kontrolle über die Nutzung.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Speichermedien während ihres gesamten Lebenszyklus geschützt sind – bei Speicherung, Transport, Nutzung und Entsorgung. Dazu gehören sichere Lagerung, Verschlüsselung, Zugriffskontrollen und dokumentierte Löschverfahren.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass essenzielle Versorgungseinrichtungen wie Strom, Klima, Wasser, Netzwerk oder Druckluft zuverlässig betrieben und vor Ausfällen geschützt werden. Redundanzen und Überwachungssysteme unterstützen die Betriebssicherheit.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Kommunikations- und Stromkabel gegen Abhören, Manipulation, Beschädigung und Störungen geschützt werden. Dazu gehören Kabelschutzrohre, sichere Verlegung, Kennzeichnung und Zugangskontrollen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Geräte regelmäßig, fachgerecht und sicher gewartet werden, um Ausfälle und Sicherheitsrisiken zu vermeiden. Wartungsarbeiten dürfen nur von autorisiertem und qualifiziertem Personal durchgeführt werden.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Geräte vor Entsorgung oder Weiterverwendung so bereinigt werden, dass keine sensiblen Informationen wiederhergestellt werden können. Dazu gehören zertifizierte Löschverfahren, physische Vernichtung und dokumentierte Prozesse.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Endgeräte wie Laptops, Desktops oder Mobilgeräte durch technische und organisatorische Maßnahmen geschützt werden. Dazu gehören sichere Konfigurationen, Verschlüsselung, Malware-Schutz, Patch-Management und Zugriffskontrollen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass privilegierte Zugänge nur autorisierten Personen gewährt werden und deren Nutzung überwacht, dokumentiert und regelmäßig überprüft wird. Dies umfasst starke Authentisierung, Protokollierung und strenge Verwaltung privilegierter Konten.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass der Zugriff auf Informationen nach dem Need-to-know-Prinzip beschränkt wird, um unbefugten Zugriff zu verhindern. Dazu gehören Zugriffskontrollen, Rollenrechte, Authentisierung und regelmäßige Überprüfungen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Zugriff auf Quellcode kontrolliert, überwacht und geschützt erfolgt, um Manipulation, Offenlegung oder unbefugte Änderung zu verhindern. Dazu gehören Rechtemanagement, Versionskontrolle, Code-Reviews und abgesicherte Repositorys.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass starke Authentisierungsmechanismen eingesetzt werden – wie Multi-Faktor-Authentisierung, sichere Passwortrichtlinien, Token oder biometrische Verfahren – um unbefugten Zugriff zu verhindern.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Systemkapazitäten kontinuierlich überwacht, geplant und gesteuert werden, um Leistungseinbußen, Engpässe oder Ausfälle zu vermeiden. Dazu gehören Kapazitätsplanung, Monitoring und Prognosen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Systeme durch geeignete technische und organisatorische Maßnahmen vor Malware, Schadsoftware und Angriffen geschützt werden. Dazu gehören Antivirensoftware, EDR/XDR, regelmäßige Updates und Sensibilisierung.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass technische Schwachstellen zeitnah identifiziert, bewertet, priorisiert und behoben werden. Dazu gehören Schwachstellenscans, Patch-Management, Risikobewertungen und Nachweisführung.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Systemkonfigurationen definiert, dokumentiert, geschützt und kontrolliert geändert werden, um Sicherheitseinstellungen zu gewährleisten und unbeabsichtigte Änderungen zu verhindern.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Informationen, die nicht mehr benötigt werden oder gesetzlichen Vorgaben zufolge gelöscht werden müssen, sicher und nachvollziehbar entfernt werden. Dazu gehören dokumentierte Löschverfahren, sichere Methoden und Nachweise.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass sensible Informationen während Verarbeitung, Anzeige oder Test durch geeignete Maskierungsverfahren geschützt werden. Dies verhindert, dass unbefugte Personen Inhalte erkennen oder missbrauchen können.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass unbeabsichtigter oder unbefugter Abfluss sensibler Daten durch technische und organisatorische Maßnahmen verhindert wird. Dazu gehören DLP-Systeme, Richtlinien, Überwachung und Zugriffsbeschränkungen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass kritische Informationen regelmäßig, vollständig, geschützt und wiederherstellbar gesichert werden. Dies umfasst Backup-Strategien, Speicherorte, Tests und Dokumentation.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass kritische Systeme und Dienste durch Redundanzen, Ausweichmechanismen und Notbetriebskonzepte abgesichert sind, um Ausfallzeiten zu minimieren und Betriebsfähigkeit zu erhalten.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass sicherheitsrelevante Ereignisse und Aktivitäten protokolliert, geschützt, überprüft und für Analysen sowie Ermittlungen genutzt werden können. Dies umfasst Log-Quellen, Integrität der Logs, Aufbewahrung und Überwachung.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Systeme, Dienste und Netzwerke kontinuierlich überwacht werden, um Anomalien, Angriffe oder sicherheitsrelevante Ereignisse frühzeitig zu erkennen und geeignete Gegenmaßnahmen einzuleiten.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass System- und Netzwerkuhren synchronisiert sind, um korrekte Zeitstempel für Protokolle, Analysen und sicherheitsrelevante Prozesse zu gewährleisten.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass der Einsatz privilegierter Dienstprogramme kontrolliert, überwacht und auf berechtigte Personen beschränkt wird. Dies verhindert Missbrauch, Manipulation und unbefugte Aktivitäten.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Softwareinstallationen in produktiven Umgebungen kontrolliert, dokumentiert und autorisiert erfolgen, um Risiken durch Schadsoftware, Fehlkonfigurationen oder unbefugte Änderungen zu vermeiden.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Netzwerke durch geeignete Sicherheitsmaßnahmen wie Firewalls, IDS/IPS, Segmentierung, Überwachung und Zugriffskontrollen geschützt werden.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass genutzte Netzwerkdienste – intern und extern – sicher bereitgestellt, überwacht und geschützt werden. Dazu gehören Sicherheitsvereinbarungen, Monitoring, Tests und Absicherung gegen Angriffe.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Netzwerke nach Schutzbedarf segmentiert werden, um Risiken, Angriffsflächen und Auswirkungen potenzieller Vorfälle zu reduzieren.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Zugriffe auf schädliche, unangemessene oder unerlaubte Webseiten durch Filtermechanismen eingeschränkt oder verhindert werden.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass kryptographische Verfahren angemessen ausgewählt, eingesetzt, verwaltet und geschützt werden, um Vertraulichkeit, Integrität und Authentizität von Informationen zu gewährleisten.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Sicherheitsanforderungen, Tests, Reviews und Kontrollen in allen Phasen des Entwicklungslebenszyklus verankert sind – von der Planung über Design, Implementierung, Test bis zur Übergabe.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass für Anwendungen klare Sicherheitsanforderungen definiert, dokumentiert und umgesetzt werden, um Schwachstellen und Sicherheitsrisiken zu vermeiden.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Sicherheitsprinzipien wie Minimierung von Angriffsflächen, Defense-in-Depth, sichere Standards und Best Practices in Architektur- und Designprozessen verankert sind.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Entwickler sichere Coding-Praktiken anwenden, um Fehler, Schwachstellen und Angriffsflächen zu reduzieren. Dazu gehören Standards, Code-Reviews und Schulungen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Anwendungen und Systeme während Entwicklung, Test und Abnahme einer Sicherheitsprüfung unterzogen werden, um Schwachstellen frühzeitig zu erkennen.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass bei ausgelagerter Entwicklung Sicherheitsanforderungen vertraglich und organisatorisch geregelt, überwacht und durchgesetzt werden.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Entwicklungs-, Test- und Produktionsumgebungen klar voneinander getrennt sind, um unbeabsichtigte Änderungen, Sicherheitsrisiken oder Datenverlust zu verhindern.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Änderungen an Systemen kontrolliert, dokumentiert und risikobewertet durchgeführt werden, um Stabilität, Sicherheit und Nachvollziehbarkeit sicherzustellen. Dies umfasst Genehmigungsprozesse, Tests, Dokumentation und Überwachung.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Testdaten – insbesondere wenn sie produktive oder vertrauliche Inhalte enthalten – geschützt, anonymisiert oder maskiert werden, um unbefugte Einsicht oder Missbrauch zu verhindern.</t>
+  </si>
+  <si>
+    <t>Diese Steuerungsmaßnahme stellt sicher, dass Systeme, Dienste und Daten während Prüfungen geschützt werden, indem unbefugter Zugriff, Datenabfluss oder Betriebsstörungen verhindert werden. Dazu gehören die Nutzung von Nicht-Produktivumgebungen, Zugriffsbeschränkungen, sichere Verfahren und Vertraulichkeitsvereinbarungen.</t>
+  </si>
+  <si>
+    <t>Änderungen am ISMS werden systematisch geplant, indem Auswirkungen auf Prozesse, Ressourcen und Sicherheitsanforderungen bewertet werden</t>
+  </si>
+  <si>
+    <t>Personen, die Aufgaben im ISMS übernehmen, verfügen über die erforderlichen Kenntnisse, Fähigkeiten, Erfahrungen und Qualifikationen</t>
+  </si>
+  <si>
+    <t>Dokumentierte Informationen werden geschützt, zugriffskontrolliert, wiederauffindbar und vor Verlust, Missbrauch oder Beschädigung gesichert</t>
+  </si>
+  <si>
+    <t>ISMS-relevante Prozesse werden geplant, gesteuert und überwacht</t>
+  </si>
+  <si>
+    <t>Interne und externe Faktoren werden identifiziert, die beeinflussen, ob und in welchem Ausmaß Informationssicherheitsziele erreicht werden können</t>
+  </si>
+  <si>
+    <t>Die Bedürfnisse und Erwartungen relevanter interessierter Parteien werden analysiert, um daraus resultierende Anforderungen an die Informationssicherheit vollständig zu erfassen und im ISMS zu berücksichtigen</t>
+  </si>
+  <si>
+    <t>Der Anwendungsbereich des ISMS wird festgelegt, indem interne und externe Faktoren, die Anforderungen interessierter Parteien sowie Prozesse, Systeme, Standorte, Dienstleistungen und Abhängigkeiten vollständig berücksichtigt werden</t>
+  </si>
+  <si>
+    <t>Ein Informationssicherheitsmanagementsystem wird aufgebaut, betrieben und kontinuierlich verbessert, um Informationssicherheitsrisiken wirksam zu steuern und die festgelegten Sicherheitsziele zu erreichen</t>
+  </si>
+  <si>
+    <t>Führung und Engagement werden gezeigt, indem das ISMS aktiv unterstützt, mit den Unternehmenszielen abgestimmt, mit erforderlichen Ressourcen ausgestattet und durch die Förderung einer Sicherheitskultur sowie kontinuierliche Verbesserungsmaßnahmen vorangetrieben wird.</t>
+  </si>
+  <si>
+    <t>Eine Informationssicherheitspolitik wird erstellt, dokumentiert und kommuniziert, die Ziele, Grundsätze und Verpflichtungen beschreibt und im Einklang mit der strategischen Ausrichtung steht.</t>
+  </si>
+  <si>
+    <t>Rollen, Verantwortlichkeiten und Befugnisse werden definiert, zugewiesen und kommuniziert, damit Aufgaben, Zuständigkeiten und Entscheidungswege klar geregelt und nachvollziehbar sind.</t>
+  </si>
+  <si>
+    <t>Risiken und Chancen werden identifiziert und bewertet, um Maßnahmen abzuleiten, die die Erreichung der Informationssicherheitsziele unterstützen und unerwünschte Auswirkungen verhindern sollen.</t>
+  </si>
+  <si>
+    <t>Ein dokumentierter und einheitlich angewendeter Prozess zur Beurteilung von Informationssicherheitsrisiken wird definiert, in dem Kriterien, Methoden, Eintrittswahrscheinlichkeiten und Auswirkungen beschrieben werden, um Risiken nachvollziehbar zu bewerten.</t>
+  </si>
+  <si>
+    <t>Identifizierte Informationssicherheitsrisiken werden behandelt, indem Optionen zur Risikovermeidung, -minderung, -übertragung oder -akzeptanz bewertet, ausgewählt, priorisiert und umgesetzt werden</t>
+  </si>
+  <si>
+    <t>Informationssicherheitsziele werden messbar formuliert, Verantwortlichkeiten und Ressourcen werden festgelegt, Zeitrahmen definiert und geeignete Methoden zur Bewertung des Zielerreichungsgrades bestimmt</t>
+  </si>
+  <si>
+    <t>Personelle, technische, finanzielle und organisatorische Ressourcen werden bereitgestellt, um Aufbau, Betrieb und Weiterentwicklung des ISMS sicherzustellen.</t>
+  </si>
+  <si>
+    <t>Mitarbeitende werden über ihre sicherheitsrelevanten Verantwortlichkeiten, Risiken, Rollen und Verhaltensanforderungen informiert, um ein ausgeprägtes Sicherheitsbewusstsein sicherzustellen.</t>
+  </si>
+  <si>
+    <t>Kommunikationsprozesse zu informationssicherheitsrelevanten Themen werden definiert, einschließlich Inhalten, Empfängern, Zuständigkeiten und geeigneten Zeitpunkten.</t>
+  </si>
+  <si>
+    <t>Dokumentierte Informationen werden erstellt, aktualisiert und verwaltet, soweit dies für Planung, Betrieb, Steuerung und Überwachung des ISMS erforderlich ist.</t>
+  </si>
+  <si>
+    <t>Dokumente werden geprüft, genehmigt, versioniert und gepflegt, sodass deren Genauigkeit, Aktualität und Eignung gewährleistet ist.</t>
+  </si>
+  <si>
+    <t>Risikobeurteilungen werden anhand der definierten Methoden durchgeführt, dokumentiert und aktualisiert, um relevante Risiken systematisch zu erfassen und zu bewerten.</t>
+  </si>
+  <si>
+    <t>Maßnahmen aus Risikobehandlungsplänen werden umgesetzt, deren Fortschritt überwacht und ihre Wirksamkeit bewertet</t>
+  </si>
+  <si>
+    <t>Leistungskennzahlen, Überwachungsergebnisse und Analyseverfahren werden angewendet, um Wirksamkeit, Angemessenheit und Effizienz des ISMS zu bewerten</t>
+  </si>
+  <si>
+    <t>Interne Audits werden in geplanten Abständen durchgeführt, um Umsetzung, Wirksamkeit und Konformität des ISMS systematisch zu überprüfen</t>
+  </si>
+  <si>
+    <t>Interne Audits werden geplant und durchgeführt, wobei Kriterien, Umfang, Methoden und Verantwortlichkeiten festgelegt werden</t>
+  </si>
+  <si>
+    <t>Managementbewertungen werden durchgeführt, um die Eignung, Angemessenheit und Wirksamkeit des ISMS sowie dessen Beitrag zur Erreichung der organisationalen Ziele zu beurteilen.</t>
+  </si>
+  <si>
+    <t>Für die Managementbewertung werden Auditberichte, Leistungsindikatoren, Vorfälle, Rückmeldungen, externe Änderungen, Risiken und Chancen sowie identifizierte Verbesserungsmöglichkeiten berücksichtigt.</t>
+  </si>
+  <si>
+    <t>Die Ergebnisse der Managementbewertung umfassen Entscheidungen zu Verbesserungen, Ressourcenbedarf, notwendigen Anpassungen des ISMS sowie die Festlegung von Prioritäten</t>
+  </si>
+  <si>
+    <t>Verbesserungspotenziale werden identifiziert, bewertet und umgesetzt, um Wirksamkeit, Effizienz und Reife des ISMS zu erhöhen und eine bestmögliche Ausrichtung an den organisatorischen Zielen sicherzustellen.</t>
+  </si>
+  <si>
+    <t>Nichtkonformitäten werden behandelt, indem Korrekturmaßnahmen ergriffen, die zugrunde liegenden Ursachen identifiziert und Maßnahmen umgesetzt werden, die ein erneutes Auftreten verhindern sollen</t>
+  </si>
+  <si>
+    <t>Erklärung zur Anwendbarkeit</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -4951,7 +5749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4984,11 +5782,23 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5032,6 +5842,14 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5063,26 +5881,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{555F9585-D06C-4B24-98C7-D7216DEB2FC8}" name="Tableau1" displayName="Tableau1" ref="L1:O1048576" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="L1:O1048576" xr:uid="{555F9585-D06C-4B24-98C7-D7216DEB2FC8}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C059DDF9-A0FB-4C10-A62B-FEAE0B36B82B}" name="Name[sv]" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{BF7AE1F4-AF03-4E2D-AB60-47D7A97522E3}" name="Description[sv]" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{30D5F370-2AC1-4825-905A-1BA02CD59D31}" name="Name[es]" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{555F9585-D06C-4B24-98C7-D7216DEB2FC8}" name="Tableau1" displayName="Tableau1" ref="L1:Q1048576" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="L1:Q1048576" xr:uid="{555F9585-D06C-4B24-98C7-D7216DEB2FC8}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C059DDF9-A0FB-4C10-A62B-FEAE0B36B82B}" name="Name[sv]" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{BF7AE1F4-AF03-4E2D-AB60-47D7A97522E3}" name="Description[sv]" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{30D5F370-2AC1-4825-905A-1BA02CD59D31}" name="Name[es]" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.TRANSLATE(E2,"en","es")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A34422F5-960C-4F1C-9E67-0C1122FEE0A6}" name="Description[es]" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{A34422F5-960C-4F1C-9E67-0C1122FEE0A6}" name="Description[es]" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.TRANSLATE(F2,"en","es")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="5" xr3:uid="{6DEF0577-3AAD-4CAA-83AA-3BD4AADC2B93}" name="Name[de]" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{48FE6C2D-D956-4240-B820-38AB26112F72}" name="Description[de]" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81F67CEC-B647-4ACC-AED8-48092A1A0BB5}" name="Tableau4" displayName="Tableau4" ref="A1:L1048576" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:L1048576" xr:uid="{81F67CEC-B647-4ACC-AED8-48092A1A0BB5}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81F67CEC-B647-4ACC-AED8-48092A1A0BB5}" name="Tableau4" displayName="Tableau4" ref="A1:N1048576" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:N1048576" xr:uid="{81F67CEC-B647-4ACC-AED8-48092A1A0BB5}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{B2FF123A-52AF-4D01-B48E-D1CD2E8ED3F1}" name="ref_id"/>
     <tableColumn id="2" xr3:uid="{BF6BA2D4-5FB5-457B-BD33-E7D0C7DCF063}" name="category"/>
     <tableColumn id="3" xr3:uid="{CBED9E4C-A2F3-4E69-8486-0E01198805BE}" name="Name"/>
@@ -5091,12 +5911,14 @@
     <tableColumn id="6" xr3:uid="{B3714C26-3293-4CE3-AAD2-7796CA077498}" name="Description[fr]"/>
     <tableColumn id="7" xr3:uid="{6CB5CA1F-1F5F-4346-AF09-1A020142F3C1}" name="Name[cs]"/>
     <tableColumn id="8" xr3:uid="{8D983192-DAB4-4335-AB16-EE42A0687865}" name="Description[cs]"/>
-    <tableColumn id="9" xr3:uid="{E4175765-A6AB-49E3-A4FA-2DEE025A87E1}" name="Name[sv]" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{728412CC-B6EB-4B6B-B248-203615736040}" name="Description[sv]" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{E7894179-1EA7-445E-AE4C-EAE208FEBFC5}" name="Name[es]" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{E4175765-A6AB-49E3-A4FA-2DEE025A87E1}" name="Name[sv]" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{728412CC-B6EB-4B6B-B248-203615736040}" name="Description[sv]" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{ADF41DAE-FB5F-4835-BCD3-D488D644982C}" name="Name[es]" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{7461592F-489A-4ADE-AB62-648E61DB0741}" name="Description[es]" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{E7894179-1EA7-445E-AE4C-EAE208FEBFC5}" name="Name[de]" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.TRANSLATE(Tableau4[[#This Row],[Name]],"en","es")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4F7AFEE2-6C71-4D4D-A8C2-1D900119A912}" name="Description[es]" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{4F7AFEE2-6C71-4D4D-A8C2-1D900119A912}" name="Description[de]" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.TRANSLATE(Tableau4[[#This Row],[Description]],"en","es")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5389,19 +6211,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="132.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="132.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5409,7 +6231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5417,15 +6239,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5433,7 +6255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5441,7 +6263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -5449,7 +6271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5457,7 +6279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -5465,7 +6287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -5473,7 +6295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -5481,7 +6303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5489,7 +6311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5497,7 +6319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -5505,7 +6327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -5513,7 +6335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -5521,7 +6343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -5529,7 +6351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -5537,7 +6359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1080</v>
       </c>
@@ -5545,7 +6367,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1081</v>
       </c>
@@ -5553,7 +6375,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1082</v>
       </c>
@@ -5561,7 +6383,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1348</v>
       </c>
@@ -5569,7 +6391,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1349</v>
       </c>
@@ -5577,12 +6399,36 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1350</v>
       </c>
       <c r="B23" t="s">
         <v>1613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1619</v>
       </c>
     </row>
   </sheetData>
@@ -5592,18 +6438,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5611,7 +6457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5619,7 +6465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5627,7 +6473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -5635,7 +6481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5643,7 +6489,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5651,7 +6497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -5659,7 +6505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -5667,7 +6513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -5675,7 +6521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -5683,7 +6529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1080</v>
       </c>
@@ -5691,7 +6537,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1081</v>
       </c>
@@ -5699,7 +6545,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1348</v>
       </c>
@@ -5707,7 +6553,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1349</v>
       </c>
@@ -5715,11 +6561,27 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5730,32 +6592,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O144"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="6" max="6" width="71.77734375" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" customWidth="1"/>
-    <col min="9" max="9" width="66.109375" customWidth="1"/>
-    <col min="10" max="10" width="33.109375" customWidth="1"/>
-    <col min="11" max="11" width="58.109375" customWidth="1"/>
-    <col min="12" max="12" width="27.109375" customWidth="1"/>
-    <col min="13" max="13" width="71.77734375" customWidth="1"/>
-    <col min="14" max="14" width="27.109375" style="8" customWidth="1"/>
-    <col min="15" max="15" width="71.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="71.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="9" max="9" width="66.140625" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="11" max="11" width="58.140625" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" customWidth="1"/>
+    <col min="13" max="13" width="71.7109375" customWidth="1"/>
+    <col min="14" max="14" width="27.140625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="71.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -5801,8 +6665,14 @@
       <c r="O1" s="1" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P1" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -5837,8 +6707,14 @@
       <c r="O2" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="P2" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -5873,8 +6749,14 @@
       <c r="O3" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P3" s="8" t="s">
+        <v>1622</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -5920,8 +6802,14 @@
       <c r="O4" s="8" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P4" s="8" t="s">
+        <v>1623</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
@@ -5967,8 +6855,14 @@
       <c r="O5" s="8" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P5" s="8" t="s">
+        <v>1624</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -6014,8 +6908,14 @@
       <c r="O6" s="8" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P6" s="8" t="s">
+        <v>1625</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
@@ -6061,8 +6961,14 @@
       <c r="O7" s="8" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P7" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -6097,8 +7003,14 @@
       <c r="O8" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="P8" s="8" t="s">
+        <v>1627</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -6144,8 +7056,14 @@
       <c r="O9" s="8" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P9" s="8" t="s">
+        <v>1628</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -6191,8 +7109,14 @@
       <c r="O10" s="8" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P10" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -6238,8 +7162,14 @@
       <c r="O11" s="8" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P11" s="8" t="s">
+        <v>1630</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -6274,8 +7204,12 @@
       <c r="O12" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="P12" s="8" t="s">
+        <v>1631</v>
+      </c>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -6310,8 +7244,14 @@
       <c r="O13" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P13" s="8" t="s">
+        <v>1632</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
@@ -6357,8 +7297,14 @@
       <c r="O14" s="8" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P14" s="8" t="s">
+        <v>1633</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
@@ -6404,8 +7350,14 @@
       <c r="O15" s="8" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P15" s="8" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -6451,8 +7403,14 @@
       <c r="O16" s="8" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="P16" s="8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -6498,8 +7456,14 @@
       <c r="O17" s="8" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P17" s="8" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -6545,8 +7509,14 @@
       <c r="O18" s="8" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P18" s="8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>2</v>
       </c>
@@ -6581,8 +7551,14 @@
       <c r="O19" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P19" s="8" t="s">
+        <v>1638</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
@@ -6628,8 +7604,14 @@
       <c r="O20" s="8" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P20" s="8" t="s">
+        <v>1639</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -6675,8 +7657,14 @@
       <c r="O21" s="8" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P21" s="8" t="s">
+        <v>1640</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -6722,8 +7710,14 @@
       <c r="O22" s="8" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P22" s="8" t="s">
+        <v>1641</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
@@ -6769,8 +7763,14 @@
       <c r="O23" s="8" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P23" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>3</v>
       </c>
@@ -6805,8 +7805,12 @@
       <c r="O24" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P24" s="8" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Q24" s="15"/>
+    </row>
+    <row r="25" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
@@ -6852,8 +7856,14 @@
       <c r="O25" s="8" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P25" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -6899,8 +7909,14 @@
       <c r="O26" s="8" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P26" s="8" t="s">
+        <v>1644</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -6946,8 +7962,14 @@
       <c r="O27" s="8" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P27" s="8" t="s">
+        <v>1645</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -6982,8 +8004,14 @@
       <c r="O28" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P28" s="8" t="s">
+        <v>1646</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -7029,8 +8057,14 @@
       <c r="O29" s="8" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P29" s="8" t="s">
+        <v>1647</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -7076,8 +8110,14 @@
       <c r="O30" s="8" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P30" s="8" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -7123,8 +8163,14 @@
       <c r="O31" s="8" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P31" s="8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="Q31" s="15" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>2</v>
       </c>
@@ -7159,8 +8205,14 @@
       <c r="O32" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P32" s="8" t="s">
+        <v>1648</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -7206,8 +8258,14 @@
       <c r="O33" s="8" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P33" s="8" t="s">
+        <v>1649</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>3</v>
       </c>
@@ -7242,8 +8300,12 @@
       <c r="O34" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P34" s="8" t="s">
+        <v>1650</v>
+      </c>
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="35" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
@@ -7289,8 +8351,14 @@
       <c r="O35" s="8" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P35" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>54</v>
       </c>
@@ -7336,8 +8404,14 @@
       <c r="O36" s="8" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P36" s="8" t="s">
+        <v>1651</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>3</v>
       </c>
@@ -7372,8 +8446,12 @@
       <c r="O37" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P37" s="8" t="s">
+        <v>1652</v>
+      </c>
+      <c r="Q37" s="15"/>
+    </row>
+    <row r="38" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
@@ -7419,8 +8497,14 @@
       <c r="O38" s="8" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P38" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
@@ -7466,8 +8550,14 @@
       <c r="O39" s="8" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P39" s="8" t="s">
+        <v>1653</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
@@ -7513,8 +8603,14 @@
       <c r="O40" s="8" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P40" s="8" t="s">
+        <v>1654</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>2</v>
       </c>
@@ -7549,8 +8645,14 @@
       <c r="O41" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P41" s="8" t="s">
+        <v>1655</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>54</v>
       </c>
@@ -7596,8 +8698,14 @@
       <c r="O42" s="8" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="P42" s="8" t="s">
+        <v>1656</v>
+      </c>
+      <c r="Q42" s="15" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -7643,8 +8751,14 @@
       <c r="O43" s="8" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P43" s="8" t="s">
+        <v>1657</v>
+      </c>
+      <c r="Q43" s="15" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>1</v>
       </c>
@@ -7676,8 +8790,14 @@
       <c r="O44" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P44" s="8" t="s">
+        <v>1878</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -7709,8 +8829,14 @@
       <c r="O45" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P45" s="8" t="s">
+        <v>1658</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -7756,8 +8882,14 @@
       <c r="O46" s="8" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P46" s="8" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q46" s="15" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
@@ -7803,8 +8935,14 @@
       <c r="O47" s="8" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P47" s="8" t="s">
+        <v>1660</v>
+      </c>
+      <c r="Q47" s="15" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -7850,8 +8988,14 @@
       <c r="O48" s="8" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P48" s="8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="Q48" s="15" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -7897,8 +9041,14 @@
       <c r="O49" s="8" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P49" s="8" t="s">
+        <v>1662</v>
+      </c>
+      <c r="Q49" s="15" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -7944,8 +9094,14 @@
       <c r="O50" s="8" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P50" s="8" t="s">
+        <v>1663</v>
+      </c>
+      <c r="Q50" s="15" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>54</v>
       </c>
@@ -7991,8 +9147,14 @@
       <c r="O51" s="8" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P51" s="12" t="s">
+        <v>1664</v>
+      </c>
+      <c r="Q51" s="15" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>54</v>
       </c>
@@ -8038,8 +9200,14 @@
       <c r="O52" s="8" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P52" s="12" t="s">
+        <v>1665</v>
+      </c>
+      <c r="Q52" s="15" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -8085,8 +9253,14 @@
       <c r="O53" s="8" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P53" s="12" t="s">
+        <v>1666</v>
+      </c>
+      <c r="Q53" s="15" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
@@ -8132,8 +9306,14 @@
       <c r="O54" s="8" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P54" s="12" t="s">
+        <v>1667</v>
+      </c>
+      <c r="Q54" s="15" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -8179,8 +9359,14 @@
       <c r="O55" s="8" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P55" s="12" t="s">
+        <v>1668</v>
+      </c>
+      <c r="Q55" s="15" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -8226,8 +9412,14 @@
       <c r="O56" s="8" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P56" s="12" t="s">
+        <v>1669</v>
+      </c>
+      <c r="Q56" s="15" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
@@ -8273,8 +9465,14 @@
       <c r="O57" s="8" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P57" s="12" t="s">
+        <v>1670</v>
+      </c>
+      <c r="Q57" s="15" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
@@ -8320,8 +9518,14 @@
       <c r="O58" s="8" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P58" s="12" t="s">
+        <v>1671</v>
+      </c>
+      <c r="Q58" s="15" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>54</v>
       </c>
@@ -8367,8 +9571,14 @@
       <c r="O59" s="8" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P59" s="12" t="s">
+        <v>1672</v>
+      </c>
+      <c r="Q59" s="15" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -8414,8 +9624,14 @@
       <c r="O60" s="8" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P60" s="12" t="s">
+        <v>1673</v>
+      </c>
+      <c r="Q60" s="15" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>54</v>
       </c>
@@ -8461,8 +9677,14 @@
       <c r="O61" s="8" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P61" s="12" t="s">
+        <v>1674</v>
+      </c>
+      <c r="Q61" s="15" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>54</v>
       </c>
@@ -8508,8 +9730,14 @@
       <c r="O62" s="8" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P62" s="12" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Q62" s="15" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>54</v>
       </c>
@@ -8555,8 +9783,14 @@
       <c r="O63" s="8" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P63" s="12" t="s">
+        <v>1676</v>
+      </c>
+      <c r="Q63" s="15" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -8602,8 +9836,14 @@
       <c r="O64" s="8" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P64" s="12" t="s">
+        <v>1677</v>
+      </c>
+      <c r="Q64" s="15" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>54</v>
       </c>
@@ -8649,8 +9889,14 @@
       <c r="O65" s="8" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P65" s="12" t="s">
+        <v>1678</v>
+      </c>
+      <c r="Q65" s="15" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>54</v>
       </c>
@@ -8696,8 +9942,14 @@
       <c r="O66" s="8" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P66" s="12" t="s">
+        <v>1679</v>
+      </c>
+      <c r="Q66" s="15" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>54</v>
       </c>
@@ -8743,8 +9995,14 @@
       <c r="O67" s="8" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P67" s="12" t="s">
+        <v>1680</v>
+      </c>
+      <c r="Q67" s="15" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>54</v>
       </c>
@@ -8790,8 +10048,14 @@
       <c r="O68" s="8" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P68" s="12" t="s">
+        <v>1681</v>
+      </c>
+      <c r="Q68" s="15" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>54</v>
       </c>
@@ -8837,8 +10101,14 @@
       <c r="O69" s="8" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P69" s="12" t="s">
+        <v>1682</v>
+      </c>
+      <c r="Q69" s="15" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>54</v>
       </c>
@@ -8884,8 +10154,14 @@
       <c r="O70" s="8" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P70" s="12" t="s">
+        <v>1683</v>
+      </c>
+      <c r="Q70" s="15" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>54</v>
       </c>
@@ -8931,8 +10207,14 @@
       <c r="O71" s="8" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P71" s="12" t="s">
+        <v>1684</v>
+      </c>
+      <c r="Q71" s="15" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>54</v>
       </c>
@@ -8978,8 +10260,14 @@
       <c r="O72" s="8" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P72" s="12" t="s">
+        <v>1685</v>
+      </c>
+      <c r="Q72" s="15" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>54</v>
       </c>
@@ -9025,8 +10313,14 @@
       <c r="O73" s="8" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P73" s="12" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Q73" s="15" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>54</v>
       </c>
@@ -9072,8 +10366,14 @@
       <c r="O74" s="8" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P74" s="12" t="s">
+        <v>1687</v>
+      </c>
+      <c r="Q74" s="15" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>54</v>
       </c>
@@ -9119,8 +10419,14 @@
       <c r="O75" s="8" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P75" s="12" t="s">
+        <v>1688</v>
+      </c>
+      <c r="Q75" s="15" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>54</v>
       </c>
@@ -9166,8 +10472,14 @@
       <c r="O76" s="8" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P76" s="12" t="s">
+        <v>1689</v>
+      </c>
+      <c r="Q76" s="15" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>54</v>
       </c>
@@ -9213,8 +10525,14 @@
       <c r="O77" s="8" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P77" s="12" t="s">
+        <v>1690</v>
+      </c>
+      <c r="Q77" s="15" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>54</v>
       </c>
@@ -9260,8 +10578,14 @@
       <c r="O78" s="8" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P78" s="12" t="s">
+        <v>1691</v>
+      </c>
+      <c r="Q78" s="15" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>54</v>
       </c>
@@ -9307,8 +10631,14 @@
       <c r="O79" s="8" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P79" s="12" t="s">
+        <v>1692</v>
+      </c>
+      <c r="Q79" s="15" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>54</v>
       </c>
@@ -9354,8 +10684,14 @@
       <c r="O80" s="8" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P80" s="12" t="s">
+        <v>1693</v>
+      </c>
+      <c r="Q80" s="15" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>54</v>
       </c>
@@ -9401,8 +10737,14 @@
       <c r="O81" s="8" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P81" s="12" t="s">
+        <v>1694</v>
+      </c>
+      <c r="Q81" s="15" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>54</v>
       </c>
@@ -9448,8 +10790,14 @@
       <c r="O82" s="8" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P82" s="12" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Q82" s="15" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>2</v>
       </c>
@@ -9483,8 +10831,11 @@
       <c r="O83" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P83" s="8" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>54</v>
       </c>
@@ -9530,8 +10881,14 @@
       <c r="O84" s="8" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P84" s="13" t="s">
+        <v>1697</v>
+      </c>
+      <c r="Q84" s="15" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>54</v>
       </c>
@@ -9577,8 +10934,14 @@
       <c r="O85" s="8" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P85" s="13" t="s">
+        <v>1698</v>
+      </c>
+      <c r="Q85" s="15" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>54</v>
       </c>
@@ -9624,8 +10987,14 @@
       <c r="O86" s="8" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P86" s="13" t="s">
+        <v>1699</v>
+      </c>
+      <c r="Q86" s="15" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>54</v>
       </c>
@@ -9671,8 +11040,14 @@
       <c r="O87" s="8" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P87" s="13" t="s">
+        <v>1700</v>
+      </c>
+      <c r="Q87" s="15" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>54</v>
       </c>
@@ -9718,8 +11093,14 @@
       <c r="O88" s="8" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P88" s="13" t="s">
+        <v>1701</v>
+      </c>
+      <c r="Q88" s="15" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>54</v>
       </c>
@@ -9765,8 +11146,14 @@
       <c r="O89" s="8" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P89" s="13" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q89" s="15" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>54</v>
       </c>
@@ -9812,8 +11199,14 @@
       <c r="O90" s="8" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P90" s="13" t="s">
+        <v>1703</v>
+      </c>
+      <c r="Q90" s="15" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>54</v>
       </c>
@@ -9859,8 +11252,14 @@
       <c r="O91" s="8" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P91" s="13" t="s">
+        <v>1704</v>
+      </c>
+      <c r="Q91" s="15" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <v>2</v>
       </c>
@@ -9894,8 +11293,11 @@
       <c r="O92" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P92" s="8" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>54</v>
       </c>
@@ -9941,8 +11343,14 @@
       <c r="O93" s="8" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P93" s="14" t="s">
+        <v>1706</v>
+      </c>
+      <c r="Q93" s="15" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>54</v>
       </c>
@@ -9988,8 +11396,14 @@
       <c r="O94" s="8" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P94" s="14" t="s">
+        <v>1707</v>
+      </c>
+      <c r="Q94" s="15" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>54</v>
       </c>
@@ -10035,8 +11449,14 @@
       <c r="O95" s="8" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P95" s="14" t="s">
+        <v>1708</v>
+      </c>
+      <c r="Q95" s="15" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>54</v>
       </c>
@@ -10082,8 +11502,14 @@
       <c r="O96" s="8" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P96" s="14" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q96" s="15" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>54</v>
       </c>
@@ -10129,8 +11555,14 @@
       <c r="O97" s="8" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P97" s="14" t="s">
+        <v>1710</v>
+      </c>
+      <c r="Q97" s="15" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>54</v>
       </c>
@@ -10176,8 +11608,14 @@
       <c r="O98" s="8" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P98" s="14" t="s">
+        <v>1711</v>
+      </c>
+      <c r="Q98" s="15" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>54</v>
       </c>
@@ -10223,8 +11661,14 @@
       <c r="O99" s="8" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P99" s="14" t="s">
+        <v>1712</v>
+      </c>
+      <c r="Q99" s="15" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>54</v>
       </c>
@@ -10270,8 +11714,14 @@
       <c r="O100" s="8" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P100" s="14" t="s">
+        <v>1713</v>
+      </c>
+      <c r="Q100" s="15" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>54</v>
       </c>
@@ -10317,8 +11767,14 @@
       <c r="O101" s="8" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P101" s="14" t="s">
+        <v>1714</v>
+      </c>
+      <c r="Q101" s="15" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>54</v>
       </c>
@@ -10364,8 +11820,14 @@
       <c r="O102" s="8" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P102" s="14" t="s">
+        <v>1715</v>
+      </c>
+      <c r="Q102" s="15" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>54</v>
       </c>
@@ -10411,8 +11873,14 @@
       <c r="O103" s="8" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P103" s="14" t="s">
+        <v>1716</v>
+      </c>
+      <c r="Q103" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>54</v>
       </c>
@@ -10458,8 +11926,14 @@
       <c r="O104" s="8" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P104" s="14" t="s">
+        <v>1717</v>
+      </c>
+      <c r="Q104" s="15" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>54</v>
       </c>
@@ -10505,8 +11979,14 @@
       <c r="O105" s="8" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P105" s="14" t="s">
+        <v>1718</v>
+      </c>
+      <c r="Q105" s="15" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>54</v>
       </c>
@@ -10552,8 +12032,14 @@
       <c r="O106" s="8" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P106" s="14" t="s">
+        <v>1719</v>
+      </c>
+      <c r="Q106" s="15" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <v>2</v>
       </c>
@@ -10587,8 +12073,11 @@
       <c r="O107" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P107" s="8" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>54</v>
       </c>
@@ -10634,8 +12123,14 @@
       <c r="O108" s="8" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" ht="78" x14ac:dyDescent="0.3">
+      <c r="P108" s="15" t="s">
+        <v>1721</v>
+      </c>
+      <c r="Q108" s="15" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>54</v>
       </c>
@@ -10681,8 +12176,14 @@
       <c r="O109" s="8" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P109" s="15" t="s">
+        <v>1722</v>
+      </c>
+      <c r="Q109" s="15" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>54</v>
       </c>
@@ -10728,8 +12229,14 @@
       <c r="O110" s="8" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P110" s="15" t="s">
+        <v>1723</v>
+      </c>
+      <c r="Q110" s="15" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>54</v>
       </c>
@@ -10775,8 +12282,14 @@
       <c r="O111" s="8" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P111" s="15" t="s">
+        <v>1724</v>
+      </c>
+      <c r="Q111" s="15" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>54</v>
       </c>
@@ -10822,8 +12335,14 @@
       <c r="O112" s="8" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P112" s="15" t="s">
+        <v>1725</v>
+      </c>
+      <c r="Q112" s="15" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>54</v>
       </c>
@@ -10869,8 +12388,14 @@
       <c r="O113" s="8" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P113" s="15" t="s">
+        <v>1726</v>
+      </c>
+      <c r="Q113" s="15" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>54</v>
       </c>
@@ -10916,8 +12441,14 @@
       <c r="O114" s="8" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P114" s="15" t="s">
+        <v>1727</v>
+      </c>
+      <c r="Q114" s="15" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>54</v>
       </c>
@@ -10963,8 +12494,14 @@
       <c r="O115" s="8" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P115" s="15" t="s">
+        <v>1728</v>
+      </c>
+      <c r="Q115" s="15" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>54</v>
       </c>
@@ -11010,8 +12547,14 @@
       <c r="O116" s="8" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P116" s="15" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Q116" s="15" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>54</v>
       </c>
@@ -11057,8 +12600,14 @@
       <c r="O117" s="8" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="P117" s="15" t="s">
+        <v>1730</v>
+      </c>
+      <c r="Q117" s="15" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>54</v>
       </c>
@@ -11104,8 +12653,14 @@
       <c r="O118" s="8" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P118" s="15" t="s">
+        <v>1731</v>
+      </c>
+      <c r="Q118" s="15" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>54</v>
       </c>
@@ -11151,8 +12706,14 @@
       <c r="O119" s="8" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P119" s="15" t="s">
+        <v>1732</v>
+      </c>
+      <c r="Q119" s="15" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>54</v>
       </c>
@@ -11198,8 +12759,14 @@
       <c r="O120" s="8" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P120" s="15" t="s">
+        <v>1733</v>
+      </c>
+      <c r="Q120" s="15" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>54</v>
       </c>
@@ -11245,8 +12812,14 @@
       <c r="O121" s="8" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P121" s="15" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Q121" s="15" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>54</v>
       </c>
@@ -11292,8 +12865,14 @@
       <c r="O122" s="8" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P122" s="15" t="s">
+        <v>1735</v>
+      </c>
+      <c r="Q122" s="15" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>54</v>
       </c>
@@ -11339,8 +12918,14 @@
       <c r="O123" s="8" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P123" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="Q123" s="15" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>54</v>
       </c>
@@ -11386,8 +12971,14 @@
       <c r="O124" s="8" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P124" s="15" t="s">
+        <v>1737</v>
+      </c>
+      <c r="Q124" s="15" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>54</v>
       </c>
@@ -11433,8 +13024,14 @@
       <c r="O125" s="8" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P125" s="15" t="s">
+        <v>1738</v>
+      </c>
+      <c r="Q125" s="15" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>54</v>
       </c>
@@ -11480,8 +13077,14 @@
       <c r="O126" s="8" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P126" s="15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="Q126" s="15" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>54</v>
       </c>
@@ -11527,8 +13130,14 @@
       <c r="O127" s="8" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P127" s="15" t="s">
+        <v>1740</v>
+      </c>
+      <c r="Q127" s="15" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>54</v>
       </c>
@@ -11574,8 +13183,14 @@
       <c r="O128" s="8" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P128" s="15" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q128" s="15" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>54</v>
       </c>
@@ -11621,8 +13236,14 @@
       <c r="O129" s="8" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P129" s="15" t="s">
+        <v>1742</v>
+      </c>
+      <c r="Q129" s="15" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>54</v>
       </c>
@@ -11668,8 +13289,14 @@
       <c r="O130" s="8" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P130" s="15" t="s">
+        <v>1743</v>
+      </c>
+      <c r="Q130" s="15" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>54</v>
       </c>
@@ -11715,8 +13342,14 @@
       <c r="O131" s="8" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P131" s="15" t="s">
+        <v>1744</v>
+      </c>
+      <c r="Q131" s="15" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>54</v>
       </c>
@@ -11762,8 +13395,14 @@
       <c r="O132" s="8" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P132" s="15" t="s">
+        <v>1745</v>
+      </c>
+      <c r="Q132" s="15" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>54</v>
       </c>
@@ -11809,8 +13448,14 @@
       <c r="O133" s="8" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P133" s="15" t="s">
+        <v>1746</v>
+      </c>
+      <c r="Q133" s="15" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>54</v>
       </c>
@@ -11856,8 +13501,14 @@
       <c r="O134" s="8" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P134" s="15" t="s">
+        <v>1747</v>
+      </c>
+      <c r="Q134" s="15" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>54</v>
       </c>
@@ -11903,8 +13554,14 @@
       <c r="O135" s="8" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P135" s="15" t="s">
+        <v>1748</v>
+      </c>
+      <c r="Q135" s="15" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>54</v>
       </c>
@@ -11950,8 +13607,14 @@
       <c r="O136" s="8" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P136" s="15" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Q136" s="15" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>54</v>
       </c>
@@ -11997,8 +13660,14 @@
       <c r="O137" s="8" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P137" s="15" t="s">
+        <v>1750</v>
+      </c>
+      <c r="Q137" s="15" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>54</v>
       </c>
@@ -12044,8 +13713,14 @@
       <c r="O138" s="8" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P138" s="15" t="s">
+        <v>1751</v>
+      </c>
+      <c r="Q138" s="15" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>54</v>
       </c>
@@ -12091,8 +13766,14 @@
       <c r="O139" s="8" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="P139" s="15" t="s">
+        <v>1752</v>
+      </c>
+      <c r="Q139" s="15" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>54</v>
       </c>
@@ -12138,8 +13819,14 @@
       <c r="O140" s="8" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="P140" s="15" t="s">
+        <v>1753</v>
+      </c>
+      <c r="Q140" s="15" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>54</v>
       </c>
@@ -12185,20 +13872,26 @@
       <c r="O141" s="8" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P141" s="15" t="s">
+        <v>1754</v>
+      </c>
+      <c r="Q141" s="15" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F142" s="3"/>
       <c r="I142" s="3"/>
       <c r="K142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F143" s="3"/>
       <c r="I143" s="3"/>
       <c r="K143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I144" s="3"/>
       <c r="K144" s="3"/>
     </row>
@@ -12206,11 +13899,12 @@
   <autoFilter ref="A1:K141" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="N2:N141 O2:O141" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12219,11 +13913,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12231,7 +13927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -12246,29 +13942,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="46.109375" customWidth="1"/>
-    <col min="7" max="7" width="38.33203125" customWidth="1"/>
-    <col min="8" max="8" width="47.6640625" customWidth="1"/>
-    <col min="9" max="9" width="33.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="51.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="51.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="51.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="51.28515625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="51.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -12305,8 +14003,14 @@
       <c r="L1" s="1" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>314</v>
       </c>
@@ -12343,8 +14047,14 @@
       <c r="L2" s="8" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M2" s="8" t="s">
+        <v>1659</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>322</v>
       </c>
@@ -12381,8 +14091,14 @@
       <c r="L3" s="11" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M3" s="8" t="s">
+        <v>1660</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>330</v>
       </c>
@@ -12419,8 +14135,14 @@
       <c r="L4" s="8" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M4" s="8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>338</v>
       </c>
@@ -12457,8 +14179,14 @@
       <c r="L5" s="8" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M5" s="8" t="s">
+        <v>1662</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>346</v>
       </c>
@@ -12495,8 +14223,14 @@
       <c r="L6" s="8" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M6" s="8" t="s">
+        <v>1663</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>354</v>
       </c>
@@ -12533,8 +14267,14 @@
       <c r="L7" s="8" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M7" s="15" t="s">
+        <v>1664</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>362</v>
       </c>
@@ -12571,8 +14311,14 @@
       <c r="L8" s="8" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M8" s="15" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>370</v>
       </c>
@@ -12609,8 +14355,14 @@
       <c r="L9" s="8" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M9" s="15" t="s">
+        <v>1666</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>378</v>
       </c>
@@ -12647,8 +14399,14 @@
       <c r="L10" s="8" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M10" s="15" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>386</v>
       </c>
@@ -12685,8 +14443,14 @@
       <c r="L11" s="8" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M11" s="15" t="s">
+        <v>1668</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>394</v>
       </c>
@@ -12723,8 +14487,14 @@
       <c r="L12" s="8" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M12" s="15" t="s">
+        <v>1669</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>402</v>
       </c>
@@ -12761,8 +14531,14 @@
       <c r="L13" s="8" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M13" s="15" t="s">
+        <v>1670</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>410</v>
       </c>
@@ -12799,8 +14575,14 @@
       <c r="L14" s="8" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M14" s="15" t="s">
+        <v>1671</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>418</v>
       </c>
@@ -12837,8 +14619,14 @@
       <c r="L15" s="8" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M15" s="15" t="s">
+        <v>1672</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>426</v>
       </c>
@@ -12875,8 +14663,14 @@
       <c r="L16" s="8" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M16" s="15" t="s">
+        <v>1673</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>434</v>
       </c>
@@ -12913,8 +14707,14 @@
       <c r="L17" s="8" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M17" s="15" t="s">
+        <v>1674</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>442</v>
       </c>
@@ -12951,8 +14751,14 @@
       <c r="L18" s="8" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M18" s="15" t="s">
+        <v>1675</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>450</v>
       </c>
@@ -12989,8 +14795,14 @@
       <c r="L19" s="8" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M19" s="15" t="s">
+        <v>1676</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>458</v>
       </c>
@@ -13027,8 +14839,14 @@
       <c r="L20" s="8" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M20" s="15" t="s">
+        <v>1677</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>466</v>
       </c>
@@ -13065,8 +14883,14 @@
       <c r="L21" s="8" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M21" s="15" t="s">
+        <v>1678</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>474</v>
       </c>
@@ -13103,8 +14927,14 @@
       <c r="L22" s="8" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M22" s="15" t="s">
+        <v>1679</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>482</v>
       </c>
@@ -13141,8 +14971,14 @@
       <c r="L23" s="8" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M23" s="15" t="s">
+        <v>1680</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>490</v>
       </c>
@@ -13179,8 +15015,14 @@
       <c r="L24" s="8" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M24" s="15" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>498</v>
       </c>
@@ -13217,8 +15059,14 @@
       <c r="L25" s="8" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M25" s="15" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>506</v>
       </c>
@@ -13255,8 +15103,14 @@
       <c r="L26" s="8" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M26" s="15" t="s">
+        <v>1683</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>514</v>
       </c>
@@ -13293,8 +15147,14 @@
       <c r="L27" s="8" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M27" s="15" t="s">
+        <v>1684</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>522</v>
       </c>
@@ -13331,8 +15191,14 @@
       <c r="L28" s="8" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M28" s="15" t="s">
+        <v>1685</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>530</v>
       </c>
@@ -13369,8 +15235,14 @@
       <c r="L29" s="8" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M29" s="15" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>538</v>
       </c>
@@ -13407,8 +15279,14 @@
       <c r="L30" s="8" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M30" s="15" t="s">
+        <v>1687</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>546</v>
       </c>
@@ -13445,8 +15323,14 @@
       <c r="L31" s="8" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M31" s="15" t="s">
+        <v>1688</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>554</v>
       </c>
@@ -13483,8 +15367,14 @@
       <c r="L32" s="8" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M32" s="15" t="s">
+        <v>1689</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>562</v>
       </c>
@@ -13521,8 +15411,14 @@
       <c r="L33" s="8" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M33" s="15" t="s">
+        <v>1690</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>570</v>
       </c>
@@ -13559,8 +15455,14 @@
       <c r="L34" s="8" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M34" s="15" t="s">
+        <v>1691</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>578</v>
       </c>
@@ -13597,8 +15499,14 @@
       <c r="L35" s="8" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M35" s="15" t="s">
+        <v>1692</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>586</v>
       </c>
@@ -13635,8 +15543,14 @@
       <c r="L36" s="8" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M36" s="15" t="s">
+        <v>1693</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>594</v>
       </c>
@@ -13673,8 +15587,14 @@
       <c r="L37" s="8" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M37" s="15" t="s">
+        <v>1694</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>602</v>
       </c>
@@ -13711,8 +15631,14 @@
       <c r="L38" s="8" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M38" s="15" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>614</v>
       </c>
@@ -13749,8 +15675,14 @@
       <c r="L39" s="8" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M39" s="15" t="s">
+        <v>1697</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>622</v>
       </c>
@@ -13787,8 +15719,14 @@
       <c r="L40" s="8" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M40" s="15" t="s">
+        <v>1698</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>630</v>
       </c>
@@ -13825,8 +15763,14 @@
       <c r="L41" s="8" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M41" s="15" t="s">
+        <v>1699</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>638</v>
       </c>
@@ -13863,8 +15807,14 @@
       <c r="L42" s="8" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="M42" s="15" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="126" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>646</v>
       </c>
@@ -13901,8 +15851,14 @@
       <c r="L43" s="8" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M43" s="15" t="s">
+        <v>1701</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>654</v>
       </c>
@@ -13939,8 +15895,14 @@
       <c r="L44" s="8" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M44" s="15" t="s">
+        <v>1702</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>662</v>
       </c>
@@ -13977,8 +15939,14 @@
       <c r="L45" s="8" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M45" s="15" t="s">
+        <v>1703</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>670</v>
       </c>
@@ -14015,8 +15983,14 @@
       <c r="L46" s="8" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M46" s="15" t="s">
+        <v>1704</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>682</v>
       </c>
@@ -14053,8 +16027,14 @@
       <c r="L47" s="8" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M47" s="15" t="s">
+        <v>1706</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>690</v>
       </c>
@@ -14091,8 +16071,14 @@
       <c r="L48" s="8" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M48" s="15" t="s">
+        <v>1707</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>698</v>
       </c>
@@ -14129,8 +16115,14 @@
       <c r="L49" s="8" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M49" s="15" t="s">
+        <v>1708</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>706</v>
       </c>
@@ -14167,8 +16159,14 @@
       <c r="L50" s="8" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M50" s="15" t="s">
+        <v>1709</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>714</v>
       </c>
@@ -14205,8 +16203,14 @@
       <c r="L51" s="8" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M51" s="15" t="s">
+        <v>1710</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>722</v>
       </c>
@@ -14243,8 +16247,14 @@
       <c r="L52" s="8" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M52" s="15" t="s">
+        <v>1711</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>730</v>
       </c>
@@ -14281,8 +16291,14 @@
       <c r="L53" s="8" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M53" s="15" t="s">
+        <v>1712</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>738</v>
       </c>
@@ -14319,8 +16335,14 @@
       <c r="L54" s="8" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M54" s="15" t="s">
+        <v>1713</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>746</v>
       </c>
@@ -14357,8 +16379,14 @@
       <c r="L55" s="8" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M55" s="15" t="s">
+        <v>1714</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>754</v>
       </c>
@@ -14395,8 +16423,14 @@
       <c r="L56" s="8" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M56" s="15" t="s">
+        <v>1715</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>762</v>
       </c>
@@ -14433,8 +16467,14 @@
       <c r="L57" s="8" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M57" s="15" t="s">
+        <v>1716</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>770</v>
       </c>
@@ -14471,8 +16511,14 @@
       <c r="L58" s="8" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M58" s="15" t="s">
+        <v>1717</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>778</v>
       </c>
@@ -14509,8 +16555,14 @@
       <c r="L59" s="8" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M59" s="15" t="s">
+        <v>1718</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>786</v>
       </c>
@@ -14547,8 +16599,14 @@
       <c r="L60" s="8" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M60" s="15" t="s">
+        <v>1719</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>798</v>
       </c>
@@ -14585,8 +16643,14 @@
       <c r="L61" s="8" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="M61" s="15" t="s">
+        <v>1721</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>806</v>
       </c>
@@ -14623,8 +16687,14 @@
       <c r="L62" s="8" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M62" s="15" t="s">
+        <v>1722</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>814</v>
       </c>
@@ -14661,8 +16731,14 @@
       <c r="L63" s="8" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M63" s="15" t="s">
+        <v>1723</v>
+      </c>
+      <c r="N63" s="15" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>822</v>
       </c>
@@ -14699,8 +16775,14 @@
       <c r="L64" s="8" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M64" s="15" t="s">
+        <v>1724</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>830</v>
       </c>
@@ -14737,8 +16819,14 @@
       <c r="L65" s="8" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="M65" s="15" t="s">
+        <v>1725</v>
+      </c>
+      <c r="N65" s="15" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>838</v>
       </c>
@@ -14775,8 +16863,14 @@
       <c r="L66" s="8" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M66" s="15" t="s">
+        <v>1726</v>
+      </c>
+      <c r="N66" s="15" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>846</v>
       </c>
@@ -14813,8 +16907,14 @@
       <c r="L67" s="8" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M67" s="15" t="s">
+        <v>1727</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>854</v>
       </c>
@@ -14851,8 +16951,14 @@
       <c r="L68" s="8" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="M68" s="15" t="s">
+        <v>1728</v>
+      </c>
+      <c r="N68" s="15" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>862</v>
       </c>
@@ -14889,8 +16995,14 @@
       <c r="L69" s="8" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M69" s="15" t="s">
+        <v>1729</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>870</v>
       </c>
@@ -14927,8 +17039,14 @@
       <c r="L70" s="8" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M70" s="15" t="s">
+        <v>1730</v>
+      </c>
+      <c r="N70" s="15" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>878</v>
       </c>
@@ -14965,8 +17083,14 @@
       <c r="L71" s="8" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M71" s="15" t="s">
+        <v>1731</v>
+      </c>
+      <c r="N71" s="15" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>886</v>
       </c>
@@ -15003,8 +17127,14 @@
       <c r="L72" s="8" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M72" s="15" t="s">
+        <v>1732</v>
+      </c>
+      <c r="N72" s="15" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>894</v>
       </c>
@@ -15041,8 +17171,14 @@
       <c r="L73" s="8" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M73" s="15" t="s">
+        <v>1733</v>
+      </c>
+      <c r="N73" s="15" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>902</v>
       </c>
@@ -15079,8 +17215,14 @@
       <c r="L74" s="8" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M74" s="15" t="s">
+        <v>1734</v>
+      </c>
+      <c r="N74" s="15" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>910</v>
       </c>
@@ -15117,8 +17259,14 @@
       <c r="L75" s="8" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="M75" s="15" t="s">
+        <v>1735</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>918</v>
       </c>
@@ -15155,8 +17303,14 @@
       <c r="L76" s="8" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M76" s="15" t="s">
+        <v>1736</v>
+      </c>
+      <c r="N76" s="15" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>926</v>
       </c>
@@ -15193,8 +17347,14 @@
       <c r="L77" s="8" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="M77" s="15" t="s">
+        <v>1737</v>
+      </c>
+      <c r="N77" s="15" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>934</v>
       </c>
@@ -15231,8 +17391,14 @@
       <c r="L78" s="8" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M78" s="15" t="s">
+        <v>1738</v>
+      </c>
+      <c r="N78" s="15" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>942</v>
       </c>
@@ -15269,8 +17435,14 @@
       <c r="L79" s="8" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M79" s="15" t="s">
+        <v>1739</v>
+      </c>
+      <c r="N79" s="15" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>950</v>
       </c>
@@ -15307,8 +17479,14 @@
       <c r="L80" s="8" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="M80" s="15" t="s">
+        <v>1740</v>
+      </c>
+      <c r="N80" s="15" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>958</v>
       </c>
@@ -15345,8 +17523,14 @@
       <c r="L81" s="8" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="M81" s="15" t="s">
+        <v>1741</v>
+      </c>
+      <c r="N81" s="15" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>966</v>
       </c>
@@ -15383,8 +17567,14 @@
       <c r="L82" s="8" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="M82" s="15" t="s">
+        <v>1742</v>
+      </c>
+      <c r="N82" s="15" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>974</v>
       </c>
@@ -15421,8 +17611,14 @@
       <c r="L83" s="8" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="M83" s="15" t="s">
+        <v>1743</v>
+      </c>
+      <c r="N83" s="15" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>982</v>
       </c>
@@ -15459,8 +17655,14 @@
       <c r="L84" s="8" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M84" s="15" t="s">
+        <v>1744</v>
+      </c>
+      <c r="N84" s="15" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>990</v>
       </c>
@@ -15497,8 +17699,14 @@
       <c r="L85" s="8" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="M85" s="15" t="s">
+        <v>1745</v>
+      </c>
+      <c r="N85" s="15" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>998</v>
       </c>
@@ -15535,8 +17743,14 @@
       <c r="L86" s="8" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="M86" s="15" t="s">
+        <v>1746</v>
+      </c>
+      <c r="N86" s="15" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1006</v>
       </c>
@@ -15573,8 +17787,14 @@
       <c r="L87" s="8" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="M87" s="15" t="s">
+        <v>1747</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>1014</v>
       </c>
@@ -15611,8 +17831,14 @@
       <c r="L88" s="8" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="M88" s="15" t="s">
+        <v>1748</v>
+      </c>
+      <c r="N88" s="15" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>1022</v>
       </c>
@@ -15649,8 +17875,14 @@
       <c r="L89" s="8" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="M89" s="15" t="s">
+        <v>1749</v>
+      </c>
+      <c r="N89" s="15" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>1030</v>
       </c>
@@ -15687,8 +17919,14 @@
       <c r="L90" s="8" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="M90" s="15" t="s">
+        <v>1750</v>
+      </c>
+      <c r="N90" s="15" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>1038</v>
       </c>
@@ -15725,8 +17963,14 @@
       <c r="L91" s="8" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="M91" s="15" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>1046</v>
       </c>
@@ -15763,8 +18007,14 @@
       <c r="L92" s="8" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="M92" s="15" t="s">
+        <v>1752</v>
+      </c>
+      <c r="N92" s="15" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>1054</v>
       </c>
@@ -15801,8 +18051,14 @@
       <c r="L93" s="8" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="M93" s="15" t="s">
+        <v>1753</v>
+      </c>
+      <c r="N93" s="15" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>1062</v>
       </c>
@@ -15839,12 +18095,16 @@
       <c r="L94" s="8" t="s">
         <v>1612</v>
       </c>
+      <c r="M94" s="15" t="s">
+        <v>1754</v>
+      </c>
+      <c r="N94" s="15" t="s">
+        <v>1847</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <ignoredErrors>
-    <ignoredError sqref="K2:L94" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -15857,9 +18117,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15867,7 +18127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -15886,9 +18146,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -15899,7 +18159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
@@ -15907,7 +18167,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>305</v>
       </c>
@@ -15915,24 +18175,24 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
     </row>
@@ -15947,9 +18207,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15968,9 +18228,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1077</v>
       </c>
@@ -15978,7 +18238,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1079</v>
       </c>

--- a/tools/excel/iso27001/iso27001-2022.xlsx
+++ b/tools/excel/iso27001/iso27001-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ciso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/excel/iso27001/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B744C2F9-1ECB-49DB-AD2B-2BF49D544364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D031460B-CE2F-614C-BFAC-20EF9D7B49B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20400" tabRatio="797" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="1880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="2147">
   <si>
     <t>type</t>
   </si>
@@ -5686,16 +5686,1465 @@
     <t>Erklärung zur Anwendbarkeit</t>
   </si>
   <si>
-    <t>16</t>
+    <t>国际标准 ISO/IEC 27001：2022</t>
+  </si>
+  <si>
+    <t>信息安全、网络安全和隐私保护——信息安全管理系统——要求</t>
+  </si>
+  <si>
+    <t>这是ISO27001-2022标准的轮廓。你可以从 https://www.iso.org/standard/27001 购买全标准版</t>
+  </si>
+  <si>
+    <t>name[zh]</t>
+  </si>
+  <si>
+    <t>description[zh]</t>
+  </si>
+  <si>
+    <t>copyright[zh]</t>
+  </si>
+  <si>
+    <t>信息安全政策</t>
+  </si>
+  <si>
+    <t>这种控制建立并维护与组织目标一致的信息安全政策。措施包括界定范围、设定目标，并确保符合合规要求。</t>
+  </si>
+  <si>
+    <t>信息安全角色与职责</t>
+  </si>
+  <si>
+    <t>这种控制定义并分配信息安全的角色和责任，以确保问责制。措施包括明确责任记录、定期审查和执法机制。</t>
+  </si>
+  <si>
+    <t>职责分离</t>
+  </si>
+  <si>
+    <t>这种控制确保职责分离，以降低错误、欺诈和未经授权访问的风险。措施包括角色分离、访问限制和定期审计。</t>
+  </si>
+  <si>
+    <t>管理职责</t>
+  </si>
+  <si>
+    <t>这种控制确保信息安全的管理职责被明确定义并得以实施。措施包括设定目标、分配资源和监督合规。</t>
+  </si>
+  <si>
+    <t>与当局的联系</t>
+  </si>
+  <si>
+    <t>这种控制确保在信息安全事件期间及时与相关部门沟通。措施包括建立联系协议、维护联系人名单更新以及分配职责。</t>
+  </si>
+  <si>
+    <t>与特殊利益团体的联系</t>
+  </si>
+  <si>
+    <t>这种控制有助于与特殊利益团体保持对安全趋势和实践的了解。措施包括参与论坛、会员资格和协作项目。</t>
+  </si>
+  <si>
+    <t>威胁情报</t>
+  </si>
+  <si>
+    <t>这种控制确保威胁情报的开发和维护，以识别和缓解安全风险。措施包括监控威胁信息流、分析趋势以及分享可作的见解。</t>
+  </si>
+  <si>
+    <t>项目管理中的信息安全</t>
+  </si>
+  <si>
+    <t>这种控制将信息安全纳入项目管理实践中。措施包括风险评估、合规审查以及项目生命周期内的安全检查点。</t>
+  </si>
+  <si>
+    <t>信息及相关资产清单</t>
+  </si>
+  <si>
+    <t>这种控制确保了信息及相关资产的准确盘点。措施包括资产跟踪、定期审计以及按敏感度分类。</t>
+  </si>
+  <si>
+    <t>信息及其他相关资产的合理使用</t>
+  </si>
+  <si>
+    <t>这种控制定义了信息及相关资产的可接受使用，以确保正确处理。措施包括有文档化的政策、用户培训和执行机制。</t>
+  </si>
+  <si>
+    <t>资产返还</t>
+  </si>
+  <si>
+    <t>这种控制确保了当员工或承包商离职或更换岗位时，资产能够安全回收。措施包括清单、资产跟踪和退役协议。</t>
+  </si>
+  <si>
+    <t>信息分类</t>
+  </si>
+  <si>
+    <t>这种控制确保信息根据其敏感性和价值进行机密，以确保适当的保护。措施包括分类方案、访问限制和标签指南。</t>
+  </si>
+  <si>
+    <t>信息标签</t>
+  </si>
+  <si>
+    <t>这种控制确保信息的标签一致，反映其分类和处理要求。衡量标准包括标准化模板、培训和审计。</t>
+  </si>
+  <si>
+    <t>信息传输</t>
+  </si>
+  <si>
+    <t>这种控制建立了系统或组织之间信息传输的安全流程。措施包括加密、访问控制和安全传输协议。</t>
+  </si>
+  <si>
+    <t>访问控制</t>
+  </si>
+  <si>
+    <t>该控制实施并维护访问控制机制，限制授权人员的访问。措施包括基于角色的访问、多因素认证和定期审查。</t>
+  </si>
+  <si>
+    <t>身份管理</t>
+  </si>
+  <si>
+    <t>这种控制确保身份安全管理，确保对系统的准确可靠访问。措施包括身份验证、生命周期管理和访问配置。</t>
+  </si>
+  <si>
+    <t>认证信息</t>
+  </si>
+  <si>
+    <t>这种控制保护了认证信息，如密码，以防止未经授权的访问。措施包括加密、安全存储和定期更新密码。</t>
+  </si>
+  <si>
+    <t>访问权</t>
+  </si>
+  <si>
+    <t>这种控制确保访问权定期审查和管理，以符合不同角色和职责。措施包括定期审计、访问撤销和自动化访问管理。</t>
+  </si>
+  <si>
+    <t>供应商关系中的信息安全</t>
+  </si>
+  <si>
+    <t>这种控制确保信息安全嵌入供应商关系和流程中。措施包括尽职调查、安全审查和持续监控。</t>
+  </si>
+  <si>
+    <t>解决供应商协议中的信息安全问题</t>
+  </si>
+  <si>
+    <t>该控制针对供应商协议中的信息安全要求。措施包括明确的合同条款、合规审计以及对违规的明确处罚。</t>
+  </si>
+  <si>
+    <r>
+      <t>管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ICT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>供应链中的信息安全</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>该控制管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ICT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>供应链中的信息安全风险，确保服务和组件的安全。措施包括风险评估、供应商评估和事故响应协议。</t>
+    </r>
+  </si>
+  <si>
+    <t>监控、审查和变更供应商服务</t>
+  </si>
+  <si>
+    <t>这种控制确保供应商服务得到监控、审查和调整，以维护信息安全。措施包括服务水平协议、定期审查和合同更新。</t>
+  </si>
+  <si>
+    <t>云服务使用的信息安全</t>
+  </si>
+  <si>
+    <t>这种控制通过解决相关风险，确保云服务的安全使用。措施包括数据加密、访问控制和提供者合规审查。</t>
+  </si>
+  <si>
+    <t>信息安全事件管理规划与准备</t>
+  </si>
+  <si>
+    <t>这种控制确保了信息安全事件的合理规划和准备。措施包括事件响应计划、培训演习和通信协议。</t>
+  </si>
+  <si>
+    <t>信息安全事件的评估与决策</t>
+  </si>
+  <si>
+    <t>这种控制建立了评估和决定与信息安全事件相关行动的流程。措施包括根本原因分析、风险评估和缓解计划。</t>
+  </si>
+  <si>
+    <t>信息安全事件的应对</t>
+  </si>
+  <si>
+    <t>这种控制确保了对信息安全事件的有效响应，最大限度地减少影响并迅速恢复。措施包括事件报告、升级协议和遏制策略。</t>
+  </si>
+  <si>
+    <t>从信息安全事件中学习</t>
+  </si>
+  <si>
+    <t>这种控制确保信息安全事件中吸取的经验教训被记录并加以实施，以改进流程。措施包括事件后审查、行动计划和政策更新。</t>
+  </si>
+  <si>
+    <t>证据收集</t>
+  </si>
+  <si>
+    <t>这种控制确保证据在安全事件期间被收集和保存，以支持调查。措施包括保管链程序、安全存储和门禁控制。</t>
+  </si>
+  <si>
+    <t>中断期间的信息安全</t>
+  </si>
+  <si>
+    <t>这种控制确保信息安全在中断期间得到维护，确保运营的连续性。措施包括应急预案、备份系统和故障切换机制。</t>
+  </si>
+  <si>
+    <r>
+      <t>ICT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>业务连续性准备</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这种控制确保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ICT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>对业务连续性做好准备，最大限度地减少中断期间的停机时间。措施包括测试恢复计划、冗余系统和灾难恢复站点。</t>
+    </r>
+  </si>
+  <si>
+    <t>法律、法定、监管和合同要求</t>
+  </si>
+  <si>
+    <t>这种控制确保符合法律、法定、监管和合同信息安全要求。措施包括政策审查、审计和证据记录。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>知识产权</t>
+    </r>
+  </si>
+  <si>
+    <t>这种控制确保知识产权通过适当的信息安全措施得到保护。措施包括访问限制、加密和法律协议。</t>
+  </si>
+  <si>
+    <t>档案保护</t>
+  </si>
+  <si>
+    <t>这种控制确保记录安全存储和保护，防止丢失或未经授权访问。措施包括保留政策、安全存储和访问控制。</t>
+  </si>
+  <si>
+    <t>个人隐私保护与保护</t>
+  </si>
+  <si>
+    <r>
+      <t>这种控制保护隐私，确保个人身份信息（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PII</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>）的安全处理。措施包括匿名化、加密以及遵守隐私法律。</t>
+    </r>
+  </si>
+  <si>
+    <t>信息安全独立审查</t>
+  </si>
+  <si>
+    <t>这种控制确保了对信息安全的独立审查，以评估其有效性和合规性。措施包括外部审计、风险评估和后续行动。</t>
+  </si>
+  <si>
+    <t>遵守信息安全的政策、规则和标准</t>
+  </si>
+  <si>
+    <t>这种控制确保遵守所有信息安全的政策、规则和标准。措施包括定期培训、政策审查和执法机制。</t>
+  </si>
+  <si>
+    <t>文档作程序</t>
+  </si>
+  <si>
+    <t>该控制制定并维护有文档的作程序，以确保安全实践的一致性。措施包括流程文档、版本控制和无障碍。</t>
+  </si>
+  <si>
+    <t>放映</t>
+  </si>
+  <si>
+    <t>这种控制确保在聘用前实施筛选流程，以验证候选人的适任性。措施包括背景调查、身份验证和资格评估，以降低安全风险。</t>
+  </si>
+  <si>
+    <t>雇佣条款与条件</t>
+  </si>
+  <si>
+    <t>这种控制确保雇佣条款和条件包含信息安全责任。措施包括明确规定保密、遵守政策以及违规后果等条款。</t>
+  </si>
+  <si>
+    <t>信息安全意识、教育与培训</t>
+  </si>
+  <si>
+    <t>这种控制确保员工定期获得信息安全意识、教育和培训。措施包括定期培训、电子学习项目和模拟钓鱼演习。</t>
+  </si>
+  <si>
+    <t>纪律处分程序</t>
+  </si>
+  <si>
+    <t>该控制建立了纪律程序，以处理信息安全政策的违规行为。措施包括明确的指导方针、升级程序和持续的执法，以保持问责制。</t>
+  </si>
+  <si>
+    <t>离职或更换工作后的职责</t>
+  </si>
+  <si>
+    <t>这种控制确保信息安全相关的职责在离职或职位变更后得到定义和执行。措施包括撤销访问权、收缴组织资产以及进行离职面谈。</t>
+  </si>
+  <si>
+    <t>保密协议或保密协议</t>
+  </si>
+  <si>
+    <t>该控制实施保密协议或保密协议以保护敏感信息。措施包括入职时签署协议、定期提醒以及在违规时执行法律行动。</t>
+  </si>
+  <si>
+    <t>远程办公</t>
+  </si>
+  <si>
+    <r>
+      <t>这种控制确保了远程办公期间信息安全风险的安全管理。措施包括对企业系统的安全访问、强制使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>VPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>，以及制定远程处理敏感数据的政策。</t>
+    </r>
+  </si>
+  <si>
+    <t>信息安全事件报告</t>
+  </si>
+  <si>
+    <t>这种控制确保员工能够及时报告信息安全事件。措施包括事件报告渠道、宣传活动以及调查和处理报告事件的后续程序。</t>
+  </si>
+  <si>
+    <t>物理安全边界</t>
+  </si>
+  <si>
+    <t>这种控制建立了物理安全边界，保护关键区域免受未经授权的访问。措施包括设置障碍物、门禁控制和监控系统，确保只有授权人员才能进入。</t>
+  </si>
+  <si>
+    <t>实体进入</t>
+  </si>
+  <si>
+    <t>这种控制确保物理入口点得到控制和监控，防止未经授权的访问。措施包括徽章系统、安保人员和访客记录。</t>
+  </si>
+  <si>
+    <t>确保办公室、房间和设施</t>
+  </si>
+  <si>
+    <t>这种控制确保办公室、房间和设施的安全，以保护信息和资源。措施包括上锁门、限制区域和监控系统。</t>
+  </si>
+  <si>
+    <t>物理安全监控</t>
+  </si>
+  <si>
+    <t>该控制实施了物理安全监控，以检测并迅速响应威胁。措施包括闭路电视系统、运动探测器和实时警报。</t>
+  </si>
+  <si>
+    <t>防护物理和环境威胁</t>
+  </si>
+  <si>
+    <t>这种控制保护系统和资源免受物理和环境威胁。措施包括灭火系统、温度控制和防洪屏障。</t>
+  </si>
+  <si>
+    <t>在安全区域工作</t>
+  </si>
+  <si>
+    <t>这种控制确保安全区域只允许授权访问。措施包括门禁系统、访客护送和活动监测。</t>
+  </si>
+  <si>
+    <t>桌面和屏幕都清晰</t>
+  </si>
+  <si>
+    <t>通过采用清晰桌面和清晰屏幕政策，这种控制确保敏感信息不会被遗漏。措施包括将敏感文件锁好，并在未使用时自动锁定屏幕。</t>
+  </si>
+  <si>
+    <t>设备选址与防护</t>
+  </si>
+  <si>
+    <t>这种控制确保设备被安置和保护，以防止未经授权的访问或损坏。措施包括安全安装、上锁柜子和限制进入区域。</t>
+  </si>
+  <si>
+    <t>资产在场外的安全</t>
+  </si>
+  <si>
+    <t>这种控制确保使用或存放在场外的资产得到保护，以维护机密性和完整性。措施包括加密、安全传输和访问追踪。</t>
+  </si>
+  <si>
+    <t>存储介质</t>
+  </si>
+  <si>
+    <t>这种控制保护存储介质，防止未经授权的访问或篡改。措施包括安全存储、加密和访问限制。</t>
+  </si>
+  <si>
+    <t>支持公用事业</t>
+  </si>
+  <si>
+    <t>这种控制确保了支持的公用事业，如电力和冷却系统，可靠且不受干扰。措施包括冗余系统和物理安全。</t>
+  </si>
+  <si>
+    <t>布线安全</t>
+  </si>
+  <si>
+    <t>这种控制确保电缆得到安全保护，防止未经授权的拦截或损坏。措施包括保护管道、正确标识和安全布线。</t>
+  </si>
+  <si>
+    <t>设备维护</t>
+  </si>
+  <si>
+    <t>这种控制确保设备得到维护，确保正常运行并防止故障发生。措施包括定期保养、安全维护实践以及授权人员通行。</t>
+  </si>
+  <si>
+    <t>安全处置或再利用设备</t>
+  </si>
+  <si>
+    <t>这种控制确保设备安全处置或再利用，以保护敏感信息。措施包括数据净化、物理销毁和认证处理流程。</t>
+  </si>
+  <si>
+    <t>用户终端设备</t>
+  </si>
+  <si>
+    <t>这种控制通过实施终端检测、加密和安全配置等安全措施，确保对笔记本电脑、台式机和移动设备等终端设备的保护，以最大限度地降低风险。</t>
+  </si>
+  <si>
+    <t>特权访问权</t>
+  </si>
+  <si>
+    <t>这种控制确保特权访问权得到授权、管理和严格监控，以防止滥用并增强安全性。措施包括基于角色的访问控制、定期审查和严格的账户管理。</t>
+  </si>
+  <si>
+    <t>信息访问限制</t>
+  </si>
+  <si>
+    <t>这种控制基于知情需求原则限制了对敏感信息的访问。措施包括用户认证、基于角色的权限以及定期的访问审查。</t>
+  </si>
+  <si>
+    <t>源代码访问</t>
+  </si>
+  <si>
+    <t>这种控制通过防止未经授权的查看、修改或曝光，保障了对源代码的访问。措施包括版本控制、安全仓库和限制开发者访问。</t>
+  </si>
+  <si>
+    <t>安全认证</t>
+  </si>
+  <si>
+    <t>该控制实现强认证机制，如多因素认证，以验证用户身份并防止未经授权的访问。</t>
+  </si>
+  <si>
+    <t>容量管理</t>
+  </si>
+  <si>
+    <t>这种控制确保系统容量得到管理，以提供足够的性能并防止中断。措施包括监控资源使用和规划未来需求。</t>
+  </si>
+  <si>
+    <t>防范恶意软件</t>
+  </si>
+  <si>
+    <t>该控制部署了杀毒软件、威胁检测工具和定期更新等措施，以保护系统免受恶意软件和恶意攻击。</t>
+  </si>
+  <si>
+    <t>技术漏洞管理</t>
+  </si>
+  <si>
+    <t>该控制能够及时识别、评估并修复技术漏洞，以最大限度地降低安全风险。措施包括漏洞扫描和补丁管理。</t>
+  </si>
+  <si>
+    <t>配置管理</t>
+  </si>
+  <si>
+    <t>这种控制确保系统配置的一致管理，以维护安全设置并防止未经授权的更改。</t>
+  </si>
+  <si>
+    <t>信息删除</t>
+  </si>
+  <si>
+    <t>这种控制确保敏感信息在不再需要防止未经授权的恢复或曝光时被安全删除。</t>
+  </si>
+  <si>
+    <t>数据掩蔽</t>
+  </si>
+  <si>
+    <t>该控制通过使用数据掩蔽技术保护敏感信息，防止未授权用户发现。</t>
+  </si>
+  <si>
+    <t>数据泄露预防</t>
+  </si>
+  <si>
+    <t>该控制机制实现了防止敏感数据通过电子邮件、可移动媒体或其他渠道意外泄露的机制。</t>
+  </si>
+  <si>
+    <t>信息备份</t>
+  </si>
+  <si>
+    <t>这种控制确保关键信息能够定期且安全地备份，确保在事故或灾难发生时其可用性。</t>
+  </si>
+  <si>
+    <t>信息处理设施的冗余</t>
+  </si>
+  <si>
+    <t>这种控制确保处理设施内置冗余，以在系统故障或紧急情况下保持可用性和运行。</t>
+  </si>
+  <si>
+    <t>伐木</t>
+  </si>
+  <si>
+    <t>这种控制使系统内活动能够记录，以支持监控、事件检测和取证调查。</t>
+  </si>
+  <si>
+    <t>监测活动</t>
+  </si>
+  <si>
+    <t>这种控制确保系统活动持续监控，以检测、响应并缓解安全威胁。</t>
+  </si>
+  <si>
+    <t>时钟同步</t>
+  </si>
+  <si>
+    <t>这种控制确保系统时钟同步，以保持日志及其他关键进程的时间戳准确一致。</t>
+  </si>
+  <si>
+    <t>特权实用程序的使用</t>
+  </si>
+  <si>
+    <t>这种控制限制并监控特权工具程序的使用，以防止滥用和未经授权的行为。</t>
+  </si>
+  <si>
+    <t>作系统上的软件安装</t>
+  </si>
+  <si>
+    <t>这种控制确保在运营系统上的软件安装得到安全管理，以防止漏洞或未经授权的更改。</t>
+  </si>
+  <si>
+    <t>网络安全</t>
+  </si>
+  <si>
+    <t>这种控制通过防火墙、入侵检测系统和访问控制确保网络安全，防止未经授权的访问和攻击。</t>
+  </si>
+  <si>
+    <t>网络服务的安全性</t>
+  </si>
+  <si>
+    <t>这种控制确保网络服务在使用过程中保持机密性、完整性和可用性。</t>
+  </si>
+  <si>
+    <t>网络隔离</t>
+  </si>
+  <si>
+    <t>这种控制实施了网络隔离，以限制威胁的扩散，并最大限度地减少潜在入侵的影响。</t>
+  </si>
+  <si>
+    <r>
+      <t>网页过滤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>该控制利用网络过滤工具阻止未经授权或有害内容通过互联网访问。</t>
+  </si>
+  <si>
+    <t>密码学的应用</t>
+  </si>
+  <si>
+    <t>这种控制确保采用密码学技术来保护数据的机密性、完整性和真实性。</t>
+  </si>
+  <si>
+    <t>安全开发生命周期</t>
+  </si>
+  <si>
+    <t>该控制将安全整合到开发生命周期的所有阶段，确保系统和应用的安全构建。</t>
+  </si>
+  <si>
+    <t>应用安全要求</t>
+  </si>
+  <si>
+    <t>这种控制定义并执行应用程序的安全要求，以防范漏洞。</t>
+  </si>
+  <si>
+    <t>安全系统架构与工程原理</t>
+  </si>
+  <si>
+    <t>这种控制确保在系统架构开发过程中采用安全的设计原则。</t>
+  </si>
+  <si>
+    <t>安全编码</t>
+  </si>
+  <si>
+    <t>这种控制实施了安全的编码实践，以最大限度地减少开发软件中的漏洞。</t>
+  </si>
+  <si>
+    <t>开发与验收中的安全性测试</t>
+  </si>
+  <si>
+    <t>这种控制确保在开发和验收阶段进行安全测试，以识别弱点。</t>
+  </si>
+  <si>
+    <r>
+      <t>外包开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>这种控制确保在开发外包给第三方供应商时安全风险得到有效管理。</t>
+  </si>
+  <si>
+    <t>开发、测试和生产环境的分离</t>
+  </si>
+  <si>
+    <t>这种控制确保开发、测试和生产环境被隔离，以防止意外交互和未经授权的访问。</t>
+  </si>
+  <si>
+    <t>变更管理</t>
+  </si>
+  <si>
+    <t>这种控制确保系统变更得到安全管理，以降低风险并保持运营稳定性。</t>
+  </si>
+  <si>
+    <t>测试信息</t>
+  </si>
+  <si>
+    <t>该控制保护测试数据，防止敏感或机密信息在测试过程中泄露。</t>
+  </si>
+  <si>
+    <t>审计测试期间信息系统的保护</t>
+  </si>
+  <si>
+    <t>这种控制确保系统和数据在审计过程中得到保护，防止未经授权的访问、数据泄露或中断。措施包括使用非生产环境、访问限制和保密协议，以维护系统安全和完整性。</t>
+  </si>
+  <si>
+    <t>Description[zh]</t>
+  </si>
+  <si>
+    <t>Name[zh]</t>
+  </si>
+  <si>
+    <t>条款</t>
+  </si>
+  <si>
+    <r>
+      <t>组织背景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>理解组织及其背景</t>
+  </si>
+  <si>
+    <r>
+      <t>识别影响组织实现信息安全目标能力的内部和外部因素，确保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>与其背景保持一致。</t>
+    </r>
+  </si>
+  <si>
+    <t>了解相关方的需求和期望</t>
+  </si>
+  <si>
+    <r>
+      <t>分析相关方的需求和期望，将其纳入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>，并满足相关的信息安全需求。</t>
+    </r>
+  </si>
+  <si>
+    <t>确定信息安全管理系统的范围</t>
+  </si>
+  <si>
+    <r>
+      <t>通过考虑内部和外部因素、利益相关者需求以及运营环境中的依赖关系，定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>的范围。</t>
+    </r>
+  </si>
+  <si>
+    <t>信息安全管理系统</t>
+  </si>
+  <si>
+    <r>
+      <t>构建、运行并持续改进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>，以有效管理信息安全风险并实现组织目标。</t>
+    </r>
+  </si>
+  <si>
+    <t>领导层</t>
+  </si>
+  <si>
+    <t>领导力与承诺</t>
+  </si>
+  <si>
+    <r>
+      <t>通过支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>、使其与组织目标对齐、分配资源、促进安全文化并推动持续改进来展示领导力和承诺。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>政策</t>
+    </r>
+  </si>
+  <si>
+    <t>制定与组织目标和战略方向一致的信息安全政策，明确合规、持续改进和信息安全促进的承诺。</t>
+  </si>
+  <si>
+    <t>组织角色、职责与权限</t>
+  </si>
+  <si>
+    <r>
+      <t>定义、分配并传达角色、责任和权限，以确保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>的有效实施和运营，并与组织目标保持一致的问责制。</t>
+    </r>
+  </si>
+  <si>
+    <t>规划</t>
+  </si>
+  <si>
+    <t>应对风险与机遇的行动</t>
+  </si>
+  <si>
+    <t>常规</t>
+  </si>
+  <si>
+    <r>
+      <t>建立识别信息安全风险和机会的流程，考虑内部和外部因素、利益相关者需求及适用要求，确保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>实现其目标。</t>
+    </r>
+  </si>
+  <si>
+    <t>信息安全风险评估要求</t>
+  </si>
+  <si>
+    <t>建立一个流程，按计划间隔评估信息安全风险，使用定义标准评估机密性、完整性和可用性的威胁，确保结果一致且可靠。</t>
+  </si>
+  <si>
+    <t>信息安全风险处理</t>
+  </si>
+  <si>
+    <t>定义一个流程，通过选择适当的控制措施、确保与风险接受标准一致，并在风险处理计划中记录这些风险，来应对已识别的信息安全风险。</t>
+  </si>
+  <si>
+    <t>信息安全目标及其实现规划</t>
+  </si>
+  <si>
+    <r>
+      <t>设定与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>和战略目标相一致的可衡量信息安全目标，并规划具体的责任、资源、时间表及评估方法以实现这些目标。</t>
+    </r>
+  </si>
+  <si>
+    <t>变革规划</t>
+  </si>
+  <si>
+    <r>
+      <t>系统性规划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>的变更，确保与信息安全要求保持一致，无缝整合于现有流程，并有效管理风险。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>支持</t>
+    </r>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <r>
+      <t>提供必要资源以建设、运行并持续改进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>，确保其有效运行并与组织目标保持一致。</t>
+    </r>
+  </si>
+  <si>
+    <t>职权</t>
+  </si>
+  <si>
+    <r>
+      <t>确保参与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>的人员通过适当的教育、培训或经验具备必要的能力，以有效履行职责。</t>
+    </r>
+  </si>
+  <si>
+    <t>意识</t>
+  </si>
+  <si>
+    <r>
+      <t>提高相关人员对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>、其在信息安全中作用以及遵守安全政策和要求重要性的认识。</t>
+    </r>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <r>
+      <t>建立有效的内外沟通流程，确保及时且适当地交换与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>（国际安全管理系统及其目标）相关的信息。</t>
+    </r>
+  </si>
+  <si>
+    <t>文献信息</t>
+  </si>
+  <si>
+    <r>
+      <t>根据需要记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>文件，以确保有效的规划、运营、流程控制并与组织需求保持一致。</t>
+    </r>
+  </si>
+  <si>
+    <t>创建和更新文档信息</t>
+  </si>
+  <si>
+    <r>
+      <t>确保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>文档得到适当创建、更新和控制，包括适当的审批和版本管理。</t>
+    </r>
+  </si>
+  <si>
+    <t>对文档信息的控制</t>
+  </si>
+  <si>
+    <r>
+      <t>让</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>文档对有需要的人可访问和使用，同时保护其免受未经授权访问或丢失。</t>
+    </r>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>作战规划与控制</t>
+  </si>
+  <si>
+    <r>
+      <t>规划和控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>流程，确保与需求一致，并做出必要调整以应对风险和机遇。</t>
+    </r>
+  </si>
+  <si>
+    <t>信息安全风险评估</t>
+  </si>
+  <si>
+    <r>
+      <t>实施风险评估流程，识别、评估并优先排序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>框架中定义的信息安全风险。</t>
+    </r>
+  </si>
+  <si>
+    <t>通过选择和实施适当的控制措施来应对已识别的风险，应用风险处理流程，确保与组织的风险接受标准保持一致。</t>
+  </si>
+  <si>
+    <t>绩效评估</t>
+  </si>
+  <si>
+    <t>监测、测量、分析、评估</t>
+  </si>
+  <si>
+    <r>
+      <t>使用符合组织目标的适当方法，监控、测量、分析和评估</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>的绩效和有效性。</t>
+    </r>
+  </si>
+  <si>
+    <t>内部审计</t>
+  </si>
+  <si>
+    <r>
+      <t>按计划间隔进行内部审计，确保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISO/IEC 27001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>要求并有效实施和维护。</t>
+    </r>
+  </si>
+  <si>
+    <t>内部审计项目</t>
+  </si>
+  <si>
+    <t>规划并执行内部审计，包括定义标准、范围、方法和职责，并将结果报告给相关管理层。</t>
+  </si>
+  <si>
+    <t>管理权审查</t>
+  </si>
+  <si>
+    <r>
+      <t>定期审查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>以确保其在实现组织目标方面的适用性、充分性和有效性。</t>
+    </r>
+  </si>
+  <si>
+    <t>管理审查输入</t>
+  </si>
+  <si>
+    <r>
+      <t>包括审计结果、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ISMS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>绩效、风险状态、改进机会以及管理审查中所需的变更等输入。</t>
+    </r>
+  </si>
+  <si>
+    <t>管理审查结果</t>
+  </si>
+  <si>
+    <r>
+      <t>记录管理审查的结果，包括改进决策、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>变更和资源需求。</t>
+    </r>
+  </si>
+  <si>
+    <t>改进</t>
+  </si>
+  <si>
+    <t>持续改进</t>
+  </si>
+  <si>
+    <r>
+      <t>识别并采取行动，以持续改进，以提升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+      </rPr>
+      <t>的效能和与组织目标的一致性。</t>
+    </r>
+  </si>
+  <si>
+    <t>不符合规范与纠正措施</t>
+  </si>
+  <si>
+    <t>通过采取纠正措施、识别根本原因并实施防止复发措施，同时记录流程，解决不合规问题。</t>
+  </si>
+  <si>
+    <t>适用性说明</t>
+  </si>
+  <si>
+    <t>组织控制</t>
+  </si>
+  <si>
+    <t>人员控制</t>
+  </si>
+  <si>
+    <t>物理控制</t>
+  </si>
+  <si>
+    <t>技术控制</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5721,6 +7170,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5749,22 +7214,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5782,15 +7247,38 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -5806,6 +7294,22 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5842,14 +7346,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5881,28 +7377,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{555F9585-D06C-4B24-98C7-D7216DEB2FC8}" name="Tableau1" displayName="Tableau1" ref="L1:Q1048576" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="L1:Q1048576" xr:uid="{555F9585-D06C-4B24-98C7-D7216DEB2FC8}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C059DDF9-A0FB-4C10-A62B-FEAE0B36B82B}" name="Name[sv]" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{BF7AE1F4-AF03-4E2D-AB60-47D7A97522E3}" name="Description[sv]" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{30D5F370-2AC1-4825-905A-1BA02CD59D31}" name="Name[es]" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{555F9585-D06C-4B24-98C7-D7216DEB2FC8}" name="Tableau1" displayName="Tableau1" ref="L1:S1048576" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="L1:S1048576" xr:uid="{555F9585-D06C-4B24-98C7-D7216DEB2FC8}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C059DDF9-A0FB-4C10-A62B-FEAE0B36B82B}" name="Name[sv]" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{BF7AE1F4-AF03-4E2D-AB60-47D7A97522E3}" name="Description[sv]" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{30D5F370-2AC1-4825-905A-1BA02CD59D31}" name="Name[es]" dataDxfId="13">
       <calculatedColumnFormula>_xlfn.TRANSLATE(E2,"en","es")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A34422F5-960C-4F1C-9E67-0C1122FEE0A6}" name="Description[es]" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{A34422F5-960C-4F1C-9E67-0C1122FEE0A6}" name="Description[es]" dataDxfId="12">
       <calculatedColumnFormula>_xlfn.TRANSLATE(F2,"en","es")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6DEF0577-3AAD-4CAA-83AA-3BD4AADC2B93}" name="Name[de]" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{48FE6C2D-D956-4240-B820-38AB26112F72}" name="Description[de]" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{6DEF0577-3AAD-4CAA-83AA-3BD4AADC2B93}" name="Name[de]" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{48FE6C2D-D956-4240-B820-38AB26112F72}" name="Description[de]" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{30A18846-43A7-8647-BBF9-48C55F25F016}" name="Name[zh]"/>
+    <tableColumn id="8" xr3:uid="{6AEE4818-7F1F-F146-B7F7-56C75B096471}" name="Description[zh]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81F67CEC-B647-4ACC-AED8-48092A1A0BB5}" name="Tableau4" displayName="Tableau4" ref="A1:N1048576" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:N1048576" xr:uid="{81F67CEC-B647-4ACC-AED8-48092A1A0BB5}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{81F67CEC-B647-4ACC-AED8-48092A1A0BB5}" name="Tableau4" displayName="Tableau4" ref="A1:P1048576" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:P1048576" xr:uid="{81F67CEC-B647-4ACC-AED8-48092A1A0BB5}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{B2FF123A-52AF-4D01-B48E-D1CD2E8ED3F1}" name="ref_id"/>
     <tableColumn id="2" xr3:uid="{BF6BA2D4-5FB5-457B-BD33-E7D0C7DCF063}" name="category"/>
     <tableColumn id="3" xr3:uid="{CBED9E4C-A2F3-4E69-8486-0E01198805BE}" name="Name"/>
@@ -5911,16 +7409,18 @@
     <tableColumn id="6" xr3:uid="{B3714C26-3293-4CE3-AAD2-7796CA077498}" name="Description[fr]"/>
     <tableColumn id="7" xr3:uid="{6CB5CA1F-1F5F-4346-AF09-1A020142F3C1}" name="Name[cs]"/>
     <tableColumn id="8" xr3:uid="{8D983192-DAB4-4335-AB16-EE42A0687865}" name="Description[cs]"/>
-    <tableColumn id="9" xr3:uid="{E4175765-A6AB-49E3-A4FA-2DEE025A87E1}" name="Name[sv]" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{728412CC-B6EB-4B6B-B248-203615736040}" name="Description[sv]" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{ADF41DAE-FB5F-4835-BCD3-D488D644982C}" name="Name[es]" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{7461592F-489A-4ADE-AB62-648E61DB0741}" name="Description[es]" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{E7894179-1EA7-445E-AE4C-EAE208FEBFC5}" name="Name[de]" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{E4175765-A6AB-49E3-A4FA-2DEE025A87E1}" name="Name[sv]" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{728412CC-B6EB-4B6B-B248-203615736040}" name="Description[sv]" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{ADF41DAE-FB5F-4835-BCD3-D488D644982C}" name="Name[es]" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{7461592F-489A-4ADE-AB62-648E61DB0741}" name="Description[es]" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{E7894179-1EA7-445E-AE4C-EAE208FEBFC5}" name="Name[de]" dataDxfId="6">
       <calculatedColumnFormula>_xlfn.TRANSLATE(Tableau4[[#This Row],[Name]],"en","es")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4F7AFEE2-6C71-4D4D-A8C2-1D900119A912}" name="Description[de]" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{4F7AFEE2-6C71-4D4D-A8C2-1D900119A912}" name="Description[de]" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.TRANSLATE(Tableau4[[#This Row],[Description]],"en","es")</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="15" xr3:uid="{843604A7-6870-664A-90CE-2F54A10A3EEB}" name="Name[zh]" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{1E0ACD26-9C48-854D-BFDE-DF540AAD2361}" name="Description[zh]" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6211,19 +7711,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="132.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="132.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6231,7 +7731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6239,15 +7739,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6255,7 +7755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6263,7 +7763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -6271,7 +7771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -6279,7 +7779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6287,7 +7787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -6295,7 +7795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -6303,7 +7803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -6311,7 +7811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -6319,7 +7819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -6327,7 +7827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -6335,7 +7835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -6343,7 +7843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -6351,7 +7851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -6359,7 +7859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1080</v>
       </c>
@@ -6367,7 +7867,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1081</v>
       </c>
@@ -6375,7 +7875,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1082</v>
       </c>
@@ -6383,7 +7883,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1348</v>
       </c>
@@ -6391,7 +7891,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1349</v>
       </c>
@@ -6399,7 +7899,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1350</v>
       </c>
@@ -6407,7 +7907,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1614</v>
       </c>
@@ -6415,7 +7915,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1615</v>
       </c>
@@ -6423,12 +7923,36 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1616</v>
       </c>
       <c r="B26" t="s">
         <v>1619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1881</v>
       </c>
     </row>
   </sheetData>
@@ -6438,18 +7962,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6457,7 +7981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6465,7 +7989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -6473,7 +7997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -6481,7 +8005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6489,7 +8013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6497,7 +8021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6505,7 +8029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -6513,7 +8037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -6521,7 +8045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -6529,7 +8053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1080</v>
       </c>
@@ -6537,7 +8061,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1081</v>
       </c>
@@ -6545,7 +8069,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1348</v>
       </c>
@@ -6553,7 +8077,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1349</v>
       </c>
@@ -6561,7 +8085,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1614</v>
       </c>
@@ -6569,7 +8093,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1615</v>
       </c>
@@ -6577,12 +8101,28 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1880</v>
       </c>
     </row>
   </sheetData>
@@ -6592,34 +8132,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:S144"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="71.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" customWidth="1"/>
-    <col min="9" max="9" width="66.140625" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" customWidth="1"/>
-    <col min="11" max="11" width="58.140625" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" customWidth="1"/>
-    <col min="13" max="13" width="71.7109375" customWidth="1"/>
-    <col min="14" max="14" width="27.140625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="71.7109375" style="8" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="71.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" customWidth="1"/>
+    <col min="9" max="9" width="66.1640625" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" customWidth="1"/>
+    <col min="11" max="11" width="58.1640625" customWidth="1"/>
+    <col min="12" max="12" width="27.1640625" customWidth="1"/>
+    <col min="13" max="13" width="71.6640625" customWidth="1"/>
+    <col min="14" max="14" width="27.1640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="71.6640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="27.1640625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="114.83203125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="62.1640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -6671,8 +8213,14 @@
       <c r="Q1" s="1" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -6713,8 +8261,12 @@
       <c r="Q2" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R2" s="12" t="s">
+        <v>2073</v>
+      </c>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -6755,8 +8307,12 @@
       <c r="Q3" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R3" s="12" t="s">
+        <v>2074</v>
+      </c>
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -6805,11 +8361,17 @@
       <c r="P4" s="8" t="s">
         <v>1623</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="8" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R4" s="12" t="s">
+        <v>2075</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
@@ -6858,11 +8420,17 @@
       <c r="P5" s="8" t="s">
         <v>1624</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="8" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R5" s="12" t="s">
+        <v>2077</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -6911,11 +8479,17 @@
       <c r="P6" s="8" t="s">
         <v>1625</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="8" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R6" s="12" t="s">
+        <v>2079</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
@@ -6964,11 +8538,17 @@
       <c r="P7" s="8" t="s">
         <v>1626</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="8" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R7" s="13" t="s">
+        <v>2081</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -7009,8 +8589,12 @@
       <c r="Q8" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="R8" s="13" t="s">
+        <v>2083</v>
+      </c>
+      <c r="S8" s="18"/>
+    </row>
+    <row r="9" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -7059,11 +8643,17 @@
       <c r="P9" s="8" t="s">
         <v>1628</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="8" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R9" s="13" t="s">
+        <v>2084</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -7112,11 +8702,17 @@
       <c r="P10" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="8" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R10" s="14" t="s">
+        <v>2086</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -7165,11 +8761,17 @@
       <c r="P11" s="8" t="s">
         <v>1630</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="8" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R11" s="13" t="s">
+        <v>2088</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2</v>
       </c>
@@ -7207,9 +8809,12 @@
       <c r="P12" s="8" t="s">
         <v>1631</v>
       </c>
-      <c r="Q12" s="15"/>
-    </row>
-    <row r="13" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="R12" s="13" t="s">
+        <v>2090</v>
+      </c>
+      <c r="S12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>3</v>
       </c>
@@ -7250,8 +8855,12 @@
       <c r="Q13" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R13" s="13" t="s">
+        <v>2091</v>
+      </c>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
@@ -7300,11 +8909,17 @@
       <c r="P14" s="8" t="s">
         <v>1633</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="8" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R14" s="13" t="s">
+        <v>2092</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
@@ -7353,11 +8968,17 @@
       <c r="P15" s="8" t="s">
         <v>1634</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="8" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R15" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
@@ -7406,11 +9027,17 @@
       <c r="P16" s="8" t="s">
         <v>1635</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="8" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="R16" s="13" t="s">
+        <v>2096</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -7459,11 +9086,17 @@
       <c r="P17" s="8" t="s">
         <v>1636</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="8" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R17" s="13" t="s">
+        <v>2098</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -7512,11 +9145,17 @@
       <c r="P18" s="8" t="s">
         <v>1637</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="8" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R18" s="13" t="s">
+        <v>2100</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>2</v>
       </c>
@@ -7557,8 +9196,12 @@
       <c r="Q19" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R19" s="14" t="s">
+        <v>2102</v>
+      </c>
+      <c r="S19" s="18"/>
+    </row>
+    <row r="20" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
@@ -7607,11 +9250,17 @@
       <c r="P20" s="8" t="s">
         <v>1639</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="Q20" s="8" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R20" s="13" t="s">
+        <v>2103</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -7660,11 +9309,17 @@
       <c r="P21" s="8" t="s">
         <v>1640</v>
       </c>
-      <c r="Q21" s="15" t="s">
+      <c r="Q21" s="8" t="s">
         <v>1849</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R21" s="13" t="s">
+        <v>2105</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -7713,11 +9368,17 @@
       <c r="P22" s="8" t="s">
         <v>1641</v>
       </c>
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="8" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R22" s="13" t="s">
+        <v>2107</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
@@ -7766,11 +9427,17 @@
       <c r="P23" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="Q23" s="15" t="s">
+      <c r="Q23" s="8" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R23" s="13" t="s">
+        <v>2109</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>3</v>
       </c>
@@ -7808,9 +9475,12 @@
       <c r="P24" s="8" t="s">
         <v>1642</v>
       </c>
-      <c r="Q24" s="15"/>
-    </row>
-    <row r="25" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R24" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="S24" s="18"/>
+    </row>
+    <row r="25" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
@@ -7859,11 +9529,17 @@
       <c r="P25" s="8" t="s">
         <v>1643</v>
       </c>
-      <c r="Q25" s="15" t="s">
+      <c r="Q25" s="8" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R25" s="13" t="s">
+        <v>2092</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
@@ -7912,11 +9588,17 @@
       <c r="P26" s="8" t="s">
         <v>1644</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="8" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R26" s="13" t="s">
+        <v>2113</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
@@ -7965,11 +9647,17 @@
       <c r="P27" s="8" t="s">
         <v>1645</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="8" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R27" s="13" t="s">
+        <v>2115</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -8010,8 +9698,12 @@
       <c r="Q28" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R28" s="13" t="s">
+        <v>2117</v>
+      </c>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
@@ -8060,11 +9752,17 @@
       <c r="P29" s="8" t="s">
         <v>1647</v>
       </c>
-      <c r="Q29" s="15" t="s">
+      <c r="Q29" s="8" t="s">
         <v>1851</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R29" s="13" t="s">
+        <v>2118</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -8113,11 +9811,17 @@
       <c r="P30" s="8" t="s">
         <v>1634</v>
       </c>
-      <c r="Q30" s="15" t="s">
+      <c r="Q30" s="8" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R30" s="13" t="s">
+        <v>2120</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -8166,11 +9870,17 @@
       <c r="P31" s="8" t="s">
         <v>1635</v>
       </c>
-      <c r="Q31" s="15" t="s">
+      <c r="Q31" s="8" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R31" s="13" t="s">
+        <v>2096</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>2</v>
       </c>
@@ -8211,8 +9921,12 @@
       <c r="Q32" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R32" s="13" t="s">
+        <v>2123</v>
+      </c>
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
@@ -8261,11 +9975,17 @@
       <c r="P33" s="8" t="s">
         <v>1649</v>
       </c>
-      <c r="Q33" s="15" t="s">
+      <c r="Q33" s="8" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R33" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>3</v>
       </c>
@@ -8303,9 +10023,12 @@
       <c r="P34" s="8" t="s">
         <v>1650</v>
       </c>
-      <c r="Q34" s="15"/>
-    </row>
-    <row r="35" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R34" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="S34" s="18"/>
+    </row>
+    <row r="35" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>54</v>
       </c>
@@ -8354,11 +10077,17 @@
       <c r="P35" s="8" t="s">
         <v>1643</v>
       </c>
-      <c r="Q35" s="15" t="s">
+      <c r="Q35" s="8" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R35" s="13" t="s">
+        <v>2092</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>54</v>
       </c>
@@ -8407,11 +10136,17 @@
       <c r="P36" s="8" t="s">
         <v>1651</v>
       </c>
-      <c r="Q36" s="15" t="s">
+      <c r="Q36" s="8" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R36" s="13" t="s">
+        <v>2128</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>3</v>
       </c>
@@ -8449,9 +10184,12 @@
       <c r="P37" s="8" t="s">
         <v>1652</v>
       </c>
-      <c r="Q37" s="15"/>
-    </row>
-    <row r="38" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R37" s="13" t="s">
+        <v>2130</v>
+      </c>
+      <c r="S37" s="18"/>
+    </row>
+    <row r="38" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
@@ -8500,11 +10238,17 @@
       <c r="P38" s="8" t="s">
         <v>1643</v>
       </c>
-      <c r="Q38" s="15" t="s">
+      <c r="Q38" s="8" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R38" s="13" t="s">
+        <v>2092</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
@@ -8553,11 +10297,17 @@
       <c r="P39" s="8" t="s">
         <v>1653</v>
       </c>
-      <c r="Q39" s="15" t="s">
+      <c r="Q39" s="8" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R39" s="13" t="s">
+        <v>2132</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
@@ -8606,11 +10356,17 @@
       <c r="P40" s="8" t="s">
         <v>1654</v>
       </c>
-      <c r="Q40" s="15" t="s">
+      <c r="Q40" s="8" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R40" s="13" t="s">
+        <v>2134</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>2</v>
       </c>
@@ -8651,8 +10407,12 @@
       <c r="Q41" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R41" s="13" t="s">
+        <v>2136</v>
+      </c>
+      <c r="S41" s="18"/>
+    </row>
+    <row r="42" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>54</v>
       </c>
@@ -8701,11 +10461,17 @@
       <c r="P42" s="8" t="s">
         <v>1656</v>
       </c>
-      <c r="Q42" s="15" t="s">
+      <c r="Q42" s="8" t="s">
         <v>1876</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="R42" s="13" t="s">
+        <v>2137</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>54</v>
       </c>
@@ -8754,11 +10520,17 @@
       <c r="P43" s="8" t="s">
         <v>1657</v>
       </c>
-      <c r="Q43" s="15" t="s">
+      <c r="Q43" s="8" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R43" s="13" t="s">
+        <v>2139</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <v>1</v>
       </c>
@@ -8796,8 +10568,12 @@
       <c r="Q44" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R44" s="13" t="s">
+        <v>2141</v>
+      </c>
+      <c r="S44" s="18"/>
+    </row>
+    <row r="45" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -8835,8 +10611,12 @@
       <c r="Q45" s="8" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R45" s="13" t="s">
+        <v>2142</v>
+      </c>
+      <c r="S45" s="18"/>
+    </row>
+    <row r="46" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -8885,11 +10665,17 @@
       <c r="P46" s="8" t="s">
         <v>1659</v>
       </c>
-      <c r="Q46" s="15" t="s">
+      <c r="Q46" s="8" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R46" s="13" t="s">
+        <v>1885</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
@@ -8938,11 +10724,17 @@
       <c r="P47" s="8" t="s">
         <v>1660</v>
       </c>
-      <c r="Q47" s="15" t="s">
+      <c r="Q47" s="8" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R47" s="13" t="s">
+        <v>1887</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -8991,11 +10783,17 @@
       <c r="P48" s="8" t="s">
         <v>1661</v>
       </c>
-      <c r="Q48" s="15" t="s">
+      <c r="Q48" s="8" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R48" s="13" t="s">
+        <v>1889</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -9044,11 +10842,17 @@
       <c r="P49" s="8" t="s">
         <v>1662</v>
       </c>
-      <c r="Q49" s="15" t="s">
+      <c r="Q49" s="8" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R49" s="13" t="s">
+        <v>1891</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -9097,11 +10901,17 @@
       <c r="P50" s="8" t="s">
         <v>1663</v>
       </c>
-      <c r="Q50" s="15" t="s">
+      <c r="Q50" s="8" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R50" s="13" t="s">
+        <v>1893</v>
+      </c>
+      <c r="S50" s="12" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>54</v>
       </c>
@@ -9147,14 +10957,20 @@
       <c r="O51" s="8" t="s">
         <v>1525</v>
       </c>
-      <c r="P51" s="12" t="s">
+      <c r="P51" t="s">
         <v>1664</v>
       </c>
-      <c r="Q51" s="15" t="s">
+      <c r="Q51" s="8" t="s">
         <v>1760</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R51" s="13" t="s">
+        <v>1895</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>54</v>
       </c>
@@ -9200,14 +11016,20 @@
       <c r="O52" s="8" t="s">
         <v>1526</v>
       </c>
-      <c r="P52" s="12" t="s">
+      <c r="P52" t="s">
         <v>1665</v>
       </c>
-      <c r="Q52" s="15" t="s">
+      <c r="Q52" s="8" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R52" s="13" t="s">
+        <v>1897</v>
+      </c>
+      <c r="S52" s="12" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -9253,14 +11075,20 @@
       <c r="O53" s="8" t="s">
         <v>1527</v>
       </c>
-      <c r="P53" s="12" t="s">
+      <c r="P53" t="s">
         <v>1666</v>
       </c>
-      <c r="Q53" s="15" t="s">
+      <c r="Q53" s="8" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R53" s="13" t="s">
+        <v>1899</v>
+      </c>
+      <c r="S53" s="12" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>54</v>
       </c>
@@ -9306,14 +11134,20 @@
       <c r="O54" s="8" t="s">
         <v>1528</v>
       </c>
-      <c r="P54" s="12" t="s">
+      <c r="P54" t="s">
         <v>1667</v>
       </c>
-      <c r="Q54" s="15" t="s">
+      <c r="Q54" s="8" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R54" s="13" t="s">
+        <v>1901</v>
+      </c>
+      <c r="S54" s="12" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -9359,14 +11193,20 @@
       <c r="O55" s="8" t="s">
         <v>1529</v>
       </c>
-      <c r="P55" s="12" t="s">
+      <c r="P55" t="s">
         <v>1668</v>
       </c>
-      <c r="Q55" s="15" t="s">
+      <c r="Q55" s="8" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R55" s="13" t="s">
+        <v>1903</v>
+      </c>
+      <c r="S55" s="12" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -9412,14 +11252,20 @@
       <c r="O56" s="8" t="s">
         <v>1530</v>
       </c>
-      <c r="P56" s="12" t="s">
+      <c r="P56" t="s">
         <v>1669</v>
       </c>
-      <c r="Q56" s="15" t="s">
+      <c r="Q56" s="8" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R56" s="13" t="s">
+        <v>1905</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
@@ -9465,14 +11311,20 @@
       <c r="O57" s="8" t="s">
         <v>1531</v>
       </c>
-      <c r="P57" s="12" t="s">
+      <c r="P57" t="s">
         <v>1670</v>
       </c>
-      <c r="Q57" s="15" t="s">
+      <c r="Q57" s="8" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R57" s="13" t="s">
+        <v>1907</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
@@ -9518,14 +11370,20 @@
       <c r="O58" s="8" t="s">
         <v>1532</v>
       </c>
-      <c r="P58" s="12" t="s">
+      <c r="P58" t="s">
         <v>1671</v>
       </c>
-      <c r="Q58" s="15" t="s">
+      <c r="Q58" s="8" t="s">
         <v>1767</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R58" s="13" t="s">
+        <v>1909</v>
+      </c>
+      <c r="S58" s="12" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>54</v>
       </c>
@@ -9571,14 +11429,20 @@
       <c r="O59" s="8" t="s">
         <v>1533</v>
       </c>
-      <c r="P59" s="12" t="s">
+      <c r="P59" t="s">
         <v>1672</v>
       </c>
-      <c r="Q59" s="15" t="s">
+      <c r="Q59" s="8" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R59" s="13" t="s">
+        <v>1911</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>54</v>
       </c>
@@ -9624,14 +11488,20 @@
       <c r="O60" s="8" t="s">
         <v>1534</v>
       </c>
-      <c r="P60" s="12" t="s">
+      <c r="P60" t="s">
         <v>1673</v>
       </c>
-      <c r="Q60" s="15" t="s">
+      <c r="Q60" s="8" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R60" s="13" t="s">
+        <v>1913</v>
+      </c>
+      <c r="S60" s="12" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>54</v>
       </c>
@@ -9677,14 +11547,20 @@
       <c r="O61" s="8" t="s">
         <v>1535</v>
       </c>
-      <c r="P61" s="12" t="s">
+      <c r="P61" t="s">
         <v>1674</v>
       </c>
-      <c r="Q61" s="15" t="s">
+      <c r="Q61" s="8" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R61" s="13" t="s">
+        <v>1915</v>
+      </c>
+      <c r="S61" s="12" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>54</v>
       </c>
@@ -9730,14 +11606,20 @@
       <c r="O62" s="8" t="s">
         <v>1536</v>
       </c>
-      <c r="P62" s="12" t="s">
+      <c r="P62" t="s">
         <v>1675</v>
       </c>
-      <c r="Q62" s="15" t="s">
+      <c r="Q62" s="8" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R62" s="13" t="s">
+        <v>1917</v>
+      </c>
+      <c r="S62" s="12" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>54</v>
       </c>
@@ -9783,14 +11665,20 @@
       <c r="O63" s="8" t="s">
         <v>1537</v>
       </c>
-      <c r="P63" s="12" t="s">
+      <c r="P63" t="s">
         <v>1676</v>
       </c>
-      <c r="Q63" s="15" t="s">
+      <c r="Q63" s="8" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R63" s="13" t="s">
+        <v>1919</v>
+      </c>
+      <c r="S63" s="12" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -9836,14 +11724,20 @@
       <c r="O64" s="8" t="s">
         <v>1538</v>
       </c>
-      <c r="P64" s="12" t="s">
+      <c r="P64" t="s">
         <v>1677</v>
       </c>
-      <c r="Q64" s="15" t="s">
+      <c r="Q64" s="8" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R64" s="13" t="s">
+        <v>1921</v>
+      </c>
+      <c r="S64" s="12" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>54</v>
       </c>
@@ -9889,14 +11783,20 @@
       <c r="O65" s="8" t="s">
         <v>1539</v>
       </c>
-      <c r="P65" s="12" t="s">
+      <c r="P65" t="s">
         <v>1678</v>
       </c>
-      <c r="Q65" s="15" t="s">
+      <c r="Q65" s="8" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R65" s="13" t="s">
+        <v>1923</v>
+      </c>
+      <c r="S65" s="12" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>54</v>
       </c>
@@ -9942,14 +11842,20 @@
       <c r="O66" s="8" t="s">
         <v>1540</v>
       </c>
-      <c r="P66" s="12" t="s">
+      <c r="P66" t="s">
         <v>1679</v>
       </c>
-      <c r="Q66" s="15" t="s">
+      <c r="Q66" s="8" t="s">
         <v>1775</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R66" s="13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="S66" s="12" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>54</v>
       </c>
@@ -9995,14 +11901,20 @@
       <c r="O67" s="8" t="s">
         <v>1541</v>
       </c>
-      <c r="P67" s="12" t="s">
+      <c r="P67" t="s">
         <v>1680</v>
       </c>
-      <c r="Q67" s="15" t="s">
+      <c r="Q67" s="8" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R67" s="13" t="s">
+        <v>1927</v>
+      </c>
+      <c r="S67" s="12" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>54</v>
       </c>
@@ -10048,14 +11960,20 @@
       <c r="O68" s="8" t="s">
         <v>1542</v>
       </c>
-      <c r="P68" s="12" t="s">
+      <c r="P68" t="s">
         <v>1681</v>
       </c>
-      <c r="Q68" s="15" t="s">
+      <c r="Q68" s="8" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R68" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>54</v>
       </c>
@@ -10101,14 +12019,20 @@
       <c r="O69" s="8" t="s">
         <v>1543</v>
       </c>
-      <c r="P69" s="12" t="s">
+      <c r="P69" t="s">
         <v>1682</v>
       </c>
-      <c r="Q69" s="15" t="s">
+      <c r="Q69" s="8" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R69" s="13" t="s">
+        <v>1931</v>
+      </c>
+      <c r="S69" s="12" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>54</v>
       </c>
@@ -10154,14 +12078,20 @@
       <c r="O70" s="8" t="s">
         <v>1544</v>
       </c>
-      <c r="P70" s="12" t="s">
+      <c r="P70" t="s">
         <v>1683</v>
       </c>
-      <c r="Q70" s="15" t="s">
+      <c r="Q70" s="8" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R70" s="13" t="s">
+        <v>1933</v>
+      </c>
+      <c r="S70" s="12" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>54</v>
       </c>
@@ -10207,14 +12137,20 @@
       <c r="O71" s="8" t="s">
         <v>1545</v>
       </c>
-      <c r="P71" s="12" t="s">
+      <c r="P71" t="s">
         <v>1684</v>
       </c>
-      <c r="Q71" s="15" t="s">
+      <c r="Q71" s="8" t="s">
         <v>1780</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R71" s="13" t="s">
+        <v>1935</v>
+      </c>
+      <c r="S71" s="12" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>54</v>
       </c>
@@ -10260,14 +12196,20 @@
       <c r="O72" s="8" t="s">
         <v>1546</v>
       </c>
-      <c r="P72" s="12" t="s">
+      <c r="P72" t="s">
         <v>1685</v>
       </c>
-      <c r="Q72" s="15" t="s">
+      <c r="Q72" s="8" t="s">
         <v>1781</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R72" s="13" t="s">
+        <v>1937</v>
+      </c>
+      <c r="S72" s="12" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>54</v>
       </c>
@@ -10313,14 +12255,20 @@
       <c r="O73" s="8" t="s">
         <v>1547</v>
       </c>
-      <c r="P73" s="12" t="s">
+      <c r="P73" t="s">
         <v>1686</v>
       </c>
-      <c r="Q73" s="15" t="s">
+      <c r="Q73" s="8" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R73" s="13" t="s">
+        <v>1939</v>
+      </c>
+      <c r="S73" s="12" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>54</v>
       </c>
@@ -10366,14 +12314,20 @@
       <c r="O74" s="8" t="s">
         <v>1548</v>
       </c>
-      <c r="P74" s="12" t="s">
+      <c r="P74" t="s">
         <v>1687</v>
       </c>
-      <c r="Q74" s="15" t="s">
+      <c r="Q74" s="8" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R74" s="13" t="s">
+        <v>1941</v>
+      </c>
+      <c r="S74" s="12" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>54</v>
       </c>
@@ -10419,14 +12373,20 @@
       <c r="O75" s="8" t="s">
         <v>1549</v>
       </c>
-      <c r="P75" s="12" t="s">
+      <c r="P75" t="s">
         <v>1688</v>
       </c>
-      <c r="Q75" s="15" t="s">
+      <c r="Q75" s="8" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R75" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="S75" s="12" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>54</v>
       </c>
@@ -10472,14 +12432,20 @@
       <c r="O76" s="8" t="s">
         <v>1550</v>
       </c>
-      <c r="P76" s="12" t="s">
+      <c r="P76" t="s">
         <v>1689</v>
       </c>
-      <c r="Q76" s="15" t="s">
+      <c r="Q76" s="8" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R76" s="13" t="s">
+        <v>1945</v>
+      </c>
+      <c r="S76" s="12" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>54</v>
       </c>
@@ -10525,14 +12491,20 @@
       <c r="O77" s="8" t="s">
         <v>1551</v>
       </c>
-      <c r="P77" s="12" t="s">
+      <c r="P77" t="s">
         <v>1690</v>
       </c>
-      <c r="Q77" s="15" t="s">
+      <c r="Q77" s="8" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R77" s="14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="S77" s="12" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>54</v>
       </c>
@@ -10578,14 +12550,20 @@
       <c r="O78" s="8" t="s">
         <v>1552</v>
       </c>
-      <c r="P78" s="12" t="s">
+      <c r="P78" t="s">
         <v>1691</v>
       </c>
-      <c r="Q78" s="15" t="s">
+      <c r="Q78" s="8" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R78" s="13" t="s">
+        <v>1949</v>
+      </c>
+      <c r="S78" s="12" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>54</v>
       </c>
@@ -10631,14 +12609,20 @@
       <c r="O79" s="8" t="s">
         <v>1553</v>
       </c>
-      <c r="P79" s="12" t="s">
+      <c r="P79" t="s">
         <v>1692</v>
       </c>
-      <c r="Q79" s="15" t="s">
+      <c r="Q79" s="8" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R79" s="13" t="s">
+        <v>1951</v>
+      </c>
+      <c r="S79" s="12" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>54</v>
       </c>
@@ -10684,14 +12668,20 @@
       <c r="O80" s="8" t="s">
         <v>1554</v>
       </c>
-      <c r="P80" s="12" t="s">
+      <c r="P80" t="s">
         <v>1693</v>
       </c>
-      <c r="Q80" s="15" t="s">
+      <c r="Q80" s="8" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R80" s="13" t="s">
+        <v>1953</v>
+      </c>
+      <c r="S80" s="12" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>54</v>
       </c>
@@ -10737,14 +12727,20 @@
       <c r="O81" s="8" t="s">
         <v>1555</v>
       </c>
-      <c r="P81" s="12" t="s">
+      <c r="P81" t="s">
         <v>1694</v>
       </c>
-      <c r="Q81" s="15" t="s">
+      <c r="Q81" s="8" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R81" s="13" t="s">
+        <v>1955</v>
+      </c>
+      <c r="S81" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>54</v>
       </c>
@@ -10790,14 +12786,20 @@
       <c r="O82" s="8" t="s">
         <v>1556</v>
       </c>
-      <c r="P82" s="12" t="s">
+      <c r="P82" t="s">
         <v>1695</v>
       </c>
-      <c r="Q82" s="15" t="s">
+      <c r="Q82" s="8" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R82" s="13" t="s">
+        <v>1957</v>
+      </c>
+      <c r="S82" s="12" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B83" s="3">
         <v>2</v>
       </c>
@@ -10834,8 +12836,12 @@
       <c r="P83" s="8" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R83" s="13" t="s">
+        <v>2143</v>
+      </c>
+      <c r="S83" s="18"/>
+    </row>
+    <row r="84" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>54</v>
       </c>
@@ -10881,14 +12887,20 @@
       <c r="O84" s="8" t="s">
         <v>1557</v>
       </c>
-      <c r="P84" s="13" t="s">
+      <c r="P84" t="s">
         <v>1697</v>
       </c>
-      <c r="Q84" s="15" t="s">
+      <c r="Q84" s="8" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R84" s="13" t="s">
+        <v>1959</v>
+      </c>
+      <c r="S84" s="12" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>54</v>
       </c>
@@ -10934,14 +12946,20 @@
       <c r="O85" s="8" t="s">
         <v>1558</v>
       </c>
-      <c r="P85" s="13" t="s">
+      <c r="P85" t="s">
         <v>1698</v>
       </c>
-      <c r="Q85" s="15" t="s">
+      <c r="Q85" s="8" t="s">
         <v>1793</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R85" s="13" t="s">
+        <v>1961</v>
+      </c>
+      <c r="S85" s="12" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>54</v>
       </c>
@@ -10987,14 +13005,20 @@
       <c r="O86" s="8" t="s">
         <v>1559</v>
       </c>
-      <c r="P86" s="13" t="s">
+      <c r="P86" t="s">
         <v>1699</v>
       </c>
-      <c r="Q86" s="15" t="s">
+      <c r="Q86" s="8" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R86" s="13" t="s">
+        <v>1963</v>
+      </c>
+      <c r="S86" s="12" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>54</v>
       </c>
@@ -11040,14 +13064,20 @@
       <c r="O87" s="8" t="s">
         <v>1560</v>
       </c>
-      <c r="P87" s="13" t="s">
+      <c r="P87" t="s">
         <v>1700</v>
       </c>
-      <c r="Q87" s="15" t="s">
+      <c r="Q87" s="8" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R87" s="13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="S87" s="12" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>54</v>
       </c>
@@ -11093,14 +13123,20 @@
       <c r="O88" s="8" t="s">
         <v>1561</v>
       </c>
-      <c r="P88" s="13" t="s">
+      <c r="P88" t="s">
         <v>1701</v>
       </c>
-      <c r="Q88" s="15" t="s">
+      <c r="Q88" s="8" t="s">
         <v>1796</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R88" s="13" t="s">
+        <v>1967</v>
+      </c>
+      <c r="S88" s="12" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>54</v>
       </c>
@@ -11146,14 +13182,20 @@
       <c r="O89" s="8" t="s">
         <v>1562</v>
       </c>
-      <c r="P89" s="13" t="s">
+      <c r="P89" t="s">
         <v>1702</v>
       </c>
-      <c r="Q89" s="15" t="s">
+      <c r="Q89" s="8" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R89" s="13" t="s">
+        <v>1969</v>
+      </c>
+      <c r="S89" s="12" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>54</v>
       </c>
@@ -11199,14 +13241,20 @@
       <c r="O90" s="8" t="s">
         <v>1563</v>
       </c>
-      <c r="P90" s="13" t="s">
+      <c r="P90" t="s">
         <v>1703</v>
       </c>
-      <c r="Q90" s="15" t="s">
+      <c r="Q90" s="8" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R90" s="13" t="s">
+        <v>1971</v>
+      </c>
+      <c r="S90" s="12" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>54</v>
       </c>
@@ -11252,14 +13300,20 @@
       <c r="O91" s="8" t="s">
         <v>1564</v>
       </c>
-      <c r="P91" s="13" t="s">
+      <c r="P91" t="s">
         <v>1704</v>
       </c>
-      <c r="Q91" s="15" t="s">
+      <c r="Q91" s="8" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R91" s="13" t="s">
+        <v>1973</v>
+      </c>
+      <c r="S91" s="12" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B92" s="3">
         <v>2</v>
       </c>
@@ -11296,8 +13350,12 @@
       <c r="P92" s="8" t="s">
         <v>1705</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R92" s="13" t="s">
+        <v>2144</v>
+      </c>
+      <c r="S92" s="18"/>
+    </row>
+    <row r="93" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>54</v>
       </c>
@@ -11343,14 +13401,20 @@
       <c r="O93" s="8" t="s">
         <v>1565</v>
       </c>
-      <c r="P93" s="14" t="s">
+      <c r="P93" t="s">
         <v>1706</v>
       </c>
-      <c r="Q93" s="15" t="s">
+      <c r="Q93" s="8" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R93" s="15" t="s">
+        <v>1975</v>
+      </c>
+      <c r="S93" s="15" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>54</v>
       </c>
@@ -11396,14 +13460,20 @@
       <c r="O94" s="8" t="s">
         <v>1566</v>
       </c>
-      <c r="P94" s="14" t="s">
+      <c r="P94" t="s">
         <v>1707</v>
       </c>
-      <c r="Q94" s="15" t="s">
+      <c r="Q94" s="8" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R94" s="15" t="s">
+        <v>1977</v>
+      </c>
+      <c r="S94" s="15" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>54</v>
       </c>
@@ -11449,14 +13519,20 @@
       <c r="O95" s="8" t="s">
         <v>1567</v>
       </c>
-      <c r="P95" s="14" t="s">
+      <c r="P95" t="s">
         <v>1708</v>
       </c>
-      <c r="Q95" s="15" t="s">
+      <c r="Q95" s="8" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R95" s="15" t="s">
+        <v>1979</v>
+      </c>
+      <c r="S95" s="15" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>54</v>
       </c>
@@ -11502,14 +13578,20 @@
       <c r="O96" s="8" t="s">
         <v>1568</v>
       </c>
-      <c r="P96" s="14" t="s">
+      <c r="P96" t="s">
         <v>1709</v>
       </c>
-      <c r="Q96" s="15" t="s">
+      <c r="Q96" s="8" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R96" s="15" t="s">
+        <v>1981</v>
+      </c>
+      <c r="S96" s="15" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>54</v>
       </c>
@@ -11555,14 +13637,20 @@
       <c r="O97" s="8" t="s">
         <v>1569</v>
       </c>
-      <c r="P97" s="14" t="s">
+      <c r="P97" t="s">
         <v>1710</v>
       </c>
-      <c r="Q97" s="15" t="s">
+      <c r="Q97" s="8" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R97" s="15" t="s">
+        <v>1983</v>
+      </c>
+      <c r="S97" s="15" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>54</v>
       </c>
@@ -11608,14 +13696,20 @@
       <c r="O98" s="8" t="s">
         <v>1570</v>
       </c>
-      <c r="P98" s="14" t="s">
+      <c r="P98" t="s">
         <v>1711</v>
       </c>
-      <c r="Q98" s="15" t="s">
+      <c r="Q98" s="8" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R98" s="15" t="s">
+        <v>1985</v>
+      </c>
+      <c r="S98" s="15" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>54</v>
       </c>
@@ -11661,14 +13755,20 @@
       <c r="O99" s="8" t="s">
         <v>1571</v>
       </c>
-      <c r="P99" s="14" t="s">
+      <c r="P99" t="s">
         <v>1712</v>
       </c>
-      <c r="Q99" s="15" t="s">
+      <c r="Q99" s="8" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R99" s="15" t="s">
+        <v>1987</v>
+      </c>
+      <c r="S99" s="15" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>54</v>
       </c>
@@ -11714,14 +13814,20 @@
       <c r="O100" s="8" t="s">
         <v>1572</v>
       </c>
-      <c r="P100" s="14" t="s">
+      <c r="P100" t="s">
         <v>1713</v>
       </c>
-      <c r="Q100" s="15" t="s">
+      <c r="Q100" s="8" t="s">
         <v>1807</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R100" s="15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="S100" s="15" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>54</v>
       </c>
@@ -11767,14 +13873,20 @@
       <c r="O101" s="8" t="s">
         <v>1573</v>
       </c>
-      <c r="P101" s="14" t="s">
+      <c r="P101" t="s">
         <v>1714</v>
       </c>
-      <c r="Q101" s="15" t="s">
+      <c r="Q101" s="8" t="s">
         <v>1808</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R101" s="15" t="s">
+        <v>1991</v>
+      </c>
+      <c r="S101" s="15" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>54</v>
       </c>
@@ -11820,14 +13932,20 @@
       <c r="O102" s="8" t="s">
         <v>1574</v>
       </c>
-      <c r="P102" s="14" t="s">
+      <c r="P102" t="s">
         <v>1715</v>
       </c>
-      <c r="Q102" s="15" t="s">
+      <c r="Q102" s="8" t="s">
         <v>1809</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R102" s="15" t="s">
+        <v>1993</v>
+      </c>
+      <c r="S102" s="15" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>54</v>
       </c>
@@ -11873,14 +13991,20 @@
       <c r="O103" s="8" t="s">
         <v>1575</v>
       </c>
-      <c r="P103" s="14" t="s">
+      <c r="P103" t="s">
         <v>1716</v>
       </c>
-      <c r="Q103" s="15" t="s">
+      <c r="Q103" s="8" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R103" s="15" t="s">
+        <v>1995</v>
+      </c>
+      <c r="S103" s="15" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>54</v>
       </c>
@@ -11926,14 +14050,20 @@
       <c r="O104" s="8" t="s">
         <v>1576</v>
       </c>
-      <c r="P104" s="14" t="s">
+      <c r="P104" t="s">
         <v>1717</v>
       </c>
-      <c r="Q104" s="15" t="s">
+      <c r="Q104" s="8" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R104" s="15" t="s">
+        <v>1997</v>
+      </c>
+      <c r="S104" s="15" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>54</v>
       </c>
@@ -11979,14 +14109,20 @@
       <c r="O105" s="8" t="s">
         <v>1577</v>
       </c>
-      <c r="P105" s="14" t="s">
+      <c r="P105" t="s">
         <v>1718</v>
       </c>
-      <c r="Q105" s="15" t="s">
+      <c r="Q105" s="8" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R105" s="15" t="s">
+        <v>1999</v>
+      </c>
+      <c r="S105" s="15" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>54</v>
       </c>
@@ -12032,14 +14168,20 @@
       <c r="O106" s="8" t="s">
         <v>1578</v>
       </c>
-      <c r="P106" s="14" t="s">
+      <c r="P106" t="s">
         <v>1719</v>
       </c>
-      <c r="Q106" s="15" t="s">
+      <c r="Q106" s="8" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R106" s="15" t="s">
+        <v>2001</v>
+      </c>
+      <c r="S106" s="15" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B107" s="3">
         <v>2</v>
       </c>
@@ -12076,8 +14218,11 @@
       <c r="P107" s="8" t="s">
         <v>1720</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R107" s="19" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>54</v>
       </c>
@@ -12123,14 +14268,20 @@
       <c r="O108" s="8" t="s">
         <v>1579</v>
       </c>
-      <c r="P108" s="15" t="s">
+      <c r="P108" t="s">
         <v>1721</v>
       </c>
-      <c r="Q108" s="15" t="s">
+      <c r="Q108" s="8" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="R108" s="15" t="s">
+        <v>2003</v>
+      </c>
+      <c r="S108" s="15" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>54</v>
       </c>
@@ -12176,14 +14327,20 @@
       <c r="O109" s="8" t="s">
         <v>1580</v>
       </c>
-      <c r="P109" s="15" t="s">
+      <c r="P109" t="s">
         <v>1722</v>
       </c>
-      <c r="Q109" s="15" t="s">
+      <c r="Q109" s="8" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R109" s="15" t="s">
+        <v>2005</v>
+      </c>
+      <c r="S109" s="15" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>54</v>
       </c>
@@ -12229,14 +14386,20 @@
       <c r="O110" s="8" t="s">
         <v>1581</v>
       </c>
-      <c r="P110" s="15" t="s">
+      <c r="P110" t="s">
         <v>1723</v>
       </c>
-      <c r="Q110" s="15" t="s">
+      <c r="Q110" s="8" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R110" s="15" t="s">
+        <v>2007</v>
+      </c>
+      <c r="S110" s="15" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>54</v>
       </c>
@@ -12282,14 +14445,20 @@
       <c r="O111" s="8" t="s">
         <v>1582</v>
       </c>
-      <c r="P111" s="15" t="s">
+      <c r="P111" t="s">
         <v>1724</v>
       </c>
-      <c r="Q111" s="15" t="s">
+      <c r="Q111" s="8" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R111" s="15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="S111" s="15" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>54</v>
       </c>
@@ -12335,14 +14504,20 @@
       <c r="O112" s="8" t="s">
         <v>1583</v>
       </c>
-      <c r="P112" s="15" t="s">
+      <c r="P112" t="s">
         <v>1725</v>
       </c>
-      <c r="Q112" s="15" t="s">
+      <c r="Q112" s="8" t="s">
         <v>1818</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R112" s="15" t="s">
+        <v>2011</v>
+      </c>
+      <c r="S112" s="15" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>54</v>
       </c>
@@ -12388,14 +14563,20 @@
       <c r="O113" s="8" t="s">
         <v>1584</v>
       </c>
-      <c r="P113" s="15" t="s">
+      <c r="P113" t="s">
         <v>1726</v>
       </c>
-      <c r="Q113" s="15" t="s">
+      <c r="Q113" s="8" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R113" s="15" t="s">
+        <v>2013</v>
+      </c>
+      <c r="S113" s="15" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>54</v>
       </c>
@@ -12441,14 +14622,20 @@
       <c r="O114" s="8" t="s">
         <v>1585</v>
       </c>
-      <c r="P114" s="15" t="s">
+      <c r="P114" t="s">
         <v>1727</v>
       </c>
-      <c r="Q114" s="15" t="s">
+      <c r="Q114" s="8" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R114" s="15" t="s">
+        <v>2015</v>
+      </c>
+      <c r="S114" s="15" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>54</v>
       </c>
@@ -12494,14 +14681,20 @@
       <c r="O115" s="8" t="s">
         <v>1586</v>
       </c>
-      <c r="P115" s="15" t="s">
+      <c r="P115" t="s">
         <v>1728</v>
       </c>
-      <c r="Q115" s="15" t="s">
+      <c r="Q115" s="8" t="s">
         <v>1821</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R115" s="15" t="s">
+        <v>2017</v>
+      </c>
+      <c r="S115" s="15" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>54</v>
       </c>
@@ -12547,14 +14740,20 @@
       <c r="O116" s="8" t="s">
         <v>1587</v>
       </c>
-      <c r="P116" s="15" t="s">
+      <c r="P116" t="s">
         <v>1729</v>
       </c>
-      <c r="Q116" s="15" t="s">
+      <c r="Q116" s="8" t="s">
         <v>1822</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R116" s="15" t="s">
+        <v>2019</v>
+      </c>
+      <c r="S116" s="15" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>54</v>
       </c>
@@ -12600,14 +14799,20 @@
       <c r="O117" s="8" t="s">
         <v>1588</v>
       </c>
-      <c r="P117" s="15" t="s">
+      <c r="P117" t="s">
         <v>1730</v>
       </c>
-      <c r="Q117" s="15" t="s">
+      <c r="Q117" s="8" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R117" s="15" t="s">
+        <v>2021</v>
+      </c>
+      <c r="S117" s="15" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>54</v>
       </c>
@@ -12653,14 +14858,20 @@
       <c r="O118" s="8" t="s">
         <v>1589</v>
       </c>
-      <c r="P118" s="15" t="s">
+      <c r="P118" t="s">
         <v>1731</v>
       </c>
-      <c r="Q118" s="15" t="s">
+      <c r="Q118" s="8" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R118" s="15" t="s">
+        <v>2023</v>
+      </c>
+      <c r="S118" s="15" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>54</v>
       </c>
@@ -12706,14 +14917,20 @@
       <c r="O119" s="8" t="s">
         <v>1590</v>
       </c>
-      <c r="P119" s="15" t="s">
+      <c r="P119" t="s">
         <v>1732</v>
       </c>
-      <c r="Q119" s="15" t="s">
+      <c r="Q119" s="8" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R119" s="15" t="s">
+        <v>2025</v>
+      </c>
+      <c r="S119" s="15" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>54</v>
       </c>
@@ -12759,14 +14976,20 @@
       <c r="O120" s="8" t="s">
         <v>1591</v>
       </c>
-      <c r="P120" s="15" t="s">
+      <c r="P120" t="s">
         <v>1733</v>
       </c>
-      <c r="Q120" s="15" t="s">
+      <c r="Q120" s="8" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="R120" s="15" t="s">
+        <v>2027</v>
+      </c>
+      <c r="S120" s="15" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>54</v>
       </c>
@@ -12812,14 +15035,20 @@
       <c r="O121" s="8" t="s">
         <v>1592</v>
       </c>
-      <c r="P121" s="15" t="s">
+      <c r="P121" t="s">
         <v>1734</v>
       </c>
-      <c r="Q121" s="15" t="s">
+      <c r="Q121" s="8" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R121" s="15" t="s">
+        <v>2029</v>
+      </c>
+      <c r="S121" s="15" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>54</v>
       </c>
@@ -12865,14 +15094,20 @@
       <c r="O122" s="8" t="s">
         <v>1593</v>
       </c>
-      <c r="P122" s="15" t="s">
+      <c r="P122" t="s">
         <v>1735</v>
       </c>
-      <c r="Q122" s="15" t="s">
+      <c r="Q122" s="8" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R122" s="15" t="s">
+        <v>2031</v>
+      </c>
+      <c r="S122" s="15" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>54</v>
       </c>
@@ -12918,14 +15153,20 @@
       <c r="O123" s="8" t="s">
         <v>1594</v>
       </c>
-      <c r="P123" s="15" t="s">
+      <c r="P123" t="s">
         <v>1736</v>
       </c>
-      <c r="Q123" s="15" t="s">
+      <c r="Q123" s="8" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R123" s="15" t="s">
+        <v>2033</v>
+      </c>
+      <c r="S123" s="15" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>54</v>
       </c>
@@ -12971,14 +15212,20 @@
       <c r="O124" s="8" t="s">
         <v>1595</v>
       </c>
-      <c r="P124" s="15" t="s">
+      <c r="P124" t="s">
         <v>1737</v>
       </c>
-      <c r="Q124" s="15" t="s">
+      <c r="Q124" s="8" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R124" s="15" t="s">
+        <v>2035</v>
+      </c>
+      <c r="S124" s="15" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>54</v>
       </c>
@@ -13024,14 +15271,20 @@
       <c r="O125" s="8" t="s">
         <v>1596</v>
       </c>
-      <c r="P125" s="15" t="s">
+      <c r="P125" t="s">
         <v>1738</v>
       </c>
-      <c r="Q125" s="15" t="s">
+      <c r="Q125" s="8" t="s">
         <v>1831</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R125" s="15" t="s">
+        <v>2037</v>
+      </c>
+      <c r="S125" s="15" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>54</v>
       </c>
@@ -13077,14 +15330,20 @@
       <c r="O126" s="8" t="s">
         <v>1597</v>
       </c>
-      <c r="P126" s="15" t="s">
+      <c r="P126" t="s">
         <v>1739</v>
       </c>
-      <c r="Q126" s="15" t="s">
+      <c r="Q126" s="8" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="R126" s="15" t="s">
+        <v>2039</v>
+      </c>
+      <c r="S126" s="15" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>54</v>
       </c>
@@ -13130,14 +15389,20 @@
       <c r="O127" s="8" t="s">
         <v>1598</v>
       </c>
-      <c r="P127" s="15" t="s">
+      <c r="P127" t="s">
         <v>1740</v>
       </c>
-      <c r="Q127" s="15" t="s">
+      <c r="Q127" s="8" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R127" s="15" t="s">
+        <v>2041</v>
+      </c>
+      <c r="S127" s="15" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>54</v>
       </c>
@@ -13183,14 +15448,20 @@
       <c r="O128" s="8" t="s">
         <v>1599</v>
       </c>
-      <c r="P128" s="15" t="s">
+      <c r="P128" t="s">
         <v>1741</v>
       </c>
-      <c r="Q128" s="15" t="s">
+      <c r="Q128" s="8" t="s">
         <v>1834</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R128" s="15" t="s">
+        <v>2043</v>
+      </c>
+      <c r="S128" s="15" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>54</v>
       </c>
@@ -13236,14 +15507,20 @@
       <c r="O129" s="8" t="s">
         <v>1600</v>
       </c>
-      <c r="P129" s="15" t="s">
+      <c r="P129" t="s">
         <v>1742</v>
       </c>
-      <c r="Q129" s="15" t="s">
+      <c r="Q129" s="8" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R129" s="15" t="s">
+        <v>2045</v>
+      </c>
+      <c r="S129" s="15" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>54</v>
       </c>
@@ -13289,14 +15566,20 @@
       <c r="O130" s="8" t="s">
         <v>1601</v>
       </c>
-      <c r="P130" s="15" t="s">
+      <c r="P130" t="s">
         <v>1743</v>
       </c>
-      <c r="Q130" s="15" t="s">
+      <c r="Q130" s="8" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R130" s="15" t="s">
+        <v>2047</v>
+      </c>
+      <c r="S130" s="15" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>54</v>
       </c>
@@ -13342,14 +15625,20 @@
       <c r="O131" s="8" t="s">
         <v>1602</v>
       </c>
-      <c r="P131" s="15" t="s">
+      <c r="P131" t="s">
         <v>1744</v>
       </c>
-      <c r="Q131" s="15" t="s">
+      <c r="Q131" s="8" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R131" s="15" t="s">
+        <v>2049</v>
+      </c>
+      <c r="S131" s="15" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>54</v>
       </c>
@@ -13395,14 +15684,20 @@
       <c r="O132" s="8" t="s">
         <v>1603</v>
       </c>
-      <c r="P132" s="15" t="s">
+      <c r="P132" t="s">
         <v>1745</v>
       </c>
-      <c r="Q132" s="15" t="s">
+      <c r="Q132" s="8" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R132" s="15" t="s">
+        <v>2051</v>
+      </c>
+      <c r="S132" s="15" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>54</v>
       </c>
@@ -13448,14 +15743,20 @@
       <c r="O133" s="8" t="s">
         <v>1604</v>
       </c>
-      <c r="P133" s="15" t="s">
+      <c r="P133" t="s">
         <v>1746</v>
       </c>
-      <c r="Q133" s="15" t="s">
+      <c r="Q133" s="8" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R133" s="15" t="s">
+        <v>2053</v>
+      </c>
+      <c r="S133" s="15" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>54</v>
       </c>
@@ -13501,14 +15802,20 @@
       <c r="O134" s="8" t="s">
         <v>1605</v>
       </c>
-      <c r="P134" s="15" t="s">
+      <c r="P134" t="s">
         <v>1747</v>
       </c>
-      <c r="Q134" s="15" t="s">
+      <c r="Q134" s="8" t="s">
         <v>1840</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R134" s="15" t="s">
+        <v>2055</v>
+      </c>
+      <c r="S134" s="15" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>54</v>
       </c>
@@ -13554,14 +15861,20 @@
       <c r="O135" s="8" t="s">
         <v>1606</v>
       </c>
-      <c r="P135" s="15" t="s">
+      <c r="P135" t="s">
         <v>1748</v>
       </c>
-      <c r="Q135" s="15" t="s">
+      <c r="Q135" s="8" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R135" s="15" t="s">
+        <v>2057</v>
+      </c>
+      <c r="S135" s="15" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>54</v>
       </c>
@@ -13607,14 +15920,20 @@
       <c r="O136" s="8" t="s">
         <v>1607</v>
       </c>
-      <c r="P136" s="15" t="s">
+      <c r="P136" t="s">
         <v>1749</v>
       </c>
-      <c r="Q136" s="15" t="s">
+      <c r="Q136" s="8" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R136" s="15" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S136" s="15" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>54</v>
       </c>
@@ -13660,14 +15979,20 @@
       <c r="O137" s="8" t="s">
         <v>1608</v>
       </c>
-      <c r="P137" s="15" t="s">
+      <c r="P137" t="s">
         <v>1750</v>
       </c>
-      <c r="Q137" s="15" t="s">
+      <c r="Q137" s="8" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R137" s="15" t="s">
+        <v>2061</v>
+      </c>
+      <c r="S137" s="15" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>54</v>
       </c>
@@ -13713,14 +16038,20 @@
       <c r="O138" s="8" t="s">
         <v>1609</v>
       </c>
-      <c r="P138" s="15" t="s">
+      <c r="P138" t="s">
         <v>1751</v>
       </c>
-      <c r="Q138" s="15" t="s">
+      <c r="Q138" s="8" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R138" s="15" t="s">
+        <v>2063</v>
+      </c>
+      <c r="S138" s="15" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>54</v>
       </c>
@@ -13766,14 +16097,20 @@
       <c r="O139" s="8" t="s">
         <v>1610</v>
       </c>
-      <c r="P139" s="15" t="s">
+      <c r="P139" t="s">
         <v>1752</v>
       </c>
-      <c r="Q139" s="15" t="s">
+      <c r="Q139" s="8" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="R139" s="15" t="s">
+        <v>2065</v>
+      </c>
+      <c r="S139" s="15" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>54</v>
       </c>
@@ -13819,14 +16156,20 @@
       <c r="O140" s="8" t="s">
         <v>1611</v>
       </c>
-      <c r="P140" s="15" t="s">
+      <c r="P140" t="s">
         <v>1753</v>
       </c>
-      <c r="Q140" s="15" t="s">
+      <c r="Q140" s="8" t="s">
         <v>1846</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="R140" s="15" t="s">
+        <v>2067</v>
+      </c>
+      <c r="S140" s="15" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>54</v>
       </c>
@@ -13872,32 +16215,38 @@
       <c r="O141" s="8" t="s">
         <v>1612</v>
       </c>
-      <c r="P141" s="15" t="s">
+      <c r="P141" t="s">
         <v>1754</v>
       </c>
-      <c r="Q141" s="15" t="s">
+      <c r="Q141" s="8" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R141" s="15" t="s">
+        <v>2069</v>
+      </c>
+      <c r="S141" s="15" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="F142" s="3"/>
       <c r="I142" s="3"/>
       <c r="K142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="F143" s="3"/>
       <c r="I143" s="3"/>
       <c r="K143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="I144" s="3"/>
       <c r="K144" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K141" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
@@ -13917,9 +16266,9 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13927,7 +16276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -13942,31 +16291,33 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
+    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O47" sqref="O47:P94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" customWidth="1"/>
-    <col min="8" max="8" width="47.7109375" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="51.28515625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="51.28515625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="51.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="46.1640625" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" customWidth="1"/>
+    <col min="8" max="8" width="47.6640625" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="51.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="51.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="51.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="32" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74.6640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -14009,8 +16360,14 @@
       <c r="N1" s="1" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O1" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>314</v>
       </c>
@@ -14050,11 +16407,17 @@
       <c r="M2" s="8" t="s">
         <v>1659</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O2" s="15" t="s">
+        <v>1885</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>322</v>
       </c>
@@ -14094,11 +16457,17 @@
       <c r="M3" s="8" t="s">
         <v>1660</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O3" s="15" t="s">
+        <v>1887</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>330</v>
       </c>
@@ -14138,11 +16507,17 @@
       <c r="M4" s="8" t="s">
         <v>1661</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O4" s="15" t="s">
+        <v>1889</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="255" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>338</v>
       </c>
@@ -14182,11 +16557,17 @@
       <c r="M5" s="8" t="s">
         <v>1662</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O5" s="15" t="s">
+        <v>1891</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="306" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>346</v>
       </c>
@@ -14226,11 +16607,17 @@
       <c r="M6" s="8" t="s">
         <v>1663</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O6" s="15" t="s">
+        <v>1893</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>354</v>
       </c>
@@ -14267,14 +16654,20 @@
       <c r="L7" s="8" t="s">
         <v>1525</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" t="s">
         <v>1664</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" t="s">
         <v>1760</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O7" s="15" t="s">
+        <v>1895</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="306" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>362</v>
       </c>
@@ -14311,14 +16704,20 @@
       <c r="L8" s="8" t="s">
         <v>1526</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" t="s">
         <v>1665</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O8" s="15" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>370</v>
       </c>
@@ -14355,14 +16754,20 @@
       <c r="L9" s="8" t="s">
         <v>1527</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" t="s">
         <v>1666</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O9" s="15" t="s">
+        <v>1899</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="238" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>378</v>
       </c>
@@ -14399,14 +16804,20 @@
       <c r="L10" s="8" t="s">
         <v>1528</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" t="s">
         <v>1667</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O10" s="15" t="s">
+        <v>1901</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>386</v>
       </c>
@@ -14443,14 +16854,20 @@
       <c r="L11" s="8" t="s">
         <v>1529</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" t="s">
         <v>1668</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O11" s="15" t="s">
+        <v>1903</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>394</v>
       </c>
@@ -14487,14 +16904,20 @@
       <c r="L12" s="8" t="s">
         <v>1530</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" t="s">
         <v>1669</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O12" s="15" t="s">
+        <v>1905</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>402</v>
       </c>
@@ -14531,14 +16954,20 @@
       <c r="L13" s="8" t="s">
         <v>1531</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" t="s">
         <v>1670</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O13" s="15" t="s">
+        <v>1907</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="255" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>410</v>
       </c>
@@ -14575,14 +17004,20 @@
       <c r="L14" s="8" t="s">
         <v>1532</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" t="s">
         <v>1671</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" t="s">
         <v>1767</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O14" s="15" t="s">
+        <v>1909</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="255" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>418</v>
       </c>
@@ -14619,14 +17054,20 @@
       <c r="L15" s="8" t="s">
         <v>1533</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" t="s">
         <v>1672</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O15" s="15" t="s">
+        <v>1911</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>426</v>
       </c>
@@ -14663,14 +17104,20 @@
       <c r="L16" s="8" t="s">
         <v>1534</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" t="s">
         <v>1673</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O16" s="15" t="s">
+        <v>1913</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>434</v>
       </c>
@@ -14707,14 +17154,20 @@
       <c r="L17" s="8" t="s">
         <v>1535</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" t="s">
         <v>1674</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O17" s="15" t="s">
+        <v>1915</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>442</v>
       </c>
@@ -14751,14 +17204,20 @@
       <c r="L18" s="8" t="s">
         <v>1536</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" t="s">
         <v>1675</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O18" s="15" t="s">
+        <v>1917</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>450</v>
       </c>
@@ -14795,14 +17254,20 @@
       <c r="L19" s="8" t="s">
         <v>1537</v>
       </c>
-      <c r="M19" s="15" t="s">
+      <c r="M19" t="s">
         <v>1676</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O19" s="15" t="s">
+        <v>1919</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="238" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>458</v>
       </c>
@@ -14839,14 +17304,20 @@
       <c r="L20" s="8" t="s">
         <v>1538</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" t="s">
         <v>1677</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O20" s="15" t="s">
+        <v>1921</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>466</v>
       </c>
@@ -14883,14 +17354,20 @@
       <c r="L21" s="8" t="s">
         <v>1539</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M21" t="s">
         <v>1678</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O21" s="15" t="s">
+        <v>1923</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>474</v>
       </c>
@@ -14927,14 +17404,20 @@
       <c r="L22" s="8" t="s">
         <v>1540</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" t="s">
         <v>1679</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" t="s">
         <v>1775</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O22" s="15" t="s">
+        <v>1925</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>482</v>
       </c>
@@ -14971,14 +17454,20 @@
       <c r="L23" s="8" t="s">
         <v>1541</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" t="s">
         <v>1680</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O23" s="15" t="s">
+        <v>1927</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>490</v>
       </c>
@@ -15015,14 +17504,20 @@
       <c r="L24" s="8" t="s">
         <v>1542</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M24" t="s">
         <v>1681</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O24" s="15" t="s">
+        <v>1929</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="255" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>498</v>
       </c>
@@ -15059,14 +17554,20 @@
       <c r="L25" s="8" t="s">
         <v>1543</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" t="s">
         <v>1682</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O25" s="15" t="s">
+        <v>1931</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>506</v>
       </c>
@@ -15103,14 +17604,20 @@
       <c r="L26" s="8" t="s">
         <v>1544</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" t="s">
         <v>1683</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O26" s="15" t="s">
+        <v>1933</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="306" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>514</v>
       </c>
@@ -15147,14 +17654,20 @@
       <c r="L27" s="8" t="s">
         <v>1545</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" t="s">
         <v>1684</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" t="s">
         <v>1780</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O27" s="15" t="s">
+        <v>1935</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="323" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>522</v>
       </c>
@@ -15191,14 +17704,20 @@
       <c r="L28" s="8" t="s">
         <v>1546</v>
       </c>
-      <c r="M28" s="15" t="s">
+      <c r="M28" t="s">
         <v>1685</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" t="s">
         <v>1781</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O28" s="15" t="s">
+        <v>1937</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>530</v>
       </c>
@@ -15235,14 +17754,20 @@
       <c r="L29" s="8" t="s">
         <v>1547</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="M29" t="s">
         <v>1686</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O29" s="15" t="s">
+        <v>1939</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>538</v>
       </c>
@@ -15279,14 +17804,20 @@
       <c r="L30" s="8" t="s">
         <v>1548</v>
       </c>
-      <c r="M30" s="15" t="s">
+      <c r="M30" t="s">
         <v>1687</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O30" s="15" t="s">
+        <v>1941</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="323" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>546</v>
       </c>
@@ -15323,14 +17854,20 @@
       <c r="L31" s="8" t="s">
         <v>1549</v>
       </c>
-      <c r="M31" s="15" t="s">
+      <c r="M31" t="s">
         <v>1688</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="N31" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O31" s="16" t="s">
+        <v>1943</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="255" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>554</v>
       </c>
@@ -15367,14 +17904,20 @@
       <c r="L32" s="8" t="s">
         <v>1550</v>
       </c>
-      <c r="M32" s="15" t="s">
+      <c r="M32" t="s">
         <v>1689</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O32" s="15" t="s">
+        <v>1945</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="255" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>562</v>
       </c>
@@ -15411,14 +17954,20 @@
       <c r="L33" s="8" t="s">
         <v>1551</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="M33" t="s">
         <v>1690</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O33" s="16" t="s">
+        <v>1947</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>570</v>
       </c>
@@ -15455,14 +18004,20 @@
       <c r="L34" s="8" t="s">
         <v>1552</v>
       </c>
-      <c r="M34" s="15" t="s">
+      <c r="M34" t="s">
         <v>1691</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="N34" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O34" s="15" t="s">
+        <v>1949</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="255" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>578</v>
       </c>
@@ -15499,14 +18054,20 @@
       <c r="L35" s="8" t="s">
         <v>1553</v>
       </c>
-      <c r="M35" s="15" t="s">
+      <c r="M35" t="s">
         <v>1692</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" t="s">
         <v>1788</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O35" s="15" t="s">
+        <v>1951</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>586</v>
       </c>
@@ -15543,14 +18104,20 @@
       <c r="L36" s="8" t="s">
         <v>1554</v>
       </c>
-      <c r="M36" s="15" t="s">
+      <c r="M36" t="s">
         <v>1693</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="N36" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O36" s="15" t="s">
+        <v>1953</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="255" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>594</v>
       </c>
@@ -15587,14 +18154,20 @@
       <c r="L37" s="8" t="s">
         <v>1555</v>
       </c>
-      <c r="M37" s="15" t="s">
+      <c r="M37" t="s">
         <v>1694</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O37" s="15" t="s">
+        <v>1955</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>602</v>
       </c>
@@ -15631,14 +18204,20 @@
       <c r="L38" s="8" t="s">
         <v>1556</v>
       </c>
-      <c r="M38" s="15" t="s">
+      <c r="M38" t="s">
         <v>1695</v>
       </c>
-      <c r="N38" s="15" t="s">
+      <c r="N38" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O38" s="15" t="s">
+        <v>1957</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="323" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>614</v>
       </c>
@@ -15675,14 +18254,20 @@
       <c r="L39" s="8" t="s">
         <v>1557</v>
       </c>
-      <c r="M39" s="15" t="s">
+      <c r="M39" t="s">
         <v>1697</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="N39" t="s">
         <v>1792</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O39" s="15" t="s">
+        <v>1959</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>622</v>
       </c>
@@ -15719,14 +18304,20 @@
       <c r="L40" s="8" t="s">
         <v>1558</v>
       </c>
-      <c r="M40" s="15" t="s">
+      <c r="M40" t="s">
         <v>1698</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N40" t="s">
         <v>1793</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O40" s="15" t="s">
+        <v>1961</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>630</v>
       </c>
@@ -15763,14 +18354,20 @@
       <c r="L41" s="8" t="s">
         <v>1559</v>
       </c>
-      <c r="M41" s="15" t="s">
+      <c r="M41" t="s">
         <v>1699</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="N41" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O41" s="15" t="s">
+        <v>1963</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="323" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>638</v>
       </c>
@@ -15807,14 +18404,20 @@
       <c r="L42" s="8" t="s">
         <v>1560</v>
       </c>
-      <c r="M42" s="15" t="s">
+      <c r="M42" t="s">
         <v>1700</v>
       </c>
-      <c r="N42" s="15" t="s">
+      <c r="N42" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="O42" s="15" t="s">
+        <v>1965</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="323" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>646</v>
       </c>
@@ -15851,14 +18454,20 @@
       <c r="L43" s="8" t="s">
         <v>1561</v>
       </c>
-      <c r="M43" s="15" t="s">
+      <c r="M43" t="s">
         <v>1701</v>
       </c>
-      <c r="N43" s="15" t="s">
+      <c r="N43" t="s">
         <v>1796</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O43" s="15" t="s">
+        <v>1967</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>654</v>
       </c>
@@ -15895,14 +18504,20 @@
       <c r="L44" s="8" t="s">
         <v>1562</v>
       </c>
-      <c r="M44" s="15" t="s">
+      <c r="M44" t="s">
         <v>1702</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="N44" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O44" s="15" t="s">
+        <v>1969</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="356" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>662</v>
       </c>
@@ -15939,14 +18554,20 @@
       <c r="L45" s="8" t="s">
         <v>1563</v>
       </c>
-      <c r="M45" s="15" t="s">
+      <c r="M45" t="s">
         <v>1703</v>
       </c>
-      <c r="N45" s="15" t="s">
+      <c r="N45" t="s">
         <v>1798</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O45" s="15" t="s">
+        <v>1971</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="306" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>670</v>
       </c>
@@ -15983,14 +18604,20 @@
       <c r="L46" s="8" t="s">
         <v>1564</v>
       </c>
-      <c r="M46" s="15" t="s">
+      <c r="M46" t="s">
         <v>1704</v>
       </c>
-      <c r="N46" s="15" t="s">
+      <c r="N46" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O46" s="15" t="s">
+        <v>1973</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="356" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>682</v>
       </c>
@@ -16027,14 +18654,20 @@
       <c r="L47" s="8" t="s">
         <v>1565</v>
       </c>
-      <c r="M47" s="15" t="s">
+      <c r="M47" t="s">
         <v>1706</v>
       </c>
-      <c r="N47" s="15" t="s">
+      <c r="N47" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O47" s="15" t="s">
+        <v>1975</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>690</v>
       </c>
@@ -16071,14 +18704,20 @@
       <c r="L48" s="8" t="s">
         <v>1566</v>
       </c>
-      <c r="M48" s="15" t="s">
+      <c r="M48" t="s">
         <v>1707</v>
       </c>
-      <c r="N48" s="15" t="s">
+      <c r="N48" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O48" s="15" t="s">
+        <v>1977</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>698</v>
       </c>
@@ -16115,14 +18754,20 @@
       <c r="L49" s="8" t="s">
         <v>1567</v>
       </c>
-      <c r="M49" s="15" t="s">
+      <c r="M49" t="s">
         <v>1708</v>
       </c>
-      <c r="N49" s="15" t="s">
+      <c r="N49" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O49" s="15" t="s">
+        <v>1979</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>706</v>
       </c>
@@ -16159,14 +18804,20 @@
       <c r="L50" s="8" t="s">
         <v>1568</v>
       </c>
-      <c r="M50" s="15" t="s">
+      <c r="M50" t="s">
         <v>1709</v>
       </c>
-      <c r="N50" s="15" t="s">
+      <c r="N50" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O50" s="15" t="s">
+        <v>1981</v>
+      </c>
+      <c r="P50" s="15" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="238" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>714</v>
       </c>
@@ -16203,14 +18854,20 @@
       <c r="L51" s="8" t="s">
         <v>1569</v>
       </c>
-      <c r="M51" s="15" t="s">
+      <c r="M51" t="s">
         <v>1710</v>
       </c>
-      <c r="N51" s="15" t="s">
+      <c r="N51" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O51" s="15" t="s">
+        <v>1983</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="221" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>722</v>
       </c>
@@ -16247,14 +18904,20 @@
       <c r="L52" s="8" t="s">
         <v>1570</v>
       </c>
-      <c r="M52" s="15" t="s">
+      <c r="M52" t="s">
         <v>1711</v>
       </c>
-      <c r="N52" s="15" t="s">
+      <c r="N52" t="s">
         <v>1805</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O52" s="15" t="s">
+        <v>1985</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="323" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>730</v>
       </c>
@@ -16291,14 +18954,20 @@
       <c r="L53" s="8" t="s">
         <v>1571</v>
       </c>
-      <c r="M53" s="15" t="s">
+      <c r="M53" t="s">
         <v>1712</v>
       </c>
-      <c r="N53" s="15" t="s">
+      <c r="N53" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O53" s="15" t="s">
+        <v>1987</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>738</v>
       </c>
@@ -16335,14 +19004,20 @@
       <c r="L54" s="8" t="s">
         <v>1572</v>
       </c>
-      <c r="M54" s="15" t="s">
+      <c r="M54" t="s">
         <v>1713</v>
       </c>
-      <c r="N54" s="15" t="s">
+      <c r="N54" t="s">
         <v>1807</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O54" s="15" t="s">
+        <v>1989</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>746</v>
       </c>
@@ -16379,14 +19054,20 @@
       <c r="L55" s="8" t="s">
         <v>1573</v>
       </c>
-      <c r="M55" s="15" t="s">
+      <c r="M55" t="s">
         <v>1714</v>
       </c>
-      <c r="N55" s="15" t="s">
+      <c r="N55" t="s">
         <v>1808</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O55" s="15" t="s">
+        <v>1991</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="238" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>754</v>
       </c>
@@ -16423,14 +19104,20 @@
       <c r="L56" s="8" t="s">
         <v>1574</v>
       </c>
-      <c r="M56" s="15" t="s">
+      <c r="M56" t="s">
         <v>1715</v>
       </c>
-      <c r="N56" s="15" t="s">
+      <c r="N56" t="s">
         <v>1809</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O56" s="15" t="s">
+        <v>1993</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>762</v>
       </c>
@@ -16467,14 +19154,20 @@
       <c r="L57" s="8" t="s">
         <v>1575</v>
       </c>
-      <c r="M57" s="15" t="s">
+      <c r="M57" t="s">
         <v>1716</v>
       </c>
-      <c r="N57" s="15" t="s">
+      <c r="N57" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O57" s="15" t="s">
+        <v>1995</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>770</v>
       </c>
@@ -16511,14 +19204,20 @@
       <c r="L58" s="8" t="s">
         <v>1576</v>
       </c>
-      <c r="M58" s="15" t="s">
+      <c r="M58" t="s">
         <v>1717</v>
       </c>
-      <c r="N58" s="15" t="s">
+      <c r="N58" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O58" s="15" t="s">
+        <v>1997</v>
+      </c>
+      <c r="P58" s="15" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>778</v>
       </c>
@@ -16555,14 +19254,20 @@
       <c r="L59" s="8" t="s">
         <v>1577</v>
       </c>
-      <c r="M59" s="15" t="s">
+      <c r="M59" t="s">
         <v>1718</v>
       </c>
-      <c r="N59" s="15" t="s">
+      <c r="N59" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O59" s="15" t="s">
+        <v>1999</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>786</v>
       </c>
@@ -16599,14 +19304,20 @@
       <c r="L60" s="8" t="s">
         <v>1578</v>
       </c>
-      <c r="M60" s="15" t="s">
+      <c r="M60" t="s">
         <v>1719</v>
       </c>
-      <c r="N60" s="15" t="s">
+      <c r="N60" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O60" s="15" t="s">
+        <v>2001</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="356" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>798</v>
       </c>
@@ -16643,14 +19354,20 @@
       <c r="L61" s="8" t="s">
         <v>1579</v>
       </c>
-      <c r="M61" s="15" t="s">
+      <c r="M61" t="s">
         <v>1721</v>
       </c>
-      <c r="N61" s="15" t="s">
+      <c r="N61" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="O61" s="15" t="s">
+        <v>2003</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="356" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>806</v>
       </c>
@@ -16687,14 +19404,20 @@
       <c r="L62" s="8" t="s">
         <v>1580</v>
       </c>
-      <c r="M62" s="15" t="s">
+      <c r="M62" t="s">
         <v>1722</v>
       </c>
-      <c r="N62" s="15" t="s">
+      <c r="N62" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O62" s="15" t="s">
+        <v>2005</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="289" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>814</v>
       </c>
@@ -16731,14 +19454,20 @@
       <c r="L63" s="8" t="s">
         <v>1581</v>
       </c>
-      <c r="M63" s="15" t="s">
+      <c r="M63" t="s">
         <v>1723</v>
       </c>
-      <c r="N63" s="15" t="s">
+      <c r="N63" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O63" s="15" t="s">
+        <v>2007</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="323" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>822</v>
       </c>
@@ -16775,14 +19504,20 @@
       <c r="L64" s="8" t="s">
         <v>1582</v>
       </c>
-      <c r="M64" s="15" t="s">
+      <c r="M64" t="s">
         <v>1724</v>
       </c>
-      <c r="N64" s="15" t="s">
+      <c r="N64" t="s">
         <v>1817</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O64" s="15" t="s">
+        <v>2009</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>830</v>
       </c>
@@ -16819,14 +19554,20 @@
       <c r="L65" s="8" t="s">
         <v>1583</v>
       </c>
-      <c r="M65" s="15" t="s">
+      <c r="M65" t="s">
         <v>1725</v>
       </c>
-      <c r="N65" s="15" t="s">
+      <c r="N65" t="s">
         <v>1818</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="O65" s="15" t="s">
+        <v>2011</v>
+      </c>
+      <c r="P65" s="15" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>838</v>
       </c>
@@ -16863,14 +19604,20 @@
       <c r="L66" s="8" t="s">
         <v>1584</v>
       </c>
-      <c r="M66" s="15" t="s">
+      <c r="M66" t="s">
         <v>1726</v>
       </c>
-      <c r="N66" s="15" t="s">
+      <c r="N66" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O66" s="15" t="s">
+        <v>2013</v>
+      </c>
+      <c r="P66" s="15" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="255" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>846</v>
       </c>
@@ -16907,14 +19654,20 @@
       <c r="L67" s="8" t="s">
         <v>1585</v>
       </c>
-      <c r="M67" s="15" t="s">
+      <c r="M67" t="s">
         <v>1727</v>
       </c>
-      <c r="N67" s="15" t="s">
+      <c r="N67" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O67" s="15" t="s">
+        <v>2015</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>854</v>
       </c>
@@ -16951,14 +19704,20 @@
       <c r="L68" s="8" t="s">
         <v>1586</v>
       </c>
-      <c r="M68" s="15" t="s">
+      <c r="M68" t="s">
         <v>1728</v>
       </c>
-      <c r="N68" s="15" t="s">
+      <c r="N68" t="s">
         <v>1821</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O68" s="15" t="s">
+        <v>2017</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>862</v>
       </c>
@@ -16995,14 +19754,20 @@
       <c r="L69" s="8" t="s">
         <v>1587</v>
       </c>
-      <c r="M69" s="15" t="s">
+      <c r="M69" t="s">
         <v>1729</v>
       </c>
-      <c r="N69" s="15" t="s">
+      <c r="N69" t="s">
         <v>1822</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O69" s="15" t="s">
+        <v>2019</v>
+      </c>
+      <c r="P69" s="15" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>870</v>
       </c>
@@ -17039,14 +19804,20 @@
       <c r="L70" s="8" t="s">
         <v>1588</v>
       </c>
-      <c r="M70" s="15" t="s">
+      <c r="M70" t="s">
         <v>1730</v>
       </c>
-      <c r="N70" s="15" t="s">
+      <c r="N70" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O70" s="15" t="s">
+        <v>2021</v>
+      </c>
+      <c r="P70" s="15" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>878</v>
       </c>
@@ -17083,14 +19854,20 @@
       <c r="L71" s="8" t="s">
         <v>1589</v>
       </c>
-      <c r="M71" s="15" t="s">
+      <c r="M71" t="s">
         <v>1731</v>
       </c>
-      <c r="N71" s="15" t="s">
+      <c r="N71" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O71" s="15" t="s">
+        <v>2023</v>
+      </c>
+      <c r="P71" s="15" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="221" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>886</v>
       </c>
@@ -17127,14 +19904,20 @@
       <c r="L72" s="8" t="s">
         <v>1590</v>
       </c>
-      <c r="M72" s="15" t="s">
+      <c r="M72" t="s">
         <v>1732</v>
       </c>
-      <c r="N72" s="15" t="s">
+      <c r="N72" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O72" s="15" t="s">
+        <v>2025</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="221" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>894</v>
       </c>
@@ -17171,14 +19954,20 @@
       <c r="L73" s="8" t="s">
         <v>1591</v>
       </c>
-      <c r="M73" s="15" t="s">
+      <c r="M73" t="s">
         <v>1733</v>
       </c>
-      <c r="N73" s="15" t="s">
+      <c r="N73" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O73" s="15" t="s">
+        <v>2027</v>
+      </c>
+      <c r="P73" s="15" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>902</v>
       </c>
@@ -17215,14 +20004,20 @@
       <c r="L74" s="8" t="s">
         <v>1592</v>
       </c>
-      <c r="M74" s="15" t="s">
+      <c r="M74" t="s">
         <v>1734</v>
       </c>
-      <c r="N74" s="15" t="s">
+      <c r="N74" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O74" s="15" t="s">
+        <v>2029</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="187" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>910</v>
       </c>
@@ -17259,14 +20054,20 @@
       <c r="L75" s="8" t="s">
         <v>1593</v>
       </c>
-      <c r="M75" s="15" t="s">
+      <c r="M75" t="s">
         <v>1735</v>
       </c>
-      <c r="N75" s="15" t="s">
+      <c r="N75" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O75" s="15" t="s">
+        <v>2031</v>
+      </c>
+      <c r="P75" s="15" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>918</v>
       </c>
@@ -17303,14 +20104,20 @@
       <c r="L76" s="8" t="s">
         <v>1594</v>
       </c>
-      <c r="M76" s="15" t="s">
+      <c r="M76" t="s">
         <v>1736</v>
       </c>
-      <c r="N76" s="15" t="s">
+      <c r="N76" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O76" s="15" t="s">
+        <v>2033</v>
+      </c>
+      <c r="P76" s="15" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>926</v>
       </c>
@@ -17347,14 +20154,20 @@
       <c r="L77" s="8" t="s">
         <v>1595</v>
       </c>
-      <c r="M77" s="15" t="s">
+      <c r="M77" t="s">
         <v>1737</v>
       </c>
-      <c r="N77" s="15" t="s">
+      <c r="N77" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O77" s="15" t="s">
+        <v>2035</v>
+      </c>
+      <c r="P77" s="15" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="187" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>934</v>
       </c>
@@ -17391,14 +20204,20 @@
       <c r="L78" s="8" t="s">
         <v>1596</v>
       </c>
-      <c r="M78" s="15" t="s">
+      <c r="M78" t="s">
         <v>1738</v>
       </c>
-      <c r="N78" s="15" t="s">
+      <c r="N78" t="s">
         <v>1831</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O78" s="15" t="s">
+        <v>2037</v>
+      </c>
+      <c r="P78" s="15" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="221" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>942</v>
       </c>
@@ -17435,14 +20254,20 @@
       <c r="L79" s="8" t="s">
         <v>1597</v>
       </c>
-      <c r="M79" s="15" t="s">
+      <c r="M79" t="s">
         <v>1739</v>
       </c>
-      <c r="N79" s="15" t="s">
+      <c r="N79" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O79" s="15" t="s">
+        <v>2039</v>
+      </c>
+      <c r="P79" s="15" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="238" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>950</v>
       </c>
@@ -17479,14 +20304,20 @@
       <c r="L80" s="8" t="s">
         <v>1598</v>
       </c>
-      <c r="M80" s="15" t="s">
+      <c r="M80" t="s">
         <v>1740</v>
       </c>
-      <c r="N80" s="15" t="s">
+      <c r="N80" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O80" s="15" t="s">
+        <v>2041</v>
+      </c>
+      <c r="P80" s="15" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>958</v>
       </c>
@@ -17523,14 +20354,20 @@
       <c r="L81" s="8" t="s">
         <v>1599</v>
       </c>
-      <c r="M81" s="15" t="s">
+      <c r="M81" t="s">
         <v>1741</v>
       </c>
-      <c r="N81" s="15" t="s">
+      <c r="N81" t="s">
         <v>1834</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O81" s="15" t="s">
+        <v>2043</v>
+      </c>
+      <c r="P81" s="15" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="221" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>966</v>
       </c>
@@ -17567,14 +20404,20 @@
       <c r="L82" s="8" t="s">
         <v>1600</v>
       </c>
-      <c r="M82" s="15" t="s">
+      <c r="M82" t="s">
         <v>1742</v>
       </c>
-      <c r="N82" s="15" t="s">
+      <c r="N82" t="s">
         <v>1835</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O82" s="15" t="s">
+        <v>2045</v>
+      </c>
+      <c r="P82" s="15" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>974</v>
       </c>
@@ -17611,14 +20454,20 @@
       <c r="L83" s="8" t="s">
         <v>1601</v>
       </c>
-      <c r="M83" s="15" t="s">
+      <c r="M83" t="s">
         <v>1743</v>
       </c>
-      <c r="N83" s="15" t="s">
+      <c r="N83" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O83" s="15" t="s">
+        <v>2047</v>
+      </c>
+      <c r="P83" s="15" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="187" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>982</v>
       </c>
@@ -17655,14 +20504,20 @@
       <c r="L84" s="8" t="s">
         <v>1602</v>
       </c>
-      <c r="M84" s="15" t="s">
+      <c r="M84" t="s">
         <v>1744</v>
       </c>
-      <c r="N84" s="15" t="s">
+      <c r="N84" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O84" s="15" t="s">
+        <v>2049</v>
+      </c>
+      <c r="P84" s="15" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>990</v>
       </c>
@@ -17699,14 +20554,20 @@
       <c r="L85" s="8" t="s">
         <v>1603</v>
       </c>
-      <c r="M85" s="15" t="s">
+      <c r="M85" t="s">
         <v>1745</v>
       </c>
-      <c r="N85" s="15" t="s">
+      <c r="N85" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O85" s="15" t="s">
+        <v>2051</v>
+      </c>
+      <c r="P85" s="15" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>998</v>
       </c>
@@ -17743,14 +20604,20 @@
       <c r="L86" s="8" t="s">
         <v>1604</v>
       </c>
-      <c r="M86" s="15" t="s">
+      <c r="M86" t="s">
         <v>1746</v>
       </c>
-      <c r="N86" s="15" t="s">
+      <c r="N86" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O86" s="15" t="s">
+        <v>2053</v>
+      </c>
+      <c r="P86" s="15" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>1006</v>
       </c>
@@ -17787,14 +20654,20 @@
       <c r="L87" s="8" t="s">
         <v>1605</v>
       </c>
-      <c r="M87" s="15" t="s">
+      <c r="M87" t="s">
         <v>1747</v>
       </c>
-      <c r="N87" s="15" t="s">
+      <c r="N87" t="s">
         <v>1840</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O87" s="15" t="s">
+        <v>2055</v>
+      </c>
+      <c r="P87" s="15" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="187" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>1014</v>
       </c>
@@ -17831,14 +20704,20 @@
       <c r="L88" s="8" t="s">
         <v>1606</v>
       </c>
-      <c r="M88" s="15" t="s">
+      <c r="M88" t="s">
         <v>1748</v>
       </c>
-      <c r="N88" s="15" t="s">
+      <c r="N88" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O88" s="15" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P88" s="15" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>1022</v>
       </c>
@@ -17875,14 +20754,20 @@
       <c r="L89" s="8" t="s">
         <v>1607</v>
       </c>
-      <c r="M89" s="15" t="s">
+      <c r="M89" t="s">
         <v>1749</v>
       </c>
-      <c r="N89" s="15" t="s">
+      <c r="N89" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O89" s="15" t="s">
+        <v>2059</v>
+      </c>
+      <c r="P89" s="15" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>1030</v>
       </c>
@@ -17919,14 +20804,20 @@
       <c r="L90" s="8" t="s">
         <v>1608</v>
       </c>
-      <c r="M90" s="15" t="s">
+      <c r="M90" t="s">
         <v>1750</v>
       </c>
-      <c r="N90" s="15" t="s">
+      <c r="N90" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="O90" s="15" t="s">
+        <v>2061</v>
+      </c>
+      <c r="P90" s="15" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>1038</v>
       </c>
@@ -17963,14 +20854,20 @@
       <c r="L91" s="8" t="s">
         <v>1609</v>
       </c>
-      <c r="M91" s="15" t="s">
+      <c r="M91" t="s">
         <v>1751</v>
       </c>
-      <c r="N91" s="15" t="s">
+      <c r="N91" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O91" s="15" t="s">
+        <v>2063</v>
+      </c>
+      <c r="P91" s="15" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="187" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>1046</v>
       </c>
@@ -18007,14 +20904,20 @@
       <c r="L92" s="8" t="s">
         <v>1610</v>
       </c>
-      <c r="M92" s="15" t="s">
+      <c r="M92" t="s">
         <v>1752</v>
       </c>
-      <c r="N92" s="15" t="s">
+      <c r="N92" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="O92" s="15" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P92" s="15" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>1054</v>
       </c>
@@ -18051,14 +20954,20 @@
       <c r="L93" s="8" t="s">
         <v>1611</v>
       </c>
-      <c r="M93" s="15" t="s">
+      <c r="M93" t="s">
         <v>1753</v>
       </c>
-      <c r="N93" s="15" t="s">
+      <c r="N93" t="s">
         <v>1846</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="O93" s="15" t="s">
+        <v>2067</v>
+      </c>
+      <c r="P93" s="15" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>1062</v>
       </c>
@@ -18095,15 +21004,21 @@
       <c r="L94" s="8" t="s">
         <v>1612</v>
       </c>
-      <c r="M94" s="15" t="s">
+      <c r="M94" t="s">
         <v>1754</v>
       </c>
-      <c r="N94" s="15" t="s">
+      <c r="N94" t="s">
         <v>1847</v>
       </c>
+      <c r="O94" s="15" t="s">
+        <v>2069</v>
+      </c>
+      <c r="P94" s="15" t="s">
+        <v>2070</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -18117,9 +21032,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18127,7 +21042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -18146,9 +21061,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -18159,7 +21074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
@@ -18167,7 +21082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>305</v>
       </c>
@@ -18175,24 +21090,24 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
     </row>
@@ -18207,9 +21122,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18228,9 +21143,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1077</v>
       </c>
@@ -18238,7 +21153,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1079</v>
       </c>
